--- a/output/TEST/Female scenarios comparison.xlsx
+++ b/output/TEST/Female scenarios comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\output\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC316A27-7009-4496-BD60-59E6B0E2B43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06CF91-55AD-4E36-A2EB-C1132BCF2258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,10 @@
     <t>Difference vs. 1000 patients</t>
   </si>
   <si>
-    <t>Difference 500 patients</t>
+    <t>SBP -20 units reduction</t>
   </si>
   <si>
-    <t>SBP -20 units reduction</t>
+    <t>Difference 5000 patients</t>
   </si>
 </sst>
 </file>
@@ -378,9 +378,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -388,6 +385,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,11 +402,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3767,7 +3767,7 @@
   <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,7 +3787,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
         <f t="shared" si="1"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4053,39 +4053,39 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <f>C10-C3</f>
+        <f t="shared" ref="C11:K11" si="2">C10-C3</f>
         <v>4.0000000000013358E-3</v>
       </c>
       <c r="D11">
-        <f>D10-D3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E10-E3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F10-F3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G10-G3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H10-H3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I10-I3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J10-J3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>K10-K3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4133,35 +4133,35 @@
         <v>9.0000000000003411E-3</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:K14" si="2">D13-D3</f>
+        <f t="shared" ref="D14:K14" si="3">D13-D3</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4209,35 +4209,35 @@
         <v>1.6000000000001791E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:K17" si="3">D16-D3</f>
+        <f t="shared" ref="D17:K17" si="4">D16-D3</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4285,35 +4285,35 @@
         <v>2.2000000000002018E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:K20" si="4">D19-D3</f>
+        <f t="shared" ref="D20:K20" si="5">D19-D3</f>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -4361,35 +4361,35 @@
         <v>4.0000000000013358E-3</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:K23" si="5">D22-D3</f>
+        <f t="shared" ref="D23:K23" si="6">D22-D3</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4434,35 +4434,35 @@
         <v>0.21340000000000003</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:K26" si="6">D25-D3</f>
+        <f t="shared" ref="D26:K26" si="7">D25-D3</f>
         <v>-2.7999999999999969E-3</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.4599999999999983E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6000000000000051E-3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1999999999999981E-3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1999999999999997E-3</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9999999999999863E-4</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.2000000000000002E-3</v>
       </c>
       <c r="K26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4501,18 +4501,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -6071,18 +6071,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -7660,132 +7660,132 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="14" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="16"/>
-      <c r="X2" s="14" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
+      <c r="X2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="16"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="20" t="s">
+      <c r="X3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="21" t="s">
+      <c r="AG3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7793,123 +7793,123 @@
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <f>'KM Comparator'!B3-'KM HbA1c effect'!B3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f>'KM Comparator'!C3-'KM HbA1c effect'!C3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f>'KM Comparator'!D3-'KM HbA1c effect'!D3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>'KM Comparator'!E3-'KM HbA1c effect'!E3</f>
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>'KM Comparator'!F3-'KM HbA1c effect'!F3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>'KM Comparator'!G3-'KM HbA1c effect'!G3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>'KM Comparator'!H3-'KM HbA1c effect'!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>'KM Comparator'!I3-'KM HbA1c effect'!I3</f>
         <v>0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>'KM Comparator'!J3-'KM HbA1c effect'!J3</f>
         <v>0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f>'KM Comparator'!K3-'KM HbA1c effect'!K3</f>
         <v>0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>'KM Comparator'!B3-'KM HbA1c effect plus'!B3</f>
         <v>0</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>'KM Comparator'!C3-'KM HbA1c effect plus'!C3</f>
         <v>0</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f>'KM Comparator'!D3-'KM HbA1c effect plus'!D3</f>
         <v>0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f>'KM Comparator'!E3-'KM HbA1c effect plus'!E3</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <f>'KM Comparator'!F3-'KM HbA1c effect plus'!F3</f>
         <v>0</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <f>'KM Comparator'!G3-'KM HbA1c effect plus'!G3</f>
         <v>0</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <f>'KM Comparator'!H3-'KM HbA1c effect plus'!H3</f>
         <v>0</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f>'KM Comparator'!I3-'KM HbA1c effect plus'!I3</f>
         <v>0</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f>'KM Comparator'!J3-'KM HbA1c effect plus'!J3</f>
         <v>0</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="13">
         <f>'KM Comparator'!K3-'KM HbA1c effect plus'!K3</f>
         <v>0</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <f>'KM Comparator'!B3-'KM HDL effect'!B3</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f>'KM Comparator'!C3-'KM HDL effect'!C3</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <f>'KM Comparator'!D3-'KM HDL effect'!D3</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="7">
         <f>'KM Comparator'!E3-'KM HDL effect'!E3</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <f>'KM Comparator'!F3-'KM HDL effect'!F3</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <f>'KM Comparator'!G3-'KM HDL effect'!G3</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="7">
         <f>'KM Comparator'!H3-'KM HDL effect'!H3</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <f>'KM Comparator'!I3-'KM HDL effect'!I3</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <f>'KM Comparator'!J3-'KM HDL effect'!J3</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="13">
         <f>'KM Comparator'!K3-'KM HDL effect'!K3</f>
         <v>0</v>
       </c>
@@ -7918,123 +7918,123 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <f>'KM Comparator'!B4-'KM HbA1c effect'!B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>'KM Comparator'!C4-'KM HbA1c effect'!C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>'KM Comparator'!D4-'KM HbA1c effect'!D4</f>
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f>'KM Comparator'!E4-'KM HbA1c effect'!E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>'KM Comparator'!F4-'KM HbA1c effect'!F4</f>
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f>'KM Comparator'!G4-'KM HbA1c effect'!G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f>'KM Comparator'!H4-'KM HbA1c effect'!H4</f>
         <v>0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f>'KM Comparator'!I4-'KM HbA1c effect'!I4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f>'KM Comparator'!J4-'KM HbA1c effect'!J4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f>'KM Comparator'!K4-'KM HbA1c effect'!K4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f>'KM Comparator'!B4-'KM HbA1c effect plus'!B4</f>
         <v>0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f>'KM Comparator'!C4-'KM HbA1c effect plus'!C4</f>
         <v>0</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f>'KM Comparator'!D4-'KM HbA1c effect plus'!D4</f>
         <v>0</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f>'KM Comparator'!E4-'KM HbA1c effect plus'!E4</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f>'KM Comparator'!F4-'KM HbA1c effect plus'!F4</f>
         <v>0</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f>'KM Comparator'!G4-'KM HbA1c effect plus'!G4</f>
         <v>0</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <f>'KM Comparator'!H4-'KM HbA1c effect plus'!H4</f>
         <v>0</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f>'KM Comparator'!I4-'KM HbA1c effect plus'!I4</f>
         <v>0</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f>'KM Comparator'!J4-'KM HbA1c effect plus'!J4</f>
         <v>0</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="13">
         <f>'KM Comparator'!K4-'KM HbA1c effect plus'!K4</f>
         <v>0</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <f>'KM Comparator'!B4-'KM HDL effect'!B4</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f>'KM Comparator'!C4-'KM HDL effect'!C4</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <f>'KM Comparator'!D4-'KM HDL effect'!D4</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <f>'KM Comparator'!E4-'KM HDL effect'!E4</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <f>'KM Comparator'!F4-'KM HDL effect'!F4</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <f>'KM Comparator'!G4-'KM HDL effect'!G4</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="7">
         <f>'KM Comparator'!H4-'KM HDL effect'!H4</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <f>'KM Comparator'!I4-'KM HDL effect'!I4</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <f>'KM Comparator'!J4-'KM HDL effect'!J4</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AG5" s="13">
         <f>'KM Comparator'!K4-'KM HDL effect'!K4</f>
         <v>0</v>
       </c>
@@ -8043,123 +8043,123 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>'KM Comparator'!B5-'KM HbA1c effect'!B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f>'KM Comparator'!C5-'KM HbA1c effect'!C5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f>'KM Comparator'!D5-'KM HbA1c effect'!D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>'KM Comparator'!E5-'KM HbA1c effect'!E5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>'KM Comparator'!F5-'KM HbA1c effect'!F5</f>
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>'KM Comparator'!G5-'KM HbA1c effect'!G5</f>
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f>'KM Comparator'!H5-'KM HbA1c effect'!H5</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f>'KM Comparator'!I5-'KM HbA1c effect'!I5</f>
         <v>0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f>'KM Comparator'!J5-'KM HbA1c effect'!J5</f>
         <v>0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f>'KM Comparator'!K5-'KM HbA1c effect'!K5</f>
         <v>0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f>'KM Comparator'!B5-'KM HbA1c effect plus'!B5</f>
         <v>0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f>'KM Comparator'!C5-'KM HbA1c effect plus'!C5</f>
         <v>0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f>'KM Comparator'!D5-'KM HbA1c effect plus'!D5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f>'KM Comparator'!E5-'KM HbA1c effect plus'!E5</f>
         <v>-1.0080726538849172E-3</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f>'KM Comparator'!F5-'KM HbA1c effect plus'!F5</f>
         <v>0</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <f>'KM Comparator'!G5-'KM HbA1c effect plus'!G5</f>
         <v>-1.9959636730569885E-3</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <f>'KM Comparator'!H5-'KM HbA1c effect plus'!H5</f>
         <v>0</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f>'KM Comparator'!I5-'KM HbA1c effect plus'!I5</f>
         <v>0</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <f>'KM Comparator'!J5-'KM HbA1c effect plus'!J5</f>
         <v>0</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="13">
         <f>'KM Comparator'!K5-'KM HbA1c effect plus'!K5</f>
         <v>0</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <f>'KM Comparator'!B5-'KM HDL effect'!B5</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <f>'KM Comparator'!C5-'KM HDL effect'!C5</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <f>'KM Comparator'!D5-'KM HDL effect'!D5</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="7">
         <f>'KM Comparator'!E5-'KM HDL effect'!E5</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <f>'KM Comparator'!F5-'KM HDL effect'!F5</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <f>'KM Comparator'!G5-'KM HDL effect'!G5</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="7">
         <f>'KM Comparator'!H5-'KM HDL effect'!H5</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="7">
         <f>'KM Comparator'!I5-'KM HDL effect'!I5</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <f>'KM Comparator'!J5-'KM HDL effect'!J5</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AG6" s="13">
         <f>'KM Comparator'!K5-'KM HDL effect'!K5</f>
         <v>0</v>
       </c>
@@ -8168,123 +8168,123 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <f>'KM Comparator'!B6-'KM HbA1c effect'!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f>'KM Comparator'!C6-'KM HbA1c effect'!C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f>'KM Comparator'!D6-'KM HbA1c effect'!D6</f>
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>'KM Comparator'!E6-'KM HbA1c effect'!E6</f>
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>'KM Comparator'!F6-'KM HbA1c effect'!F6</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f>'KM Comparator'!G6-'KM HbA1c effect'!G6</f>
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f>'KM Comparator'!H6-'KM HbA1c effect'!H6</f>
         <v>0</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f>'KM Comparator'!I6-'KM HbA1c effect'!I6</f>
         <v>0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f>'KM Comparator'!J6-'KM HbA1c effect'!J6</f>
         <v>0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f>'KM Comparator'!K6-'KM HbA1c effect'!K6</f>
         <v>0</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f>'KM Comparator'!B6-'KM HbA1c effect plus'!B6</f>
         <v>0</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f>'KM Comparator'!C6-'KM HbA1c effect plus'!C6</f>
         <v>-2.0408580183859382E-3</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f>'KM Comparator'!D6-'KM HbA1c effect plus'!D6</f>
         <v>0</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f>'KM Comparator'!E6-'KM HbA1c effect plus'!E6</f>
         <v>-1.0060132613329831E-3</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f>'KM Comparator'!F6-'KM HbA1c effect plus'!F6</f>
         <v>0</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f>'KM Comparator'!G6-'KM HbA1c effect plus'!G6</f>
         <v>-2.9888485645580554E-3</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <f>'KM Comparator'!H6-'KM HbA1c effect plus'!H6</f>
         <v>0</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f>'KM Comparator'!I6-'KM HbA1c effect plus'!I6</f>
         <v>0</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f>'KM Comparator'!J6-'KM HbA1c effect plus'!J6</f>
         <v>0</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="13">
         <f>'KM Comparator'!K6-'KM HbA1c effect plus'!K6</f>
         <v>0</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <f>'KM Comparator'!B6-'KM HDL effect'!B6</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <f>'KM Comparator'!C6-'KM HDL effect'!C6</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="7">
         <f>'KM Comparator'!D6-'KM HDL effect'!D6</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="7">
         <f>'KM Comparator'!E6-'KM HDL effect'!E6</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="7">
         <f>'KM Comparator'!F6-'KM HDL effect'!F6</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <f>'KM Comparator'!G6-'KM HDL effect'!G6</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="7">
         <f>'KM Comparator'!H6-'KM HDL effect'!H6</f>
         <v>-1.0122409138829669E-3</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <f>'KM Comparator'!I6-'KM HDL effect'!I6</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <f>'KM Comparator'!J6-'KM HDL effect'!J6</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AG7" s="13">
         <f>'KM Comparator'!K6-'KM HDL effect'!K6</f>
         <v>-1.0000000000000009E-3</v>
       </c>
@@ -8293,123 +8293,123 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <f>'KM Comparator'!B7-'KM HbA1c effect'!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f>'KM Comparator'!C7-'KM HbA1c effect'!C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>'KM Comparator'!D7-'KM HbA1c effect'!D7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f>'KM Comparator'!E7-'KM HbA1c effect'!E7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>'KM Comparator'!F7-'KM HbA1c effect'!F7</f>
         <v>0</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f>'KM Comparator'!G7-'KM HbA1c effect'!G7</f>
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f>'KM Comparator'!H7-'KM HbA1c effect'!H7</f>
         <v>0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f>'KM Comparator'!I7-'KM HbA1c effect'!I7</f>
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f>'KM Comparator'!J7-'KM HbA1c effect'!J7</f>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f>'KM Comparator'!K7-'KM HbA1c effect'!K7</f>
         <v>0</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f>'KM Comparator'!B7-'KM HbA1c effect plus'!B7</f>
         <v>0</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f>'KM Comparator'!C7-'KM HbA1c effect plus'!C7</f>
         <v>-2.0408580183859382E-3</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f>'KM Comparator'!D7-'KM HbA1c effect plus'!D7</f>
         <v>0</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f>'KM Comparator'!E7-'KM HbA1c effect plus'!E7</f>
         <v>-1.0060132613329831E-3</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f>'KM Comparator'!F7-'KM HbA1c effect plus'!F7</f>
         <v>-1.0256410256410664E-3</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <f>'KM Comparator'!G7-'KM HbA1c effect plus'!G7</f>
         <v>-2.9581937074859566E-3</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <f>'KM Comparator'!H7-'KM HbA1c effect plus'!H7</f>
         <v>0</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f>'KM Comparator'!I7-'KM HbA1c effect plus'!I7</f>
         <v>0</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <f>'KM Comparator'!J7-'KM HbA1c effect plus'!J7</f>
         <v>0</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="13">
         <f>'KM Comparator'!K7-'KM HbA1c effect plus'!K7</f>
         <v>0</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="7">
         <f>'KM Comparator'!B7-'KM HDL effect'!B7</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="7">
         <f>'KM Comparator'!C7-'KM HDL effect'!C7</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="7">
         <f>'KM Comparator'!D7-'KM HDL effect'!D7</f>
         <v>-2.0996216900659448E-6</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="7">
         <f>'KM Comparator'!E7-'KM HDL effect'!E7</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="7">
         <f>'KM Comparator'!F7-'KM HDL effect'!F7</f>
         <v>-2.1017234129727669E-6</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="7">
         <f>'KM Comparator'!G7-'KM HDL effect'!G7</f>
         <v>-1.0256364590954803E-5</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="7">
         <f>'KM Comparator'!H7-'KM HDL effect'!H7</f>
         <v>-1.0122494236859403E-3</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="7">
         <f>'KM Comparator'!I7-'KM HDL effect'!I7</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="7">
         <f>'KM Comparator'!J7-'KM HDL effect'!J7</f>
         <v>-1.042390604055754E-6</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AG8" s="13">
         <f>'KM Comparator'!K7-'KM HDL effect'!K7</f>
         <v>-1.0000000000000009E-3</v>
       </c>
@@ -8418,123 +8418,123 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <f>'KM Comparator'!B8-'KM HbA1c effect'!B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>'KM Comparator'!C8-'KM HbA1c effect'!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f>'KM Comparator'!D8-'KM HbA1c effect'!D8</f>
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>'KM Comparator'!E8-'KM HbA1c effect'!E8</f>
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>'KM Comparator'!F8-'KM HbA1c effect'!F8</f>
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f>'KM Comparator'!G8-'KM HbA1c effect'!G8</f>
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f>'KM Comparator'!H8-'KM HbA1c effect'!H8</f>
         <v>0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f>'KM Comparator'!I8-'KM HbA1c effect'!I8</f>
         <v>0</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <f>'KM Comparator'!J8-'KM HbA1c effect'!J8</f>
         <v>0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f>'KM Comparator'!K8-'KM HbA1c effect'!K8</f>
         <v>0</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f>'KM Comparator'!B8-'KM HbA1c effect plus'!B8</f>
         <v>0</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f>'KM Comparator'!C8-'KM HbA1c effect plus'!C8</f>
         <v>-2.0323985032839609E-3</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f>'KM Comparator'!D8-'KM HbA1c effect plus'!D8</f>
         <v>0</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f>'KM Comparator'!E8-'KM HbA1c effect plus'!E8</f>
         <v>-1.0049707605449543E-3</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <f>'KM Comparator'!F8-'KM HbA1c effect plus'!F8</f>
         <v>-1.0256410256410664E-3</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <f>'KM Comparator'!G8-'KM HbA1c effect plus'!G8</f>
         <v>-2.9459317646560734E-3</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <f>'KM Comparator'!H8-'KM HbA1c effect plus'!H8</f>
         <v>0</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <f>'KM Comparator'!I8-'KM HbA1c effect plus'!I8</f>
         <v>0</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <f>'KM Comparator'!J8-'KM HbA1c effect plus'!J8</f>
         <v>0</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="13">
         <f>'KM Comparator'!K8-'KM HbA1c effect plus'!K8</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="7">
         <f>'KM Comparator'!B8-'KM HDL effect'!B8</f>
         <v>-2.1325734809174435E-6</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="7">
         <f>'KM Comparator'!C8-'KM HDL effect'!C8</f>
         <v>-4.264786598984216E-6</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="7">
         <f>'KM Comparator'!D8-'KM HDL effect'!D8</f>
         <v>-2.0996216900659448E-6</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="7">
         <f>'KM Comparator'!E8-'KM HDL effect'!E8</f>
         <v>-1.0673222370360946E-6</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="7">
         <f>'KM Comparator'!F8-'KM HDL effect'!F8</f>
         <v>-2.1017234129727669E-6</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="7">
         <f>'KM Comparator'!G8-'KM HDL effect'!G8</f>
         <v>-1.4358910427003657E-5</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="7">
         <f>'KM Comparator'!H8-'KM HDL effect'!H8</f>
         <v>-1.0123014393249585E-3</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AE9" s="7">
         <f>'KM Comparator'!I8-'KM HDL effect'!I8</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="7">
         <f>'KM Comparator'!J8-'KM HDL effect'!J8</f>
         <v>-5.2900895420870953E-6</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="13">
         <f>'KM Comparator'!K8-'KM HDL effect'!K8</f>
         <v>-1.0000000000000009E-3</v>
       </c>
@@ -8543,123 +8543,123 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <f>'KM Comparator'!B9-'KM HbA1c effect'!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f>'KM Comparator'!C9-'KM HbA1c effect'!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f>'KM Comparator'!D9-'KM HbA1c effect'!D9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f>'KM Comparator'!E9-'KM HbA1c effect'!E9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f>'KM Comparator'!F9-'KM HbA1c effect'!F9</f>
         <v>0</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f>'KM Comparator'!G9-'KM HbA1c effect'!G9</f>
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f>'KM Comparator'!H9-'KM HbA1c effect'!H9</f>
         <v>0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f>'KM Comparator'!I9-'KM HbA1c effect'!I9</f>
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <f>'KM Comparator'!J9-'KM HbA1c effect'!J9</f>
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f>'KM Comparator'!K9-'KM HbA1c effect'!K9</f>
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f>'KM Comparator'!B9-'KM HbA1c effect plus'!B9</f>
         <v>-4.3097052949692127E-6</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f>'KM Comparator'!C9-'KM HbA1c effect plus'!C9</f>
         <v>-2.0282305675279888E-3</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <f>'KM Comparator'!D9-'KM HbA1c effect plus'!D9</f>
         <v>-1.0828888269420744E-6</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f>'KM Comparator'!E9-'KM HbA1c effect plus'!E9</f>
         <v>-1.0051017525620765E-3</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f>'KM Comparator'!F9-'KM HbA1c effect plus'!F9</f>
         <v>-1.0256566223720842E-3</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <f>'KM Comparator'!G9-'KM HbA1c effect plus'!G9</f>
         <v>-2.9337891212499745E-3</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <f>'KM Comparator'!H9-'KM HbA1c effect plus'!H9</f>
         <v>-1.0631499391955401E-5</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <f>'KM Comparator'!I9-'KM HbA1c effect plus'!I9</f>
         <v>0</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <f>'KM Comparator'!J9-'KM HbA1c effect plus'!J9</f>
         <v>-5.3593917190841722E-6</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="13">
         <f>'KM Comparator'!K9-'KM HbA1c effect plus'!K9</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <f>'KM Comparator'!B9-'KM HDL effect'!B9</f>
         <v>-6.4333930519522298E-6</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="7">
         <f>'KM Comparator'!C9-'KM HDL effect'!C9</f>
         <v>-8.5474079960512483E-6</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="7">
         <f>'KM Comparator'!D9-'KM HDL effect'!D9</f>
         <v>-3.1803234109561984E-6</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="7">
         <f>'KM Comparator'!E9-'KM HDL effect'!E9</f>
         <v>-5.3812452470713978E-6</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="7">
         <f>'KM Comparator'!F9-'KM HDL effect'!F9</f>
         <v>-3.18350691708158E-6</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="7">
         <f>'KM Comparator'!G9-'KM HDL effect'!G9</f>
         <v>-2.0538597359065491E-5</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="7">
         <f>'KM Comparator'!H9-'KM HDL effect'!H9</f>
         <v>-1.0123881320569517E-3</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="7">
         <f>'KM Comparator'!I9-'KM HDL effect'!I9</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="7">
         <f>'KM Comparator'!J9-'KM HDL effect'!J9</f>
         <v>-1.0621928712040152E-5</v>
       </c>
-      <c r="AG10" s="17">
+      <c r="AG10" s="13">
         <f>'KM Comparator'!K9-'KM HDL effect'!K9</f>
         <v>-1.0000000000000009E-3</v>
       </c>
@@ -8668,123 +8668,123 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <f>'KM Comparator'!B10-'KM HbA1c effect'!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f>'KM Comparator'!C10-'KM HbA1c effect'!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f>'KM Comparator'!D10-'KM HbA1c effect'!D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f>'KM Comparator'!E10-'KM HbA1c effect'!E10</f>
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f>'KM Comparator'!F10-'KM HbA1c effect'!F10</f>
         <v>0</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f>'KM Comparator'!G10-'KM HbA1c effect'!G10</f>
         <v>0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f>'KM Comparator'!H10-'KM HbA1c effect'!H10</f>
         <v>0</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f>'KM Comparator'!I10-'KM HbA1c effect'!I10</f>
         <v>0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <f>'KM Comparator'!J10-'KM HbA1c effect'!J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f>'KM Comparator'!K10-'KM HbA1c effect'!K10</f>
         <v>0</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f>'KM Comparator'!B10-'KM HbA1c effect plus'!B10</f>
         <v>-7.5969119390784101E-6</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f>'KM Comparator'!C10-'KM HbA1c effect plus'!C10</f>
         <v>-2.0251058276700151E-3</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f>'KM Comparator'!D10-'KM HbA1c effect plus'!D10</f>
         <v>-1.0828888269420744E-6</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f>'KM Comparator'!E10-'KM HbA1c effect plus'!E10</f>
         <v>-1.0051017525620765E-3</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <f>'KM Comparator'!F10-'KM HbA1c effect plus'!F10</f>
         <v>-1.0256566223720842E-3</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <f>'KM Comparator'!G10-'KM HbA1c effect plus'!G10</f>
         <v>-2.9195799718250148E-3</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <f>'KM Comparator'!H10-'KM HbA1c effect plus'!H10</f>
         <v>-1.276683258000233E-5</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <f>'KM Comparator'!I10-'KM HbA1c effect plus'!I10</f>
         <v>0</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <f>'KM Comparator'!J10-'KM HbA1c effect plus'!J10</f>
         <v>-9.7106574019623082E-6</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="13">
         <f>'KM Comparator'!K10-'KM HbA1c effect plus'!K10</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <f>'KM Comparator'!B10-'KM HDL effect'!B10</f>
         <v>-9.7138791660400514E-6</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="7">
         <f>'KM Comparator'!C10-'KM HDL effect'!C10</f>
         <v>-1.1814070541960042E-5</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="7">
         <f>'KM Comparator'!D10-'KM HDL effect'!D10</f>
         <v>-3.1803234109561984E-6</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="7">
         <f>'KM Comparator'!E10-'KM HDL effect'!E10</f>
         <v>-5.3812452470713978E-6</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="7">
         <f>'KM Comparator'!F10-'KM HDL effect'!F10</f>
         <v>-3.18350691708158E-6</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="7">
         <f>'KM Comparator'!G10-'KM HDL effect'!G10</f>
         <v>-2.7840791465005843E-5</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AD11" s="7">
         <f>'KM Comparator'!H10-'KM HDL effect'!H10</f>
         <v>-1.0124100546270443E-3</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AE11" s="7">
         <f>'KM Comparator'!I10-'KM HDL effect'!I10</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="7">
         <f>'KM Comparator'!J10-'KM HDL effect'!J10</f>
         <v>-1.4950989597029007E-5</v>
       </c>
-      <c r="AG11" s="17">
+      <c r="AG11" s="13">
         <f>'KM Comparator'!K10-'KM HDL effect'!K10</f>
         <v>0</v>
       </c>
@@ -8793,123 +8793,123 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>'KM Comparator'!B11-'KM HbA1c effect'!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f>'KM Comparator'!C11-'KM HbA1c effect'!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f>'KM Comparator'!D11-'KM HbA1c effect'!D11</f>
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f>'KM Comparator'!E11-'KM HbA1c effect'!E11</f>
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f>'KM Comparator'!F11-'KM HbA1c effect'!F11</f>
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f>'KM Comparator'!G11-'KM HbA1c effect'!G11</f>
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f>'KM Comparator'!H11-'KM HbA1c effect'!H11</f>
         <v>0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f>'KM Comparator'!I11-'KM HbA1c effect'!I11</f>
         <v>0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <f>'KM Comparator'!J11-'KM HbA1c effect'!J11</f>
         <v>0</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f>'KM Comparator'!K11-'KM HbA1c effect'!K11</f>
         <v>0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f>'KM Comparator'!B11-'KM HbA1c effect plus'!B11</f>
         <v>-7.5969119390784101E-6</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f>'KM Comparator'!C11-'KM HbA1c effect plus'!C11</f>
         <v>-2.0230252089979972E-3</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <f>'KM Comparator'!D11-'KM HbA1c effect plus'!D11</f>
         <v>-1.0828888269420744E-6</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <f>'KM Comparator'!E11-'KM HbA1c effect plus'!E11</f>
         <v>-1.0052963111190083E-3</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <f>'KM Comparator'!F11-'KM HbA1c effect plus'!F11</f>
         <v>-1.0256566223720842E-3</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <f>'KM Comparator'!G11-'KM HbA1c effect plus'!G11</f>
         <v>-2.9032516887690374E-3</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="7">
         <f>'KM Comparator'!H11-'KM HbA1c effect plus'!H11</f>
         <v>-1.6081760785935373E-5</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <f>'KM Comparator'!I11-'KM HbA1c effect plus'!I11</f>
         <v>-3.4723427900784642E-6</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="7">
         <f>'KM Comparator'!J11-'KM HbA1c effect plus'!J11</f>
         <v>-1.0831647046960491E-5</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="13">
         <f>'KM Comparator'!K11-'KM HbA1c effect plus'!K11</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <f>'KM Comparator'!B11-'KM HDL effect'!B11</f>
         <v>-9.7138791660400514E-6</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="7">
         <f>'KM Comparator'!C11-'KM HDL effect'!C11</f>
         <v>-1.1788636589904478E-5</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="7">
         <f>'KM Comparator'!D11-'KM HDL effect'!D11</f>
         <v>-3.1803234109561984E-6</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="7">
         <f>'KM Comparator'!E11-'KM HDL effect'!E11</f>
         <v>-5.3638677059986151E-6</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="7">
         <f>'KM Comparator'!F11-'KM HDL effect'!F11</f>
         <v>-3.18350691708158E-6</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="7">
         <f>'KM Comparator'!G11-'KM HDL effect'!G11</f>
         <v>-2.7601042992930758E-5</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="7">
         <f>'KM Comparator'!H11-'KM HDL effect'!H11</f>
         <v>-1.0091407003059993E-3</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="7">
         <f>'KM Comparator'!I11-'KM HDL effect'!I11</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="7">
         <f>'KM Comparator'!J11-'KM HDL effect'!J11</f>
         <v>-1.4934895958940153E-5</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="13">
         <f>'KM Comparator'!K11-'KM HDL effect'!K11</f>
         <v>0</v>
       </c>
@@ -8918,123 +8918,123 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <f>'KM Comparator'!B12-'KM HbA1c effect'!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f>'KM Comparator'!C12-'KM HbA1c effect'!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f>'KM Comparator'!D12-'KM HbA1c effect'!D12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f>'KM Comparator'!E12-'KM HbA1c effect'!E12</f>
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f>'KM Comparator'!F12-'KM HbA1c effect'!F12</f>
         <v>0</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f>'KM Comparator'!G12-'KM HbA1c effect'!G12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f>'KM Comparator'!H12-'KM HbA1c effect'!H12</f>
         <v>0</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f>'KM Comparator'!I12-'KM HbA1c effect'!I12</f>
         <v>0</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <f>'KM Comparator'!J12-'KM HbA1c effect'!J12</f>
         <v>0</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f>'KM Comparator'!K12-'KM HbA1c effect'!K12</f>
         <v>0</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f>'KM Comparator'!B12-'KM HbA1c effect plus'!B12</f>
         <v>-1.1111856318080093E-5</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f>'KM Comparator'!C12-'KM HbA1c effect plus'!C12</f>
         <v>-2.0199097074240502E-3</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <f>'KM Comparator'!D12-'KM HbA1c effect plus'!D12</f>
         <v>-1.0828888269420744E-6</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <f>'KM Comparator'!E12-'KM HbA1c effect plus'!E12</f>
         <v>-1.0056258025640252E-3</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <f>'KM Comparator'!F12-'KM HbA1c effect plus'!F12</f>
         <v>-1.0256566223720842E-3</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <f>'KM Comparator'!G12-'KM HbA1c effect plus'!G12</f>
         <v>-2.886858825425942E-3</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="7">
         <f>'KM Comparator'!H12-'KM HbA1c effect plus'!H12</f>
         <v>-1.7218660959938958E-5</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <f>'KM Comparator'!I12-'KM HbA1c effect plus'!I12</f>
         <v>-3.4723427900784642E-6</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="7">
         <f>'KM Comparator'!J12-'KM HbA1c effect plus'!J12</f>
         <v>-1.4306549203979557E-5</v>
       </c>
-      <c r="V13" s="17">
+      <c r="V13" s="13">
         <f>'KM Comparator'!K12-'KM HbA1c effect plus'!K12</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="7">
         <f>'KM Comparator'!B12-'KM HDL effect'!B12</f>
         <v>-9.6819606140163827E-6</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="7">
         <f>'KM Comparator'!C12-'KM HDL effect'!C12</f>
         <v>-1.1749900654001166E-5</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="7">
         <f>'KM Comparator'!D12-'KM HDL effect'!D12</f>
         <v>-3.1803234109561984E-6</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="7">
         <f>'KM Comparator'!E12-'KM HDL effect'!E12</f>
         <v>-5.3403677380270409E-6</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="7">
         <f>'KM Comparator'!F12-'KM HDL effect'!F12</f>
         <v>-3.18350691708158E-6</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC13" s="7">
         <f>'KM Comparator'!G12-'KM HDL effect'!G12</f>
         <v>-2.7359193765952305E-5</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AD13" s="7">
         <f>'KM Comparator'!H12-'KM HDL effect'!H12</f>
         <v>-1.0080353983349388E-3</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AE13" s="7">
         <f>'KM Comparator'!I12-'KM HDL effect'!I12</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AF13" s="7">
         <f>'KM Comparator'!J12-'KM HDL effect'!J12</f>
         <v>-1.4885821820964651E-5</v>
       </c>
-      <c r="AG13" s="17">
+      <c r="AG13" s="13">
         <f>'KM Comparator'!K12-'KM HDL effect'!K12</f>
         <v>0</v>
       </c>
@@ -9043,123 +9043,123 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f>'KM Comparator'!B13-'KM HbA1c effect'!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>'KM Comparator'!C13-'KM HbA1c effect'!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f>'KM Comparator'!D13-'KM HbA1c effect'!D13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f>'KM Comparator'!E13-'KM HbA1c effect'!E13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f>'KM Comparator'!F13-'KM HbA1c effect'!F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f>'KM Comparator'!G13-'KM HbA1c effect'!G13</f>
         <v>0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f>'KM Comparator'!H13-'KM HbA1c effect'!H13</f>
         <v>0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f>'KM Comparator'!I13-'KM HbA1c effect'!I13</f>
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <f>'KM Comparator'!J13-'KM HbA1c effect'!J13</f>
         <v>0</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f>'KM Comparator'!K13-'KM HbA1c effect'!K13</f>
         <v>0</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f>'KM Comparator'!B13-'KM HbA1c effect plus'!B13</f>
         <v>-1.5935917056064675E-5</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <f>'KM Comparator'!C13-'KM HbA1c effect plus'!C13</f>
         <v>-2.0188735034799565E-3</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <f>'KM Comparator'!D13-'KM HbA1c effect plus'!D13</f>
         <v>-2.318062548911648E-6</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <f>'KM Comparator'!E13-'KM HbA1c effect plus'!E13</f>
         <v>-1.0059245173480447E-3</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <f>'KM Comparator'!F13-'KM HbA1c effect plus'!F13</f>
         <v>-1.0257520830060374E-3</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <f>'KM Comparator'!G13-'KM HbA1c effect plus'!G13</f>
         <v>-2.8662875300580204E-3</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="7">
         <f>'KM Comparator'!H13-'KM HbA1c effect plus'!H13</f>
         <v>-2.662298599898083E-5</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <f>'KM Comparator'!I13-'KM HbA1c effect plus'!I13</f>
         <v>-3.4723427900784642E-6</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="7">
         <f>'KM Comparator'!J13-'KM HbA1c effect plus'!J13</f>
         <v>-1.6691208941987945E-5</v>
       </c>
-      <c r="V14" s="17">
+      <c r="V14" s="13">
         <f>'KM Comparator'!K13-'KM HbA1c effect plus'!K13</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="7">
         <f>'KM Comparator'!B13-'KM HDL effect'!B13</f>
         <v>-9.6387857609903094E-6</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="7">
         <f>'KM Comparator'!C13-'KM HDL effect'!C13</f>
         <v>-1.1736801544981468E-5</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="7">
         <f>'KM Comparator'!D13-'KM HDL effect'!D13</f>
         <v>-3.1767778989610918E-6</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AA14" s="7">
         <f>'KM Comparator'!E13-'KM HDL effect'!E13</f>
         <v>-5.322506976046526E-6</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AB14" s="7">
         <f>'KM Comparator'!F13-'KM HDL effect'!F13</f>
         <v>-3.1799578570357312E-6</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14" s="7">
         <f>'KM Comparator'!G13-'KM HDL effect'!G13</f>
         <v>-2.7054186030994742E-5</v>
       </c>
-      <c r="AD14" s="8">
+      <c r="AD14" s="7">
         <f>'KM Comparator'!H13-'KM HDL effect'!H13</f>
         <v>-9.9904511607606938E-4</v>
       </c>
-      <c r="AE14" s="8">
+      <c r="AE14" s="7">
         <f>'KM Comparator'!I13-'KM HDL effect'!I13</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="8">
+      <c r="AF14" s="7">
         <f>'KM Comparator'!J13-'KM HDL effect'!J13</f>
         <v>-1.4852631582962239E-5</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AG14" s="13">
         <f>'KM Comparator'!K13-'KM HDL effect'!K13</f>
         <v>0</v>
       </c>
@@ -9168,123 +9168,123 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <f>'KM Comparator'!B14-'KM HbA1c effect'!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f>'KM Comparator'!C14-'KM HbA1c effect'!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f>'KM Comparator'!D14-'KM HbA1c effect'!D14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f>'KM Comparator'!E14-'KM HbA1c effect'!E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f>'KM Comparator'!F14-'KM HbA1c effect'!F14</f>
         <v>0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f>'KM Comparator'!G14-'KM HbA1c effect'!G14</f>
         <v>0</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f>'KM Comparator'!H14-'KM HbA1c effect'!H14</f>
         <v>0</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f>'KM Comparator'!I14-'KM HbA1c effect'!I14</f>
         <v>0</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f>'KM Comparator'!J14-'KM HbA1c effect'!J14</f>
         <v>0</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f>'KM Comparator'!K14-'KM HbA1c effect'!K14</f>
         <v>0</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f>'KM Comparator'!B14-'KM HbA1c effect plus'!B14</f>
         <v>-2.3474855774030523E-5</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <f>'KM Comparator'!C14-'KM HbA1c effect plus'!C14</f>
         <v>-2.0157799097410001E-3</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <f>'KM Comparator'!D14-'KM HbA1c effect plus'!D14</f>
         <v>-3.6132649260389726E-6</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <f>'KM Comparator'!E14-'KM HbA1c effect plus'!E14</f>
         <v>-1.0059245173480447E-3</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <f>'KM Comparator'!F14-'KM HbA1c effect plus'!F14</f>
         <v>-1.0257520830060374E-3</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <f>'KM Comparator'!G14-'KM HbA1c effect plus'!G14</f>
         <v>-3.9076865991899412E-3</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="7">
         <f>'KM Comparator'!H14-'KM HbA1c effect plus'!H14</f>
         <v>-3.1478679272001209E-5</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="7">
         <f>'KM Comparator'!I14-'KM HbA1c effect plus'!I14</f>
         <v>-3.4723427900784642E-6</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="7">
         <f>'KM Comparator'!J14-'KM HbA1c effect plus'!J14</f>
         <v>-2.2930523965958294E-5</v>
       </c>
-      <c r="V15" s="17">
+      <c r="V15" s="13">
         <f>'KM Comparator'!K14-'KM HbA1c effect plus'!K14</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="7">
         <f>'KM Comparator'!B14-'KM HDL effect'!B14</f>
         <v>-9.572691231030106E-6</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="7">
         <f>'KM Comparator'!C14-'KM HDL effect'!C14</f>
         <v>-1.1696561083018864E-5</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="7">
         <f>'KM Comparator'!D14-'KM HDL effect'!D14</f>
         <v>-3.1731472950324857E-6</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="7">
         <f>'KM Comparator'!E14-'KM HDL effect'!E14</f>
         <v>-5.322506976046526E-6</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="7">
         <f>'KM Comparator'!F14-'KM HDL effect'!F14</f>
         <v>-3.1799578570357312E-6</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="7">
         <f>'KM Comparator'!G14-'KM HDL effect'!G14</f>
         <v>-2.6837752542974158E-5</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AD15" s="7">
         <f>'KM Comparator'!H14-'KM HDL effect'!H14</f>
         <v>-9.9447805268704226E-4</v>
       </c>
-      <c r="AE15" s="8">
+      <c r="AE15" s="7">
         <f>'KM Comparator'!I14-'KM HDL effect'!I14</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AF15" s="7">
         <f>'KM Comparator'!J14-'KM HDL effect'!J14</f>
         <v>-1.4767759402012359E-5</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AG15" s="13">
         <f>'KM Comparator'!K14-'KM HDL effect'!K14</f>
         <v>0</v>
       </c>
@@ -9293,123 +9293,123 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <f>'KM Comparator'!B15-'KM HbA1c effect'!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f>'KM Comparator'!C15-'KM HbA1c effect'!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f>'KM Comparator'!D15-'KM HbA1c effect'!D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f>'KM Comparator'!E15-'KM HbA1c effect'!E15</f>
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f>'KM Comparator'!F15-'KM HbA1c effect'!F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f>'KM Comparator'!G15-'KM HbA1c effect'!G15</f>
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f>'KM Comparator'!H15-'KM HbA1c effect'!H15</f>
         <v>0</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f>'KM Comparator'!I15-'KM HbA1c effect'!I15</f>
         <v>0</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f>'KM Comparator'!J15-'KM HbA1c effect'!J15</f>
         <v>0</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <f>'KM Comparator'!K15-'KM HbA1c effect'!K15</f>
         <v>0</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f>'KM Comparator'!B15-'KM HbA1c effect plus'!B15</f>
         <v>-3.4184675109960594E-5</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f>'KM Comparator'!C15-'KM HbA1c effect plus'!C15</f>
         <v>-2.0167841883159676E-3</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <f>'KM Comparator'!D15-'KM HbA1c effect plus'!D15</f>
         <v>-6.379154353086669E-6</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <f>'KM Comparator'!E15-'KM HbA1c effect plus'!E15</f>
         <v>-1.0059245173480447E-3</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <f>'KM Comparator'!F15-'KM HbA1c effect plus'!F15</f>
         <v>-1.0288850483070044E-3</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="7">
         <f>'KM Comparator'!G15-'KM HbA1c effect plus'!G15</f>
         <v>-3.889163879711055E-3</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="7">
         <f>'KM Comparator'!H15-'KM HbA1c effect plus'!H15</f>
         <v>-5.2355876642984356E-5</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <f>'KM Comparator'!I15-'KM HbA1c effect plus'!I15</f>
         <v>-3.4723427900784642E-6</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <f>'KM Comparator'!J15-'KM HbA1c effect plus'!J15</f>
         <v>-2.5595236636033469E-5</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="13">
         <f>'KM Comparator'!K15-'KM HbA1c effect plus'!K15</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="7">
         <f>'KM Comparator'!B15-'KM HDL effect'!B15</f>
         <v>-9.5274302790437915E-6</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="7">
         <f>'KM Comparator'!C15-'KM HDL effect'!C15</f>
         <v>-1.1655083914985376E-5</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="7">
         <f>'KM Comparator'!D15-'KM HDL effect'!D15</f>
         <v>-3.1693965309997907E-6</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="7">
         <f>'KM Comparator'!E15-'KM HDL effect'!E15</f>
         <v>-5.322506976046526E-6</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="7">
         <f>'KM Comparator'!F15-'KM HDL effect'!F15</f>
         <v>-3.1724402259625251E-6</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AC16" s="7">
         <f>'KM Comparator'!G15-'KM HDL effect'!G15</f>
         <v>-2.6552244537958458E-5</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AD16" s="7">
         <f>'KM Comparator'!H15-'KM HDL effect'!H15</f>
         <v>-9.8507400490799313E-4</v>
       </c>
-      <c r="AE16" s="8">
+      <c r="AE16" s="7">
         <f>'KM Comparator'!I15-'KM HDL effect'!I15</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AF16" s="7">
         <f>'KM Comparator'!J15-'KM HDL effect'!J15</f>
         <v>-1.4750303422017552E-5</v>
       </c>
-      <c r="AG16" s="17">
+      <c r="AG16" s="13">
         <f>'KM Comparator'!K15-'KM HDL effect'!K15</f>
         <v>0</v>
       </c>
@@ -9418,123 +9418,123 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f>'KM Comparator'!B16-'KM HbA1c effect'!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <f>'KM Comparator'!C16-'KM HbA1c effect'!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <f>'KM Comparator'!D16-'KM HbA1c effect'!D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f>'KM Comparator'!E16-'KM HbA1c effect'!E16</f>
         <v>0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f>'KM Comparator'!F16-'KM HbA1c effect'!F16</f>
         <v>0</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f>'KM Comparator'!G16-'KM HbA1c effect'!G16</f>
         <v>0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f>'KM Comparator'!H16-'KM HbA1c effect'!H16</f>
         <v>0</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f>'KM Comparator'!I16-'KM HbA1c effect'!I16</f>
         <v>0</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f>'KM Comparator'!J16-'KM HbA1c effect'!J16</f>
         <v>0</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <f>'KM Comparator'!K16-'KM HbA1c effect'!K16</f>
         <v>0</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f>'KM Comparator'!B16-'KM HbA1c effect plus'!B16</f>
         <v>-3.6974326002026103E-5</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f>'KM Comparator'!C16-'KM HbA1c effect plus'!C16</f>
         <v>-2.0171869042919788E-3</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <f>'KM Comparator'!D16-'KM HbA1c effect plus'!D16</f>
         <v>-9.2807939170436171E-6</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <f>'KM Comparator'!E16-'KM HbA1c effect plus'!E16</f>
         <v>-1.0092312360459044E-3</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <f>'KM Comparator'!F16-'KM HbA1c effect plus'!F16</f>
         <v>-1.0305530780959637E-3</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <f>'KM Comparator'!G16-'KM HbA1c effect plus'!G16</f>
         <v>-3.876864420405024E-3</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="7">
         <f>'KM Comparator'!H16-'KM HbA1c effect plus'!H16</f>
         <v>-6.3129627537961142E-5</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="7">
         <f>'KM Comparator'!I16-'KM HbA1c effect plus'!I16</f>
         <v>-3.4723427900784642E-6</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="7">
         <f>'KM Comparator'!J16-'KM HbA1c effect plus'!J16</f>
         <v>-3.6779505342088292E-5</v>
       </c>
-      <c r="V17" s="17">
+      <c r="V17" s="13">
         <f>'KM Comparator'!K16-'KM HbA1c effect plus'!K16</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="7">
         <f>'KM Comparator'!B16-'KM HDL effect'!B16</f>
         <v>-9.515881878030541E-6</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="7">
         <f>'KM Comparator'!C16-'KM HDL effect'!C16</f>
         <v>-1.1640956540936997E-5</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="7">
         <f>'KM Comparator'!D16-'KM HDL effect'!D16</f>
         <v>-3.1655548380360443E-6</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="7">
         <f>'KM Comparator'!E16-'KM HDL effect'!E16</f>
         <v>-5.3096039289712849E-6</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="7">
         <f>'KM Comparator'!F16-'KM HDL effect'!F16</f>
         <v>-3.1685948440607348E-6</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AC17" s="7">
         <f>'KM Comparator'!G16-'KM HDL effect'!G16</f>
         <v>-2.6359137305087543E-5</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AD17" s="7">
         <f>'KM Comparator'!H16-'KM HDL effect'!H16</f>
         <v>-9.8029788851994315E-4</v>
       </c>
-      <c r="AE17" s="8">
+      <c r="AE17" s="7">
         <f>'KM Comparator'!I16-'KM HDL effect'!I16</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17" s="7">
         <f>'KM Comparator'!J16-'KM HDL effect'!J16</f>
         <v>-1.4678786799060539E-5</v>
       </c>
-      <c r="AG17" s="17">
+      <c r="AG17" s="13">
         <f>'KM Comparator'!K16-'KM HDL effect'!K16</f>
         <v>0</v>
       </c>
@@ -9543,123 +9543,123 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>'KM Comparator'!B17-'KM HbA1c effect'!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f>'KM Comparator'!C17-'KM HbA1c effect'!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <f>'KM Comparator'!D17-'KM HbA1c effect'!D17</f>
         <v>0</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f>'KM Comparator'!E17-'KM HbA1c effect'!E17</f>
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f>'KM Comparator'!F17-'KM HbA1c effect'!F17</f>
         <v>0</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f>'KM Comparator'!G17-'KM HbA1c effect'!G17</f>
         <v>0</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f>'KM Comparator'!H17-'KM HbA1c effect'!H17</f>
         <v>0</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f>'KM Comparator'!I17-'KM HbA1c effect'!I17</f>
         <v>0</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <f>'KM Comparator'!J17-'KM HbA1c effect'!J17</f>
         <v>0</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f>'KM Comparator'!K17-'KM HbA1c effect'!K17</f>
         <v>0</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f>'KM Comparator'!B17-'KM HbA1c effect plus'!B17</f>
         <v>-5.1448193235992257E-5</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f>'KM Comparator'!C17-'KM HbA1c effect plus'!C17</f>
         <v>-2.0176507915429243E-3</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f>'KM Comparator'!D17-'KM HbA1c effect plus'!D17</f>
         <v>-1.2291109035000858E-5</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <f>'KM Comparator'!E17-'KM HbA1c effect plus'!E17</f>
         <v>-1.0092312360459044E-3</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <f>'KM Comparator'!F17-'KM HbA1c effect plus'!F17</f>
         <v>-1.0340609615190344E-3</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <f>'KM Comparator'!G17-'KM HbA1c effect plus'!G17</f>
         <v>-3.8584886899010185E-3</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <f>'KM Comparator'!H17-'KM HbA1c effect plus'!H17</f>
         <v>-7.1454595129027965E-5</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <f>'KM Comparator'!I17-'KM HbA1c effect plus'!I17</f>
         <v>-3.4723427900784642E-6</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <f>'KM Comparator'!J17-'KM HbA1c effect plus'!J17</f>
         <v>-4.8300305781956432E-5</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="13">
         <f>'KM Comparator'!K17-'KM HbA1c effect plus'!K17</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="7">
         <f>'KM Comparator'!B17-'KM HDL effect'!B17</f>
         <v>-9.457069259033446E-6</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="7">
         <f>'KM Comparator'!C17-'KM HDL effect'!C17</f>
         <v>-1.1626567224976014E-5</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="7">
         <f>'KM Comparator'!D17-'KM HDL effect'!D17</f>
         <v>-3.1616419149393948E-6</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA18" s="7">
         <f>'KM Comparator'!E17-'KM HDL effect'!E17</f>
         <v>-5.3096039289712849E-6</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB18" s="7">
         <f>'KM Comparator'!F17-'KM HDL effect'!F17</f>
         <v>-3.1607614829898267E-6</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AC18" s="7">
         <f>'KM Comparator'!G17-'KM HDL effect'!G17</f>
         <v>-2.6065895974980435E-5</v>
       </c>
-      <c r="AD18" s="8">
+      <c r="AD18" s="7">
         <f>'KM Comparator'!H17-'KM HDL effect'!H17</f>
         <v>-9.7666266767304499E-4</v>
       </c>
-      <c r="AE18" s="8">
+      <c r="AE18" s="7">
         <f>'KM Comparator'!I17-'KM HDL effect'!I17</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF18" s="7">
         <f>'KM Comparator'!J17-'KM HDL effect'!J17</f>
         <v>-1.4606209361001099E-5</v>
       </c>
-      <c r="AG18" s="17">
+      <c r="AG18" s="13">
         <f>'KM Comparator'!K17-'KM HDL effect'!K17</f>
         <v>0</v>
       </c>
@@ -9668,123 +9668,123 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <f>'KM Comparator'!B18-'KM HbA1c effect'!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f>'KM Comparator'!C18-'KM HbA1c effect'!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <f>'KM Comparator'!D18-'KM HbA1c effect'!D18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <f>'KM Comparator'!E18-'KM HbA1c effect'!E18</f>
         <v>0</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f>'KM Comparator'!F18-'KM HbA1c effect'!F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f>'KM Comparator'!G18-'KM HbA1c effect'!G18</f>
         <v>0</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f>'KM Comparator'!H18-'KM HbA1c effect'!H18</f>
         <v>0</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f>'KM Comparator'!I18-'KM HbA1c effect'!I18</f>
         <v>0</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <f>'KM Comparator'!J18-'KM HbA1c effect'!J18</f>
         <v>0</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <f>'KM Comparator'!K18-'KM HbA1c effect'!K18</f>
         <v>0</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f>'KM Comparator'!B18-'KM HbA1c effect plus'!B18</f>
         <v>-5.4439843459985759E-5</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f>'KM Comparator'!C18-'KM HbA1c effect plus'!C18</f>
         <v>-2.0192668839550398E-3</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <f>'KM Comparator'!D18-'KM HbA1c effect plus'!D18</f>
         <v>-1.543237511802964E-5</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <f>'KM Comparator'!E18-'KM HbA1c effect plus'!E18</f>
         <v>-1.0129135353810215E-3</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <f>'KM Comparator'!F18-'KM HbA1c effect plus'!F18</f>
         <v>-1.0340609615190344E-3</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <f>'KM Comparator'!G18-'KM HbA1c effect plus'!G18</f>
         <v>-3.8462903710579921E-3</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="7">
         <f>'KM Comparator'!H18-'KM HbA1c effect plus'!H18</f>
         <v>-9.4517048785047741E-5</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <f>'KM Comparator'!I18-'KM HbA1c effect plus'!I18</f>
         <v>-6.6461228770409164E-6</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="7">
         <f>'KM Comparator'!J18-'KM HbA1c effect plus'!J18</f>
         <v>-5.4268312830951793E-5</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="13">
         <f>'KM Comparator'!K18-'KM HbA1c effect plus'!K18</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="7">
         <f>'KM Comparator'!B18-'KM HDL effect'!B18</f>
         <v>-9.4451134199369235E-6</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Y19" s="7">
         <f>'KM Comparator'!C18-'KM HDL effect'!C18</f>
         <v>-1.1582471520998894E-5</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="7">
         <f>'KM Comparator'!D18-'KM HDL effect'!D18</f>
         <v>-3.1576448960013437E-6</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA19" s="7">
         <f>'KM Comparator'!E18-'KM HDL effect'!E18</f>
         <v>-5.2961788880034888E-6</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AB19" s="7">
         <f>'KM Comparator'!F18-'KM HDL effect'!F18</f>
         <v>-3.1607614829898267E-6</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AC19" s="7">
         <f>'KM Comparator'!G18-'KM HDL effect'!G18</f>
         <v>-2.5868177422005978E-5</v>
       </c>
-      <c r="AD19" s="8">
+      <c r="AD19" s="7">
         <f>'KM Comparator'!H18-'KM HDL effect'!H18</f>
         <v>-9.6678491629298424E-4</v>
       </c>
-      <c r="AE19" s="8">
+      <c r="AE19" s="7">
         <f>'KM Comparator'!I18-'KM HDL effect'!I18</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AF19" s="7">
         <f>'KM Comparator'!J18-'KM HDL effect'!J18</f>
         <v>-1.4569278363962823E-5</v>
       </c>
-      <c r="AG19" s="17">
+      <c r="AG19" s="13">
         <f>'KM Comparator'!K18-'KM HDL effect'!K18</f>
         <v>0</v>
       </c>
@@ -9793,123 +9793,123 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <f>'KM Comparator'!B19-'KM HbA1c effect'!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <f>'KM Comparator'!C19-'KM HbA1c effect'!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <f>'KM Comparator'!D19-'KM HbA1c effect'!D19</f>
         <v>0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <f>'KM Comparator'!E19-'KM HbA1c effect'!E19</f>
         <v>0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f>'KM Comparator'!F19-'KM HbA1c effect'!F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <f>'KM Comparator'!G19-'KM HbA1c effect'!G19</f>
         <v>0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <f>'KM Comparator'!H19-'KM HbA1c effect'!H19</f>
         <v>0</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <f>'KM Comparator'!I19-'KM HbA1c effect'!I19</f>
         <v>0</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <f>'KM Comparator'!J19-'KM HbA1c effect'!J19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <f>'KM Comparator'!K19-'KM HbA1c effect'!K19</f>
         <v>0</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <f>'KM Comparator'!B19-'KM HbA1c effect plus'!B19</f>
         <v>-6.8931485314949192E-5</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <f>'KM Comparator'!C19-'KM HbA1c effect plus'!C19</f>
         <v>-2.0238645155830071E-3</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <f>'KM Comparator'!D19-'KM HbA1c effect plus'!D19</f>
         <v>-1.543237511802964E-5</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <f>'KM Comparator'!E19-'KM HbA1c effect plus'!E19</f>
         <v>-1.0129135353810215E-3</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <f>'KM Comparator'!F19-'KM HbA1c effect plus'!F19</f>
         <v>-1.037780037150049E-3</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <f>'KM Comparator'!G19-'KM HbA1c effect plus'!G19</f>
         <v>-3.8432844320730464E-3</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <f>'KM Comparator'!H19-'KM HbA1c effect plus'!H19</f>
         <v>-1.1752687648802773E-4</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <f>'KM Comparator'!I19-'KM HbA1c effect plus'!I19</f>
         <v>-6.6461228770409164E-6</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <f>'KM Comparator'!J19-'KM HbA1c effect plus'!J19</f>
         <v>-7.8298122151987393E-5</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="13">
         <f>'KM Comparator'!K19-'KM HbA1c effect plus'!K19</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="7">
         <f>'KM Comparator'!B19-'KM HDL effect'!B19</f>
         <v>-9.4080252769357386E-6</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Y20" s="7">
         <f>'KM Comparator'!C19-'KM HDL effect'!C19</f>
         <v>-1.155215091497297E-5</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="7">
         <f>'KM Comparator'!D19-'KM HDL effect'!D19</f>
         <v>-3.1576448960013437E-6</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AA20" s="7">
         <f>'KM Comparator'!E19-'KM HDL effect'!E19</f>
         <v>-5.2961788880034888E-6</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="7">
         <f>'KM Comparator'!F19-'KM HDL effect'!F19</f>
         <v>-3.1566243600122945E-6</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AC20" s="7">
         <f>'KM Comparator'!G19-'KM HDL effect'!G19</f>
         <v>-2.5665024194987396E-5</v>
       </c>
-      <c r="AD20" s="8">
+      <c r="AD20" s="7">
         <f>'KM Comparator'!H19-'KM HDL effect'!H19</f>
         <v>-9.6045778987796648E-4</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AE20" s="7">
         <f>'KM Comparator'!I19-'KM HDL effect'!I19</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="7">
         <f>'KM Comparator'!J19-'KM HDL effect'!J19</f>
         <v>-1.4473929685010489E-5</v>
       </c>
-      <c r="AG20" s="17">
+      <c r="AG20" s="13">
         <f>'KM Comparator'!K19-'KM HDL effect'!K19</f>
         <v>0</v>
       </c>
@@ -9918,123 +9918,123 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <f>'KM Comparator'!B20-'KM HbA1c effect'!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f>'KM Comparator'!C20-'KM HbA1c effect'!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <f>'KM Comparator'!D20-'KM HbA1c effect'!D20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f>'KM Comparator'!E20-'KM HbA1c effect'!E20</f>
         <v>0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f>'KM Comparator'!F20-'KM HbA1c effect'!F20</f>
         <v>0</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <f>'KM Comparator'!G20-'KM HbA1c effect'!G20</f>
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <f>'KM Comparator'!H20-'KM HbA1c effect'!H20</f>
         <v>0</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <f>'KM Comparator'!I20-'KM HbA1c effect'!I20</f>
         <v>0</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <f>'KM Comparator'!J20-'KM HbA1c effect'!J20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <f>'KM Comparator'!K20-'KM HbA1c effect'!K20</f>
         <v>0</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <f>'KM Comparator'!B20-'KM HbA1c effect plus'!B20</f>
         <v>-8.4431772869986155E-5</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <f>'KM Comparator'!C20-'KM HbA1c effect plus'!C20</f>
         <v>-2.0264250210779711E-3</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <f>'KM Comparator'!D20-'KM HbA1c effect plus'!D20</f>
         <v>-3.1731594360984161E-5</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <f>'KM Comparator'!E20-'KM HbA1c effect plus'!E20</f>
         <v>-1.0209181402599521E-3</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <f>'KM Comparator'!F20-'KM HbA1c effect plus'!F20</f>
         <v>-1.0418279271560138E-3</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <f>'KM Comparator'!G20-'KM HbA1c effect plus'!G20</f>
         <v>-3.8406533354069516E-3</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="7">
         <f>'KM Comparator'!H20-'KM HbA1c effect plus'!H20</f>
         <v>-1.4201912791800275E-4</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <f>'KM Comparator'!I20-'KM HbA1c effect plus'!I20</f>
         <v>-6.6461228770409164E-6</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="7">
         <f>'KM Comparator'!J20-'KM HbA1c effect plus'!J20</f>
         <v>-8.8525542242923194E-5</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V21" s="13">
         <f>'KM Comparator'!K20-'KM HbA1c effect plus'!K20</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="7">
         <f>'KM Comparator'!B20-'KM HDL effect'!B20</f>
         <v>-9.3696773479923223E-6</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Y21" s="7">
         <f>'KM Comparator'!C20-'KM HDL effect'!C20</f>
         <v>-1.1536455058025474E-5</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="7">
         <f>'KM Comparator'!D20-'KM HDL effect'!D20</f>
         <v>-3.1447740610479613E-6</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21" s="7">
         <f>'KM Comparator'!E20-'KM HDL effect'!E20</f>
         <v>-5.2817870979104953E-6</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AB21" s="7">
         <f>'KM Comparator'!F20-'KM HDL effect'!F20</f>
         <v>-3.1523354679929838E-6</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AC21" s="7">
         <f>'KM Comparator'!G20-'KM HDL effect'!G20</f>
         <v>-2.5420927498021051E-5</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AD21" s="7">
         <f>'KM Comparator'!H20-'KM HDL effect'!H20</f>
         <v>-9.53932940761959E-4</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AE21" s="7">
         <f>'KM Comparator'!I20-'KM HDL effect'!I20</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="7">
         <f>'KM Comparator'!J20-'KM HDL effect'!J20</f>
         <v>-1.4434598353929573E-5</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AG21" s="13">
         <f>'KM Comparator'!K20-'KM HDL effect'!K20</f>
         <v>0</v>
       </c>
@@ -10043,123 +10043,123 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <f>'KM Comparator'!B21-'KM HbA1c effect'!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <f>'KM Comparator'!C21-'KM HbA1c effect'!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <f>'KM Comparator'!D21-'KM HbA1c effect'!D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <f>'KM Comparator'!E21-'KM HbA1c effect'!E21</f>
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f>'KM Comparator'!F21-'KM HbA1c effect'!F21</f>
         <v>0</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <f>'KM Comparator'!G21-'KM HbA1c effect'!G21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <f>'KM Comparator'!H21-'KM HbA1c effect'!H21</f>
         <v>0</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <f>'KM Comparator'!I21-'KM HbA1c effect'!I21</f>
         <v>0</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <f>'KM Comparator'!J21-'KM HbA1c effect'!J21</f>
         <v>0</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <f>'KM Comparator'!K21-'KM HbA1c effect'!K21</f>
         <v>0</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <f>'KM Comparator'!B21-'KM HbA1c effect plus'!B21</f>
         <v>-1.0585872838397847E-4</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <f>'KM Comparator'!C21-'KM HbA1c effect plus'!C21</f>
         <v>-2.0373309022090336E-3</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <f>'KM Comparator'!D21-'KM HbA1c effect plus'!D21</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <f>'KM Comparator'!E21-'KM HbA1c effect plus'!E21</f>
         <v>-1.0251047285060322E-3</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <f>'KM Comparator'!F21-'KM HbA1c effect plus'!F21</f>
         <v>-1.0418279271560138E-3</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <f>'KM Comparator'!G21-'KM HbA1c effect plus'!G21</f>
         <v>-3.8390588085089883E-3</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="7">
         <f>'KM Comparator'!H21-'KM HbA1c effect plus'!H21</f>
         <v>-1.6222694492395995E-4</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <f>'KM Comparator'!I21-'KM HbA1c effect plus'!I21</f>
         <v>-6.6461228770409164E-6</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="7">
         <f>'KM Comparator'!J21-'KM HbA1c effect plus'!J21</f>
         <v>-1.0447495277898788E-4</v>
       </c>
-      <c r="V22" s="17">
+      <c r="V22" s="13">
         <f>'KM Comparator'!K21-'KM HbA1c effect plus'!K21</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="7">
         <f>'KM Comparator'!B21-'KM HDL effect'!B21</f>
         <v>-9.3176235850256361E-6</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="Y22" s="7">
         <f>'KM Comparator'!C21-'KM HDL effect'!C21</f>
         <v>-1.1472363641074068E-5</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="7">
         <f>'KM Comparator'!D21-'KM HDL effect'!D21</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AA22" s="7">
         <f>'KM Comparator'!E21-'KM HDL effect'!E21</f>
         <v>-5.2744512820668277E-6</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AB22" s="7">
         <f>'KM Comparator'!F21-'KM HDL effect'!F21</f>
         <v>-3.1523354679929838E-6</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AC22" s="7">
         <f>'KM Comparator'!G21-'KM HDL effect'!G21</f>
         <v>-2.5244393279000299E-5</v>
       </c>
-      <c r="AD22" s="8">
+      <c r="AD22" s="7">
         <f>'KM Comparator'!H21-'KM HDL effect'!H21</f>
         <v>-9.4863331331296319E-4</v>
       </c>
-      <c r="AE22" s="8">
+      <c r="AE22" s="7">
         <f>'KM Comparator'!I21-'KM HDL effect'!I21</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AF22" s="7">
         <f>'KM Comparator'!J21-'KM HDL effect'!J21</f>
         <v>-1.4374454193943897E-5</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AG22" s="13">
         <f>'KM Comparator'!K21-'KM HDL effect'!K21</f>
         <v>0</v>
       </c>
@@ -10168,123 +10168,123 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <f>'KM Comparator'!B22-'KM HbA1c effect'!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>'KM Comparator'!C22-'KM HbA1c effect'!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f>'KM Comparator'!D22-'KM HbA1c effect'!D22</f>
         <v>0</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f>'KM Comparator'!E22-'KM HbA1c effect'!E22</f>
         <v>0</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f>'KM Comparator'!F22-'KM HbA1c effect'!F22</f>
         <v>0</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <f>'KM Comparator'!G22-'KM HbA1c effect'!G22</f>
         <v>0</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <f>'KM Comparator'!H22-'KM HbA1c effect'!H22</f>
         <v>0</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f>'KM Comparator'!I22-'KM HbA1c effect'!I22</f>
         <v>0</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <f>'KM Comparator'!J22-'KM HbA1c effect'!J22</f>
         <v>0</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <f>'KM Comparator'!K22-'KM HbA1c effect'!K22</f>
         <v>0</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <f>'KM Comparator'!B22-'KM HbA1c effect plus'!B22</f>
         <v>-1.2287680701894566E-4</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <f>'KM Comparator'!C22-'KM HbA1c effect plus'!C22</f>
         <v>-2.0402997255399846E-3</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <f>'KM Comparator'!D22-'KM HbA1c effect plus'!D22</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <f>'KM Comparator'!E22-'KM HbA1c effect plus'!E22</f>
         <v>-1.034136147469944E-3</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <f>'KM Comparator'!F22-'KM HbA1c effect plus'!F22</f>
         <v>-1.0418279271560138E-3</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <f>'KM Comparator'!G22-'KM HbA1c effect plus'!G22</f>
         <v>-3.837752713672038E-3</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="7">
         <f>'KM Comparator'!H22-'KM HbA1c effect plus'!H22</f>
         <v>-1.7828443342604583E-4</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <f>'KM Comparator'!I22-'KM HbA1c effect plus'!I22</f>
         <v>-6.6461228770409164E-6</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="7">
         <f>'KM Comparator'!J22-'KM HbA1c effect plus'!J22</f>
         <v>-1.1576681693303836E-4</v>
       </c>
-      <c r="V23" s="17">
+      <c r="V23" s="13">
         <f>'KM Comparator'!K22-'KM HbA1c effect plus'!K22</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="7">
         <f>'KM Comparator'!B22-'KM HDL effect'!B22</f>
         <v>-9.2774614139923273E-6</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y23" s="7">
         <f>'KM Comparator'!C22-'KM HDL effect'!C22</f>
         <v>-1.145588036000067E-5</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z23" s="7">
         <f>'KM Comparator'!D22-'KM HDL effect'!D22</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AA23" s="7">
         <f>'KM Comparator'!E22-'KM HDL effect'!E22</f>
         <v>-5.2592948129870365E-6</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AB23" s="7">
         <f>'KM Comparator'!F22-'KM HDL effect'!F22</f>
         <v>-3.1523354679929838E-6</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AC23" s="7">
         <f>'KM Comparator'!G22-'KM HDL effect'!G22</f>
         <v>-2.4990498519006366E-5</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AD23" s="7">
         <f>'KM Comparator'!H22-'KM HDL effect'!H22</f>
         <v>-9.4454437661806168E-4</v>
       </c>
-      <c r="AE23" s="8">
+      <c r="AE23" s="7">
         <f>'KM Comparator'!I22-'KM HDL effect'!I22</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="AF23" s="7">
         <f>'KM Comparator'!J22-'KM HDL effect'!J22</f>
         <v>-1.4333148291023612E-5</v>
       </c>
-      <c r="AG23" s="17">
+      <c r="AG23" s="13">
         <f>'KM Comparator'!K22-'KM HDL effect'!K22</f>
         <v>0</v>
       </c>
@@ -10293,123 +10293,123 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>'KM Comparator'!B23-'KM HbA1c effect'!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f>'KM Comparator'!C23-'KM HbA1c effect'!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f>'KM Comparator'!D23-'KM HbA1c effect'!D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f>'KM Comparator'!E23-'KM HbA1c effect'!E23</f>
         <v>0</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>'KM Comparator'!F23-'KM HbA1c effect'!F23</f>
         <v>0</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f>'KM Comparator'!G23-'KM HbA1c effect'!G23</f>
         <v>0</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <f>'KM Comparator'!H23-'KM HbA1c effect'!H23</f>
         <v>0</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f>'KM Comparator'!I23-'KM HbA1c effect'!I23</f>
         <v>0</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <f>'KM Comparator'!J23-'KM HbA1c effect'!J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <f>'KM Comparator'!K23-'KM HbA1c effect'!K23</f>
         <v>0</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <f>'KM Comparator'!B23-'KM HbA1c effect plus'!B23</f>
         <v>-1.3517348165204002E-4</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <f>'KM Comparator'!C23-'KM HbA1c effect plus'!C23</f>
         <v>-2.043664917139032E-3</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <f>'KM Comparator'!D23-'KM HbA1c effect plus'!D23</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <f>'KM Comparator'!E23-'KM HbA1c effect plus'!E23</f>
         <v>-1.034136147469944E-3</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
         <f>'KM Comparator'!F23-'KM HbA1c effect plus'!F23</f>
         <v>-1.0418279271560138E-3</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <f>'KM Comparator'!G23-'KM HbA1c effect plus'!G23</f>
         <v>-3.8377418235040484E-3</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="7">
         <f>'KM Comparator'!H23-'KM HbA1c effect plus'!H23</f>
         <v>-2.1891992801803539E-4</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <f>'KM Comparator'!I23-'KM HbA1c effect plus'!I23</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="7">
         <f>'KM Comparator'!J23-'KM HbA1c effect plus'!J23</f>
         <v>-1.2804043783298802E-4</v>
       </c>
-      <c r="V24" s="17">
+      <c r="V24" s="13">
         <f>'KM Comparator'!K23-'KM HbA1c effect plus'!K23</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X24" s="8">
+      <c r="X24" s="7">
         <f>'KM Comparator'!B23-'KM HDL effect'!B23</f>
         <v>-9.2496011699916281E-6</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="Y24" s="7">
         <f>'KM Comparator'!C23-'KM HDL effect'!C23</f>
         <v>-1.1438679338060531E-5</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="Z24" s="7">
         <f>'KM Comparator'!D23-'KM HDL effect'!D23</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AA24" s="7">
         <f>'KM Comparator'!E23-'KM HDL effect'!E23</f>
         <v>-5.2592948129870365E-6</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="AB24" s="7">
         <f>'KM Comparator'!F23-'KM HDL effect'!F23</f>
         <v>-3.1523354679929838E-6</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AC24" s="7">
         <f>'KM Comparator'!G23-'KM HDL effect'!G23</f>
         <v>-2.4727835622018191E-5</v>
       </c>
-      <c r="AD24" s="8">
+      <c r="AD24" s="7">
         <f>'KM Comparator'!H23-'KM HDL effect'!H23</f>
         <v>-9.3461673301997727E-4</v>
       </c>
-      <c r="AE24" s="8">
+      <c r="AE24" s="7">
         <f>'KM Comparator'!I23-'KM HDL effect'!I23</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="8">
+      <c r="AF24" s="7">
         <f>'KM Comparator'!J23-'KM HDL effect'!J23</f>
         <v>-1.4290105803005382E-5</v>
       </c>
-      <c r="AG24" s="17">
+      <c r="AG24" s="13">
         <f>'KM Comparator'!K23-'KM HDL effect'!K23</f>
         <v>0</v>
       </c>
@@ -10418,123 +10418,123 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <f>'KM Comparator'!B24-'KM HbA1c effect'!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <f>'KM Comparator'!C24-'KM HbA1c effect'!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <f>'KM Comparator'!D24-'KM HbA1c effect'!D24</f>
         <v>0</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <f>'KM Comparator'!E24-'KM HbA1c effect'!E24</f>
         <v>0</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f>'KM Comparator'!F24-'KM HbA1c effect'!F24</f>
         <v>0</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <f>'KM Comparator'!G24-'KM HbA1c effect'!G24</f>
         <v>0</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <f>'KM Comparator'!H24-'KM HbA1c effect'!H24</f>
         <v>0</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <f>'KM Comparator'!I24-'KM HbA1c effect'!I24</f>
         <v>0</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <f>'KM Comparator'!J24-'KM HbA1c effect'!J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <f>'KM Comparator'!K24-'KM HbA1c effect'!K24</f>
         <v>0</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <f>'KM Comparator'!B24-'KM HbA1c effect plus'!B24</f>
         <v>-1.558921437320171E-4</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <f>'KM Comparator'!C24-'KM HbA1c effect plus'!C24</f>
         <v>-2.0476459421240323E-3</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <f>'KM Comparator'!D24-'KM HbA1c effect plus'!D24</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="7">
         <f>'KM Comparator'!E24-'KM HbA1c effect plus'!E24</f>
         <v>-1.034136147469944E-3</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="7">
         <f>'KM Comparator'!F24-'KM HbA1c effect plus'!F24</f>
         <v>-1.0476713599609777E-3</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="7">
         <f>'KM Comparator'!G24-'KM HbA1c effect plus'!G24</f>
         <v>-3.8405244399329908E-3</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="7">
         <f>'KM Comparator'!H24-'KM HbA1c effect plus'!H24</f>
         <v>-2.5106486044901288E-4</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="7">
         <f>'KM Comparator'!I24-'KM HbA1c effect plus'!I24</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="7">
         <f>'KM Comparator'!J24-'KM HbA1c effect plus'!J24</f>
         <v>-1.4182569493004227E-4</v>
       </c>
-      <c r="V25" s="17">
+      <c r="V25" s="13">
         <f>'KM Comparator'!K24-'KM HbA1c effect plus'!K24</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X25" s="8">
+      <c r="X25" s="7">
         <f>'KM Comparator'!B24-'KM HDL effect'!B24</f>
         <v>-9.2053447059425864E-6</v>
       </c>
-      <c r="Y25" s="8">
+      <c r="Y25" s="7">
         <f>'KM Comparator'!C24-'KM HDL effect'!C24</f>
         <v>-1.1420435831022147E-5</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="Z25" s="7">
         <f>'KM Comparator'!D24-'KM HDL effect'!D24</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA25" s="8">
+      <c r="AA25" s="7">
         <f>'KM Comparator'!E24-'KM HDL effect'!E24</f>
         <v>-5.2592948129870365E-6</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AB25" s="7">
         <f>'KM Comparator'!F24-'KM HDL effect'!F24</f>
         <v>-3.1473078199173443E-6</v>
       </c>
-      <c r="AC25" s="8">
+      <c r="AC25" s="7">
         <f>'KM Comparator'!G24-'KM HDL effect'!G24</f>
         <v>-2.4372890612966991E-5</v>
       </c>
-      <c r="AD25" s="8">
+      <c r="AD25" s="7">
         <f>'KM Comparator'!H24-'KM HDL effect'!H24</f>
         <v>-9.2716364902500903E-4</v>
       </c>
-      <c r="AE25" s="8">
+      <c r="AE25" s="7">
         <f>'KM Comparator'!I24-'KM HDL effect'!I24</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="8">
+      <c r="AF25" s="7">
         <f>'KM Comparator'!J24-'KM HDL effect'!J24</f>
         <v>-1.4244523328987846E-5</v>
       </c>
-      <c r="AG25" s="17">
+      <c r="AG25" s="13">
         <f>'KM Comparator'!K24-'KM HDL effect'!K24</f>
         <v>0</v>
       </c>
@@ -10543,123 +10543,123 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <f>'KM Comparator'!B25-'KM HbA1c effect'!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <f>'KM Comparator'!C25-'KM HbA1c effect'!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <f>'KM Comparator'!D25-'KM HbA1c effect'!D25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f>'KM Comparator'!E25-'KM HbA1c effect'!E25</f>
         <v>0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f>'KM Comparator'!F25-'KM HbA1c effect'!F25</f>
         <v>0</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <f>'KM Comparator'!G25-'KM HbA1c effect'!G25</f>
         <v>0</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f>'KM Comparator'!H25-'KM HbA1c effect'!H25</f>
         <v>0</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <f>'KM Comparator'!I25-'KM HbA1c effect'!I25</f>
         <v>0</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <f>'KM Comparator'!J25-'KM HbA1c effect'!J25</f>
         <v>0</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <f>'KM Comparator'!K25-'KM HbA1c effect'!K25</f>
         <v>0</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <f>'KM Comparator'!B25-'KM HbA1c effect plus'!B25</f>
         <v>-1.9379662118601537E-4</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <f>'KM Comparator'!C25-'KM HbA1c effect plus'!C25</f>
         <v>-2.0522088430710017E-3</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <f>'KM Comparator'!D25-'KM HbA1c effect plus'!D25</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <f>'KM Comparator'!E25-'KM HbA1c effect plus'!E25</f>
         <v>-1.034136147469944E-3</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <f>'KM Comparator'!F25-'KM HbA1c effect plus'!F25</f>
         <v>-1.0476713599609777E-3</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <f>'KM Comparator'!G25-'KM HbA1c effect plus'!G25</f>
         <v>-3.843938651550971E-3</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="7">
         <f>'KM Comparator'!H25-'KM HbA1c effect plus'!H25</f>
         <v>-2.8615965186495895E-4</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <f>'KM Comparator'!I25-'KM HbA1c effect plus'!I25</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="7">
         <f>'KM Comparator'!J25-'KM HbA1c effect plus'!J25</f>
         <v>-1.5700462654100189E-4</v>
       </c>
-      <c r="V26" s="17">
+      <c r="V26" s="13">
         <f>'KM Comparator'!K25-'KM HbA1c effect plus'!K25</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="7">
         <f>'KM Comparator'!B25-'KM HDL effect'!B25</f>
         <v>-9.1281186590519425E-6</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="Y26" s="7">
         <f>'KM Comparator'!C25-'KM HDL effect'!C25</f>
         <v>-1.1401274024991359E-5</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="Z26" s="7">
         <f>'KM Comparator'!D25-'KM HDL effect'!D25</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AA26" s="7">
         <f>'KM Comparator'!E25-'KM HDL effect'!E25</f>
         <v>-5.2592948129870365E-6</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AB26" s="7">
         <f>'KM Comparator'!F25-'KM HDL effect'!F25</f>
         <v>-3.1473078199173443E-6</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AC26" s="7">
         <f>'KM Comparator'!G25-'KM HDL effect'!G25</f>
         <v>-2.4127525941941563E-5</v>
       </c>
-      <c r="AD26" s="8">
+      <c r="AD26" s="7">
         <f>'KM Comparator'!H25-'KM HDL effect'!H25</f>
         <v>-9.1938543049197019E-4</v>
       </c>
-      <c r="AE26" s="8">
+      <c r="AE26" s="7">
         <f>'KM Comparator'!I25-'KM HDL effect'!I25</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="8">
+      <c r="AF26" s="7">
         <f>'KM Comparator'!J25-'KM HDL effect'!J25</f>
         <v>-1.4196722915027493E-5</v>
       </c>
-      <c r="AG26" s="17">
+      <c r="AG26" s="13">
         <f>'KM Comparator'!K25-'KM HDL effect'!K25</f>
         <v>0</v>
       </c>
@@ -10668,123 +10668,123 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <f>'KM Comparator'!B26-'KM HbA1c effect'!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <f>'KM Comparator'!C26-'KM HbA1c effect'!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <f>'KM Comparator'!D26-'KM HbA1c effect'!D26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>'KM Comparator'!E26-'KM HbA1c effect'!E26</f>
         <v>0</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f>'KM Comparator'!F26-'KM HbA1c effect'!F26</f>
         <v>0</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <f>'KM Comparator'!G26-'KM HbA1c effect'!G26</f>
         <v>0</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <f>'KM Comparator'!H26-'KM HbA1c effect'!H26</f>
         <v>0</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <f>'KM Comparator'!I26-'KM HbA1c effect'!I26</f>
         <v>0</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <f>'KM Comparator'!J26-'KM HbA1c effect'!J26</f>
         <v>0</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <f>'KM Comparator'!K26-'KM HbA1c effect'!K26</f>
         <v>0</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <f>'KM Comparator'!B26-'KM HbA1c effect plus'!B26</f>
         <v>-2.2609243300497628E-4</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <f>'KM Comparator'!C26-'KM HbA1c effect plus'!C26</f>
         <v>-2.057264696707084E-3</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <f>'KM Comparator'!D26-'KM HbA1c effect plus'!D26</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
         <f>'KM Comparator'!E26-'KM HbA1c effect plus'!E26</f>
         <v>-1.034136147469944E-3</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="7">
         <f>'KM Comparator'!F26-'KM HbA1c effect plus'!F26</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="7">
         <f>'KM Comparator'!G26-'KM HbA1c effect plus'!G26</f>
         <v>-3.8471434620870326E-3</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="7">
         <f>'KM Comparator'!H26-'KM HbA1c effect plus'!H26</f>
         <v>-3.0860351689199206E-4</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="7">
         <f>'KM Comparator'!I26-'KM HbA1c effect plus'!I26</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="7">
         <f>'KM Comparator'!J26-'KM HbA1c effect plus'!J26</f>
         <v>-1.8149795734700991E-4</v>
       </c>
-      <c r="V27" s="17">
+      <c r="V27" s="13">
         <f>'KM Comparator'!K26-'KM HbA1c effect plus'!K26</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X27" s="8">
+      <c r="X27" s="7">
         <f>'KM Comparator'!B26-'KM HDL effect'!B26</f>
         <v>-9.0643970629411541E-6</v>
       </c>
-      <c r="Y27" s="8">
+      <c r="Y27" s="7">
         <f>'KM Comparator'!C26-'KM HDL effect'!C26</f>
         <v>-1.1381376514019159E-5</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="Z27" s="7">
         <f>'KM Comparator'!D26-'KM HDL effect'!D26</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA27" s="8">
+      <c r="AA27" s="7">
         <f>'KM Comparator'!E26-'KM HDL effect'!E26</f>
         <v>-5.2592948129870365E-6</v>
       </c>
-      <c r="AB27" s="8">
+      <c r="AB27" s="7">
         <f>'KM Comparator'!F26-'KM HDL effect'!F26</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC27" s="8">
+      <c r="AC27" s="7">
         <f>'KM Comparator'!G26-'KM HDL effect'!G26</f>
         <v>-2.3959096442038863E-5</v>
       </c>
-      <c r="AD27" s="8">
+      <c r="AD27" s="7">
         <f>'KM Comparator'!H26-'KM HDL effect'!H26</f>
         <v>-9.1457189420707241E-4</v>
       </c>
-      <c r="AE27" s="8">
+      <c r="AE27" s="7">
         <f>'KM Comparator'!I26-'KM HDL effect'!I26</f>
         <v>0</v>
       </c>
-      <c r="AF27" s="8">
+      <c r="AF27" s="7">
         <f>'KM Comparator'!J26-'KM HDL effect'!J26</f>
         <v>-1.4122394523030657E-5</v>
       </c>
-      <c r="AG27" s="17">
+      <c r="AG27" s="13">
         <f>'KM Comparator'!K26-'KM HDL effect'!K26</f>
         <v>0</v>
       </c>
@@ -10793,123 +10793,123 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <f>'KM Comparator'!B27-'KM HbA1c effect'!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <f>'KM Comparator'!C27-'KM HbA1c effect'!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <f>'KM Comparator'!D27-'KM HbA1c effect'!D27</f>
         <v>0</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f>'KM Comparator'!E27-'KM HbA1c effect'!E27</f>
         <v>0</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f>'KM Comparator'!F27-'KM HbA1c effect'!F27</f>
         <v>0</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <f>'KM Comparator'!G27-'KM HbA1c effect'!G27</f>
         <v>0</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <f>'KM Comparator'!H27-'KM HbA1c effect'!H27</f>
         <v>0</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <f>'KM Comparator'!I27-'KM HbA1c effect'!I27</f>
         <v>0</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <f>'KM Comparator'!J27-'KM HbA1c effect'!J27</f>
         <v>0</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <f>'KM Comparator'!K27-'KM HbA1c effect'!K27</f>
         <v>0</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <f>'KM Comparator'!B27-'KM HbA1c effect plus'!B27</f>
         <v>-2.4366026160005383E-4</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <f>'KM Comparator'!C27-'KM HbA1c effect plus'!C27</f>
         <v>-2.0687164814570114E-3</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <f>'KM Comparator'!D27-'KM HbA1c effect plus'!D27</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="7">
         <f>'KM Comparator'!E27-'KM HbA1c effect plus'!E27</f>
         <v>-1.0497314830369975E-3</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="7">
         <f>'KM Comparator'!F27-'KM HbA1c effect plus'!F27</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="7">
         <f>'KM Comparator'!G27-'KM HbA1c effect plus'!G27</f>
         <v>-3.8541341968589826E-3</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="7">
         <f>'KM Comparator'!H27-'KM HbA1c effect plus'!H27</f>
         <v>-3.3313233121901042E-4</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="7">
         <f>'KM Comparator'!I27-'KM HbA1c effect plus'!I27</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="7">
         <f>'KM Comparator'!J27-'KM HbA1c effect plus'!J27</f>
         <v>-1.9931886966895185E-4</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="13">
         <f>'KM Comparator'!K27-'KM HbA1c effect plus'!K27</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X28" s="7">
         <f>'KM Comparator'!B27-'KM HDL effect'!B27</f>
         <v>-9.0311941440823773E-6</v>
       </c>
-      <c r="Y28" s="8">
+      <c r="Y28" s="7">
         <f>'KM Comparator'!C27-'KM HDL effect'!C27</f>
         <v>-1.1339686491029788E-5</v>
       </c>
-      <c r="Z28" s="8">
+      <c r="Z28" s="7">
         <f>'KM Comparator'!D27-'KM HDL effect'!D27</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA28" s="8">
+      <c r="AA28" s="7">
         <f>'KM Comparator'!E27-'KM HDL effect'!E27</f>
         <v>-5.2400299960231322E-6</v>
       </c>
-      <c r="AB28" s="8">
+      <c r="AB28" s="7">
         <f>'KM Comparator'!F27-'KM HDL effect'!F27</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC28" s="8">
+      <c r="AC28" s="7">
         <f>'KM Comparator'!G27-'KM HDL effect'!G27</f>
         <v>-2.3695809667989565E-5</v>
       </c>
-      <c r="AD28" s="8">
+      <c r="AD28" s="7">
         <f>'KM Comparator'!H27-'KM HDL effect'!H27</f>
         <v>-9.0954677390908678E-4</v>
       </c>
-      <c r="AE28" s="8">
+      <c r="AE28" s="7">
         <f>'KM Comparator'!I27-'KM HDL effect'!I27</f>
         <v>0</v>
       </c>
-      <c r="AF28" s="8">
+      <c r="AF28" s="7">
         <f>'KM Comparator'!J27-'KM HDL effect'!J27</f>
         <v>-1.4070664139942402E-5</v>
       </c>
-      <c r="AG28" s="17">
+      <c r="AG28" s="13">
         <f>'KM Comparator'!K27-'KM HDL effect'!K27</f>
         <v>0</v>
       </c>
@@ -10918,123 +10918,123 @@
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <f>'KM Comparator'!B28-'KM HbA1c effect'!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <f>'KM Comparator'!C28-'KM HbA1c effect'!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <f>'KM Comparator'!D28-'KM HbA1c effect'!D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <f>'KM Comparator'!E28-'KM HbA1c effect'!E28</f>
         <v>0</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <f>'KM Comparator'!F28-'KM HbA1c effect'!F28</f>
         <v>0</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <f>'KM Comparator'!G28-'KM HbA1c effect'!G28</f>
         <v>0</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <f>'KM Comparator'!H28-'KM HbA1c effect'!H28</f>
         <v>0</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <f>'KM Comparator'!I28-'KM HbA1c effect'!I28</f>
         <v>0</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <f>'KM Comparator'!J28-'KM HbA1c effect'!J28</f>
         <v>0</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <f>'KM Comparator'!K28-'KM HbA1c effect'!K28</f>
         <v>0</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <f>'KM Comparator'!B28-'KM HbA1c effect plus'!B28</f>
         <v>-2.6323154729301912E-4</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <f>'KM Comparator'!C28-'KM HbA1c effect plus'!C28</f>
         <v>-2.0950307471689911E-3</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <f>'KM Comparator'!D28-'KM HbA1c effect plus'!D28</f>
         <v>-4.2994427621012576E-5</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="7">
         <f>'KM Comparator'!E28-'KM HbA1c effect plus'!E28</f>
         <v>-1.0497314830369975E-3</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="7">
         <f>'KM Comparator'!F28-'KM HbA1c effect plus'!F28</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="7">
         <f>'KM Comparator'!G28-'KM HbA1c effect plus'!G28</f>
         <v>-3.8622396849969931E-3</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="7">
         <f>'KM Comparator'!H28-'KM HbA1c effect plus'!H28</f>
         <v>-3.5130292745810809E-4</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="7">
         <f>'KM Comparator'!I28-'KM HbA1c effect plus'!I28</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="7">
         <f>'KM Comparator'!J28-'KM HbA1c effect plus'!J28</f>
         <v>-2.2908370754104457E-4</v>
       </c>
-      <c r="V29" s="17">
+      <c r="V29" s="13">
         <f>'KM Comparator'!K28-'KM HbA1c effect plus'!K28</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X29" s="7">
         <f>'KM Comparator'!B28-'KM HDL effect'!B28</f>
         <v>-8.996189514998143E-6</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Y29" s="7">
         <f>'KM Comparator'!C28-'KM HDL effect'!C28</f>
         <v>-1.1251781944054962E-5</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="Z29" s="7">
         <f>'KM Comparator'!D28-'KM HDL effect'!D28</f>
         <v>-3.1360385769341192E-6</v>
       </c>
-      <c r="AA29" s="8">
+      <c r="AA29" s="7">
         <f>'KM Comparator'!E28-'KM HDL effect'!E28</f>
         <v>-5.2400299960231322E-6</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AB29" s="7">
         <f>'KM Comparator'!F28-'KM HDL effect'!F28</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AC29" s="7">
         <f>'KM Comparator'!G28-'KM HDL effect'!G28</f>
         <v>-2.3466199108979069E-5</v>
       </c>
-      <c r="AD29" s="8">
+      <c r="AD29" s="7">
         <f>'KM Comparator'!H28-'KM HDL effect'!H28</f>
         <v>-9.0602139881601484E-4</v>
       </c>
-      <c r="AE29" s="8">
+      <c r="AE29" s="7">
         <f>'KM Comparator'!I28-'KM HDL effect'!I28</f>
         <v>0</v>
       </c>
-      <c r="AF29" s="8">
+      <c r="AF29" s="7">
         <f>'KM Comparator'!J28-'KM HDL effect'!J28</f>
         <v>-1.398885795300675E-5</v>
       </c>
-      <c r="AG29" s="17">
+      <c r="AG29" s="13">
         <f>'KM Comparator'!K28-'KM HDL effect'!K28</f>
         <v>0</v>
       </c>
@@ -11043,123 +11043,123 @@
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <f>'KM Comparator'!B29-'KM HbA1c effect'!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f>'KM Comparator'!C29-'KM HbA1c effect'!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f>'KM Comparator'!D29-'KM HbA1c effect'!D29</f>
         <v>0</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f>'KM Comparator'!E29-'KM HbA1c effect'!E29</f>
         <v>0</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f>'KM Comparator'!F29-'KM HbA1c effect'!F29</f>
         <v>0</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <f>'KM Comparator'!G29-'KM HbA1c effect'!G29</f>
         <v>0</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <f>'KM Comparator'!H29-'KM HbA1c effect'!H29</f>
         <v>0</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <f>'KM Comparator'!I29-'KM HbA1c effect'!I29</f>
         <v>0</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <f>'KM Comparator'!J29-'KM HbA1c effect'!J29</f>
         <v>0</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <f>'KM Comparator'!K29-'KM HbA1c effect'!K29</f>
         <v>0</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <f>'KM Comparator'!B29-'KM HbA1c effect plus'!B29</f>
         <v>-2.924528941570248E-4</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <f>'KM Comparator'!C29-'KM HbA1c effect plus'!C29</f>
         <v>-2.10246710347195E-3</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <f>'KM Comparator'!D29-'KM HbA1c effect plus'!D29</f>
         <v>-5.135953429791229E-5</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="7">
         <f>'KM Comparator'!E29-'KM HbA1c effect plus'!E29</f>
         <v>-1.074226220323049E-3</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="7">
         <f>'KM Comparator'!F29-'KM HbA1c effect plus'!F29</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="7">
         <f>'KM Comparator'!G29-'KM HbA1c effect plus'!G29</f>
         <v>-3.855572868926016E-3</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="7">
         <f>'KM Comparator'!H29-'KM HbA1c effect plus'!H29</f>
         <v>-3.9833484755891213E-4</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="7">
         <f>'KM Comparator'!I29-'KM HbA1c effect plus'!I29</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="7">
         <f>'KM Comparator'!J29-'KM HbA1c effect plus'!J29</f>
         <v>-2.3648307905099752E-4</v>
       </c>
-      <c r="V30" s="17">
+      <c r="V30" s="13">
         <f>'KM Comparator'!K29-'KM HbA1c effect plus'!K29</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X30" s="8">
+      <c r="X30" s="7">
         <f>'KM Comparator'!B29-'KM HDL effect'!B29</f>
         <v>-8.9213771280460819E-6</v>
       </c>
-      <c r="Y30" s="8">
+      <c r="Y30" s="7">
         <f>'KM Comparator'!C29-'KM HDL effect'!C29</f>
         <v>-1.1204996986924343E-5</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="Z30" s="7">
         <f>'KM Comparator'!D29-'KM HDL effect'!D29</f>
         <v>-3.1295187459257079E-6</v>
       </c>
-      <c r="AA30" s="8">
+      <c r="AA30" s="7">
         <f>'KM Comparator'!E29-'KM HDL effect'!E29</f>
         <v>-5.1964538629878376E-6</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AB30" s="7">
         <f>'KM Comparator'!F29-'KM HDL effect'!F29</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AC30" s="7">
         <f>'KM Comparator'!G29-'KM HDL effect'!G29</f>
         <v>-2.3173481447980038E-5</v>
       </c>
-      <c r="AD30" s="8">
+      <c r="AD30" s="7">
         <f>'KM Comparator'!H29-'KM HDL effect'!H29</f>
         <v>-8.9283605621492956E-4</v>
       </c>
-      <c r="AE30" s="8">
+      <c r="AE30" s="7">
         <f>'KM Comparator'!I29-'KM HDL effect'!I29</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="8">
+      <c r="AF30" s="7">
         <f>'KM Comparator'!J29-'KM HDL effect'!J29</f>
         <v>-1.3959775088001614E-5</v>
       </c>
-      <c r="AG30" s="17">
+      <c r="AG30" s="13">
         <f>'KM Comparator'!K29-'KM HDL effect'!K29</f>
         <v>0</v>
       </c>
@@ -11168,123 +11168,123 @@
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <f>'KM Comparator'!B30-'KM HbA1c effect'!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <f>'KM Comparator'!C30-'KM HbA1c effect'!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <f>'KM Comparator'!D30-'KM HbA1c effect'!D30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <f>'KM Comparator'!E30-'KM HbA1c effect'!E30</f>
         <v>0</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <f>'KM Comparator'!F30-'KM HbA1c effect'!F30</f>
         <v>0</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <f>'KM Comparator'!G30-'KM HbA1c effect'!G30</f>
         <v>0</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <f>'KM Comparator'!H30-'KM HbA1c effect'!H30</f>
         <v>0</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <f>'KM Comparator'!I30-'KM HbA1c effect'!I30</f>
         <v>0</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <f>'KM Comparator'!J30-'KM HbA1c effect'!J30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <f>'KM Comparator'!K30-'KM HbA1c effect'!K30</f>
         <v>0</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <f>'KM Comparator'!B30-'KM HbA1c effect plus'!B30</f>
         <v>-3.1800526152803155E-4</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <f>'KM Comparator'!C30-'KM HbA1c effect plus'!C30</f>
         <v>-2.1071966205229442E-3</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="7">
         <f>'KM Comparator'!D30-'KM HbA1c effect plus'!D30</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="7">
         <f>'KM Comparator'!E30-'KM HbA1c effect plus'!E30</f>
         <v>-1.0815089527459465E-3</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="7">
         <f>'KM Comparator'!F30-'KM HbA1c effect plus'!F30</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="7">
         <f>'KM Comparator'!G30-'KM HbA1c effect plus'!G30</f>
         <v>-3.8503631472620592E-3</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31" s="7">
         <f>'KM Comparator'!H30-'KM HbA1c effect plus'!H30</f>
         <v>-4.138397678309369E-4</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="7">
         <f>'KM Comparator'!I30-'KM HbA1c effect plus'!I30</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U31" s="8">
+      <c r="U31" s="7">
         <f>'KM Comparator'!J30-'KM HbA1c effect plus'!J30</f>
         <v>-2.3648307905099752E-4</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V31" s="13">
         <f>'KM Comparator'!K30-'KM HbA1c effect plus'!K30</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X31" s="8">
+      <c r="X31" s="7">
         <f>'KM Comparator'!B30-'KM HDL effect'!B30</f>
         <v>-8.8609614820045479E-6</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Y31" s="7">
         <f>'KM Comparator'!C30-'KM HDL effect'!C30</f>
         <v>-1.1179703540920016E-5</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="Z31" s="7">
         <f>'KM Comparator'!D30-'KM HDL effect'!D30</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AA31" s="7">
         <f>'KM Comparator'!E30-'KM HDL effect'!E30</f>
         <v>-5.1847237190205675E-6</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AB31" s="7">
         <f>'KM Comparator'!F30-'KM HDL effect'!F30</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AC31" s="7">
         <f>'KM Comparator'!G30-'KM HDL effect'!G30</f>
         <v>-2.2754998713070407E-5</v>
       </c>
-      <c r="AD31" s="8">
+      <c r="AD31" s="7">
         <f>'KM Comparator'!H30-'KM HDL effect'!H30</f>
         <v>-8.8880519365797106E-4</v>
       </c>
-      <c r="AE31" s="8">
+      <c r="AE31" s="7">
         <f>'KM Comparator'!I30-'KM HDL effect'!I30</f>
         <v>0</v>
       </c>
-      <c r="AF31" s="8">
+      <c r="AF31" s="7">
         <f>'KM Comparator'!J30-'KM HDL effect'!J30</f>
         <v>-1.3959775088001614E-5</v>
       </c>
-      <c r="AG31" s="17">
+      <c r="AG31" s="13">
         <f>'KM Comparator'!K30-'KM HDL effect'!K30</f>
         <v>0</v>
       </c>
@@ -11293,123 +11293,123 @@
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <f>'KM Comparator'!B31-'KM HbA1c effect'!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f>'KM Comparator'!C31-'KM HbA1c effect'!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <f>'KM Comparator'!D31-'KM HbA1c effect'!D31</f>
         <v>0</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <f>'KM Comparator'!E31-'KM HbA1c effect'!E31</f>
         <v>0</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <f>'KM Comparator'!F31-'KM HbA1c effect'!F31</f>
         <v>0</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <f>'KM Comparator'!G31-'KM HbA1c effect'!G31</f>
         <v>0</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <f>'KM Comparator'!H31-'KM HbA1c effect'!H31</f>
         <v>0</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <f>'KM Comparator'!I31-'KM HbA1c effect'!I31</f>
         <v>0</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <f>'KM Comparator'!J31-'KM HbA1c effect'!J31</f>
         <v>0</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <f>'KM Comparator'!K31-'KM HbA1c effect'!K31</f>
         <v>0</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="7">
         <f>'KM Comparator'!B31-'KM HbA1c effect plus'!B31</f>
         <v>-3.4963627284101406E-4</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <f>'KM Comparator'!C31-'KM HbA1c effect plus'!C31</f>
         <v>-2.1071966205229442E-3</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="7">
         <f>'KM Comparator'!D31-'KM HbA1c effect plus'!D31</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="7">
         <f>'KM Comparator'!E31-'KM HbA1c effect plus'!E31</f>
         <v>-1.0815089527459465E-3</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="7">
         <f>'KM Comparator'!F31-'KM HbA1c effect plus'!F31</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="7">
         <f>'KM Comparator'!G31-'KM HbA1c effect plus'!G31</f>
         <v>-3.850931849739947E-3</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="7">
         <f>'KM Comparator'!H31-'KM HbA1c effect plus'!H31</f>
         <v>-4.3319234094296721E-4</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="7">
         <f>'KM Comparator'!I31-'KM HbA1c effect plus'!I31</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="7">
         <f>'KM Comparator'!J31-'KM HbA1c effect plus'!J31</f>
         <v>-2.4741435363895281E-4</v>
       </c>
-      <c r="V32" s="17">
+      <c r="V32" s="13">
         <f>'KM Comparator'!K31-'KM HbA1c effect plus'!K31</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="7">
         <f>'KM Comparator'!B31-'KM HDL effect'!B31</f>
         <v>-8.7940020749854853E-6</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="7">
         <f>'KM Comparator'!C31-'KM HDL effect'!C31</f>
         <v>-1.1179703540920016E-5</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z32" s="7">
         <f>'KM Comparator'!D31-'KM HDL effect'!D31</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA32" s="7">
         <f>'KM Comparator'!E31-'KM HDL effect'!E31</f>
         <v>-5.1847237190205675E-6</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AB32" s="7">
         <f>'KM Comparator'!F31-'KM HDL effect'!F31</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AC32" s="7">
         <f>'KM Comparator'!G31-'KM HDL effect'!G31</f>
         <v>-2.2525729205025158E-5</v>
       </c>
-      <c r="AD32" s="8">
+      <c r="AD32" s="7">
         <f>'KM Comparator'!H31-'KM HDL effect'!H31</f>
         <v>-8.8432758563006253E-4</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE32" s="7">
         <f>'KM Comparator'!I31-'KM HDL effect'!I31</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="8">
+      <c r="AF32" s="7">
         <f>'KM Comparator'!J31-'KM HDL effect'!J31</f>
         <v>-1.3924611926952046E-5</v>
       </c>
-      <c r="AG32" s="17">
+      <c r="AG32" s="13">
         <f>'KM Comparator'!K31-'KM HDL effect'!K31</f>
         <v>0</v>
       </c>
@@ -11418,123 +11418,123 @@
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <f>'KM Comparator'!B32-'KM HbA1c effect'!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <f>'KM Comparator'!C32-'KM HbA1c effect'!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <f>'KM Comparator'!D32-'KM HbA1c effect'!D32</f>
         <v>0</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <f>'KM Comparator'!E32-'KM HbA1c effect'!E32</f>
         <v>0</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f>'KM Comparator'!F32-'KM HbA1c effect'!F32</f>
         <v>0</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <f>'KM Comparator'!G32-'KM HbA1c effect'!G32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <f>'KM Comparator'!H32-'KM HbA1c effect'!H32</f>
         <v>0</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <f>'KM Comparator'!I32-'KM HbA1c effect'!I32</f>
         <v>0</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <f>'KM Comparator'!J32-'KM HbA1c effect'!J32</f>
         <v>0</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <f>'KM Comparator'!K32-'KM HbA1c effect'!K32</f>
         <v>0</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <f>'KM Comparator'!B32-'KM HbA1c effect plus'!B32</f>
         <v>-3.6171675950091853E-4</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <f>'KM Comparator'!C32-'KM HbA1c effect plus'!C32</f>
         <v>-2.1151001378270085E-3</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="7">
         <f>'KM Comparator'!D32-'KM HbA1c effect plus'!D32</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="7">
         <f>'KM Comparator'!E32-'KM HbA1c effect plus'!E32</f>
         <v>-1.114558978520086E-3</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="7">
         <f>'KM Comparator'!F32-'KM HbA1c effect plus'!F32</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R33" s="7">
         <f>'KM Comparator'!G32-'KM HbA1c effect plus'!G32</f>
         <v>-3.852604513480018E-3</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="7">
         <f>'KM Comparator'!H32-'KM HbA1c effect plus'!H32</f>
         <v>-4.6669112202690766E-4</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="7">
         <f>'KM Comparator'!I32-'KM HbA1c effect plus'!I32</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U33" s="8">
+      <c r="U33" s="7">
         <f>'KM Comparator'!J32-'KM HbA1c effect plus'!J32</f>
         <v>-2.8531535757603255E-4</v>
       </c>
-      <c r="V33" s="17">
+      <c r="V33" s="13">
         <f>'KM Comparator'!K32-'KM HbA1c effect plus'!K32</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X33" s="8">
+      <c r="X33" s="7">
         <f>'KM Comparator'!B32-'KM HDL effect'!B32</f>
         <v>-8.7701700909326163E-6</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="Y33" s="7">
         <f>'KM Comparator'!C32-'KM HDL effect'!C32</f>
         <v>-1.1149406241028892E-5</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z33" s="7">
         <f>'KM Comparator'!D32-'KM HDL effect'!D32</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA33" s="7">
         <f>'KM Comparator'!E32-'KM HDL effect'!E32</f>
         <v>-5.1425714930886102E-6</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AB33" s="7">
         <f>'KM Comparator'!F32-'KM HDL effect'!F32</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC33" s="8">
+      <c r="AC33" s="7">
         <f>'KM Comparator'!G32-'KM HDL effect'!G32</f>
         <v>-2.2403638532009218E-5</v>
       </c>
-      <c r="AD33" s="8">
+      <c r="AD33" s="7">
         <f>'KM Comparator'!H32-'KM HDL effect'!H32</f>
         <v>-8.7713793046195754E-4</v>
       </c>
-      <c r="AE33" s="8">
+      <c r="AE33" s="7">
         <f>'KM Comparator'!I32-'KM HDL effect'!I32</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="8">
+      <c r="AF33" s="7">
         <f>'KM Comparator'!J32-'KM HDL effect'!J32</f>
         <v>-1.3811403699937053E-5</v>
       </c>
-      <c r="AG33" s="17">
+      <c r="AG33" s="13">
         <f>'KM Comparator'!K32-'KM HDL effect'!K32</f>
         <v>0</v>
       </c>
@@ -11543,123 +11543,123 @@
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <f>'KM Comparator'!B33-'KM HbA1c effect'!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <f>'KM Comparator'!C33-'KM HbA1c effect'!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <f>'KM Comparator'!D33-'KM HbA1c effect'!D33</f>
         <v>0</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <f>'KM Comparator'!E33-'KM HbA1c effect'!E33</f>
         <v>0</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <f>'KM Comparator'!F33-'KM HbA1c effect'!F33</f>
         <v>0</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <f>'KM Comparator'!G33-'KM HbA1c effect'!G33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <f>'KM Comparator'!H33-'KM HbA1c effect'!H33</f>
         <v>0</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <f>'KM Comparator'!I33-'KM HbA1c effect'!I33</f>
         <v>0</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <f>'KM Comparator'!J33-'KM HbA1c effect'!J33</f>
         <v>0</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <f>'KM Comparator'!K33-'KM HbA1c effect'!K33</f>
         <v>0</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="7">
         <f>'KM Comparator'!B33-'KM HbA1c effect plus'!B33</f>
         <v>-3.7666788917101179E-4</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <f>'KM Comparator'!C33-'KM HbA1c effect plus'!C33</f>
         <v>-2.1670573613820077E-3</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="7">
         <f>'KM Comparator'!D33-'KM HbA1c effect plus'!D33</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="7">
         <f>'KM Comparator'!E33-'KM HbA1c effect plus'!E33</f>
         <v>-1.1420048511580072E-3</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="7">
         <f>'KM Comparator'!F33-'KM HbA1c effect plus'!F33</f>
         <v>-1.0548109324559629E-3</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34" s="7">
         <f>'KM Comparator'!G33-'KM HbA1c effect plus'!G33</f>
         <v>-3.861554074435003E-3</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="7">
         <f>'KM Comparator'!H33-'KM HbA1c effect plus'!H33</f>
         <v>-5.0780906374192636E-4</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="7">
         <f>'KM Comparator'!I33-'KM HbA1c effect plus'!I33</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U34" s="8">
+      <c r="U34" s="7">
         <f>'KM Comparator'!J33-'KM HbA1c effect plus'!J33</f>
         <v>-3.0074808424507271E-4</v>
       </c>
-      <c r="V34" s="17">
+      <c r="V34" s="13">
         <f>'KM Comparator'!K33-'KM HbA1c effect plus'!K33</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X34" s="8">
+      <c r="X34" s="7">
         <f>'KM Comparator'!B33-'KM HDL effect'!B33</f>
         <v>-8.7437539160184485E-6</v>
       </c>
-      <c r="Y34" s="8">
+      <c r="Y34" s="7">
         <f>'KM Comparator'!C33-'KM HDL effect'!C33</f>
         <v>-1.0981493496986516E-5</v>
       </c>
-      <c r="Z34" s="8">
+      <c r="Z34" s="7">
         <f>'KM Comparator'!D33-'KM HDL effect'!D33</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA34" s="8">
+      <c r="AA34" s="7">
         <f>'KM Comparator'!E33-'KM HDL effect'!E33</f>
         <v>-5.1115921479993887E-6</v>
       </c>
-      <c r="AB34" s="8">
+      <c r="AB34" s="7">
         <f>'KM Comparator'!F33-'KM HDL effect'!F33</f>
         <v>-3.1418151369422276E-6</v>
       </c>
-      <c r="AC34" s="8">
+      <c r="AC34" s="7">
         <f>'KM Comparator'!G33-'KM HDL effect'!G33</f>
         <v>-2.2133715175898239E-5</v>
       </c>
-      <c r="AD34" s="8">
+      <c r="AD34" s="7">
         <f>'KM Comparator'!H33-'KM HDL effect'!H33</f>
         <v>-8.6921198530698351E-4</v>
       </c>
-      <c r="AE34" s="8">
+      <c r="AE34" s="7">
         <f>'KM Comparator'!I33-'KM HDL effect'!I33</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="8">
+      <c r="AF34" s="7">
         <f>'KM Comparator'!J33-'KM HDL effect'!J33</f>
         <v>-1.3769803086094434E-5</v>
       </c>
-      <c r="AG34" s="17">
+      <c r="AG34" s="13">
         <f>'KM Comparator'!K33-'KM HDL effect'!K33</f>
         <v>0</v>
       </c>
@@ -11668,123 +11668,123 @@
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <f>'KM Comparator'!B34-'KM HbA1c effect'!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f>'KM Comparator'!C34-'KM HbA1c effect'!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <f>'KM Comparator'!D34-'KM HbA1c effect'!D34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <f>'KM Comparator'!E34-'KM HbA1c effect'!E34</f>
         <v>0</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <f>'KM Comparator'!F34-'KM HbA1c effect'!F34</f>
         <v>0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <f>'KM Comparator'!G34-'KM HbA1c effect'!G34</f>
         <v>0</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <f>'KM Comparator'!H34-'KM HbA1c effect'!H34</f>
         <v>0</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f>'KM Comparator'!I34-'KM HbA1c effect'!I34</f>
         <v>0</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <f>'KM Comparator'!J34-'KM HbA1c effect'!J34</f>
         <v>0</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <f>'KM Comparator'!K34-'KM HbA1c effect'!K34</f>
         <v>0</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="7">
         <f>'KM Comparator'!B34-'KM HbA1c effect plus'!B34</f>
         <v>-4.2978109675806397E-4</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <f>'KM Comparator'!C34-'KM HbA1c effect plus'!C34</f>
         <v>-2.1795058908660181E-3</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="7">
         <f>'KM Comparator'!D34-'KM HbA1c effect plus'!D34</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="7">
         <f>'KM Comparator'!E34-'KM HbA1c effect plus'!E34</f>
         <v>-1.1420048511580072E-3</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="7">
         <f>'KM Comparator'!F34-'KM HbA1c effect plus'!F34</f>
         <v>-1.0723896957050005E-3</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R35" s="7">
         <f>'KM Comparator'!G34-'KM HbA1c effect plus'!G34</f>
         <v>-3.8756936958659338E-3</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S35" s="7">
         <f>'KM Comparator'!H34-'KM HbA1c effect plus'!H34</f>
         <v>-5.7209079582198896E-4</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="7">
         <f>'KM Comparator'!I34-'KM HbA1c effect plus'!I34</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U35" s="8">
+      <c r="U35" s="7">
         <f>'KM Comparator'!J34-'KM HbA1c effect plus'!J34</f>
         <v>2.6145367669140329E-3</v>
       </c>
-      <c r="V35" s="17">
+      <c r="V35" s="13">
         <f>'KM Comparator'!K34-'KM HbA1c effect plus'!K34</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X35" s="8">
+      <c r="X35" s="7">
         <f>'KM Comparator'!B34-'KM HDL effect'!B34</f>
         <v>-8.6577497790951696E-6</v>
       </c>
-      <c r="Y35" s="8">
+      <c r="Y35" s="7">
         <f>'KM Comparator'!C34-'KM HDL effect'!C34</f>
         <v>-1.0945488599922726E-5</v>
       </c>
-      <c r="Z35" s="8">
+      <c r="Z35" s="7">
         <f>'KM Comparator'!D34-'KM HDL effect'!D34</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA35" s="8">
+      <c r="AA35" s="7">
         <f>'KM Comparator'!E34-'KM HDL effect'!E34</f>
         <v>-5.1115921479993887E-6</v>
       </c>
-      <c r="AB35" s="8">
+      <c r="AB35" s="7">
         <f>'KM Comparator'!F34-'KM HDL effect'!F34</f>
         <v>-3.131514102916455E-6</v>
       </c>
-      <c r="AC35" s="8">
+      <c r="AC35" s="7">
         <f>'KM Comparator'!G34-'KM HDL effect'!G34</f>
         <v>-2.1843436945001571E-5</v>
       </c>
-      <c r="AD35" s="8">
+      <c r="AD35" s="7">
         <f>'KM Comparator'!H34-'KM HDL effect'!H34</f>
         <v>-8.5781248386096465E-4</v>
       </c>
-      <c r="AE35" s="8">
+      <c r="AE35" s="7">
         <f>'KM Comparator'!I34-'KM HDL effect'!I34</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="8">
+      <c r="AF35" s="7">
         <f>'KM Comparator'!J34-'KM HDL effect'!J34</f>
         <v>-1.3724656190983175E-5</v>
       </c>
-      <c r="AG35" s="17">
+      <c r="AG35" s="13">
         <f>'KM Comparator'!K34-'KM HDL effect'!K34</f>
         <v>0</v>
       </c>
@@ -11793,123 +11793,123 @@
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <f>'KM Comparator'!B35-'KM HbA1c effect'!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <f>'KM Comparator'!C35-'KM HbA1c effect'!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <f>'KM Comparator'!D35-'KM HbA1c effect'!D35</f>
         <v>0</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f>'KM Comparator'!E35-'KM HbA1c effect'!E35</f>
         <v>0</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <f>'KM Comparator'!F35-'KM HbA1c effect'!F35</f>
         <v>0</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <f>'KM Comparator'!G35-'KM HbA1c effect'!G35</f>
         <v>0</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <f>'KM Comparator'!H35-'KM HbA1c effect'!H35</f>
         <v>0</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f>'KM Comparator'!I35-'KM HbA1c effect'!I35</f>
         <v>0</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <f>'KM Comparator'!J35-'KM HbA1c effect'!J35</f>
         <v>0</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <f>'KM Comparator'!K35-'KM HbA1c effect'!K35</f>
         <v>0</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <f>'KM Comparator'!B35-'KM HbA1c effect plus'!B35</f>
         <v>-4.2978109675806397E-4</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <f>'KM Comparator'!C35-'KM HbA1c effect plus'!C35</f>
         <v>-2.1795058908660181E-3</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="7">
         <f>'KM Comparator'!D35-'KM HbA1c effect plus'!D35</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="7">
         <f>'KM Comparator'!E35-'KM HbA1c effect plus'!E35</f>
         <v>-1.1585034524189686E-3</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="7">
         <f>'KM Comparator'!F35-'KM HbA1c effect plus'!F35</f>
         <v>-1.0814242082689551E-3</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="7">
         <f>'KM Comparator'!G35-'KM HbA1c effect plus'!G35</f>
         <v>-3.8714601401539372E-3</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="7">
         <f>'KM Comparator'!H35-'KM HbA1c effect plus'!H35</f>
         <v>-5.9824141033903988E-4</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="7">
         <f>'KM Comparator'!I35-'KM HbA1c effect plus'!I35</f>
         <v>-1.3339150941038547E-5</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="7">
         <f>'KM Comparator'!J35-'KM HbA1c effect plus'!J35</f>
         <v>2.5719454533589259E-3</v>
       </c>
-      <c r="V36" s="17">
+      <c r="V36" s="13">
         <f>'KM Comparator'!K35-'KM HbA1c effect plus'!K35</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X36" s="8">
+      <c r="X36" s="7">
         <f>'KM Comparator'!B35-'KM HDL effect'!B35</f>
         <v>-8.6577497790951696E-6</v>
       </c>
-      <c r="Y36" s="8">
+      <c r="Y36" s="7">
         <f>'KM Comparator'!C35-'KM HDL effect'!C35</f>
         <v>-1.0945488599922726E-5</v>
       </c>
-      <c r="Z36" s="8">
+      <c r="Z36" s="7">
         <f>'KM Comparator'!D35-'KM HDL effect'!D35</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA36" s="8">
+      <c r="AA36" s="7">
         <f>'KM Comparator'!E35-'KM HDL effect'!E35</f>
         <v>-5.0744169319827392E-6</v>
       </c>
-      <c r="AB36" s="8">
+      <c r="AB36" s="7">
         <f>'KM Comparator'!F35-'KM HDL effect'!F35</f>
         <v>-3.1201267789437992E-6</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AC36" s="7">
         <f>'KM Comparator'!G35-'KM HDL effect'!G35</f>
         <v>-2.1764006264968216E-5</v>
       </c>
-      <c r="AD36" s="8">
+      <c r="AD36" s="7">
         <f>'KM Comparator'!H35-'KM HDL effect'!H35</f>
         <v>-8.4845452949100508E-4</v>
       </c>
-      <c r="AE36" s="8">
+      <c r="AE36" s="7">
         <f>'KM Comparator'!I35-'KM HDL effect'!I35</f>
         <v>0</v>
       </c>
-      <c r="AF36" s="8">
+      <c r="AF36" s="7">
         <f>'KM Comparator'!J35-'KM HDL effect'!J35</f>
         <v>-1.3624840510040315E-5</v>
       </c>
-      <c r="AG36" s="17">
+      <c r="AG36" s="13">
         <f>'KM Comparator'!K35-'KM HDL effect'!K35</f>
         <v>0</v>
       </c>
@@ -11918,123 +11918,123 @@
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <f>'KM Comparator'!B36-'KM HbA1c effect'!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <f>'KM Comparator'!C36-'KM HbA1c effect'!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <f>'KM Comparator'!D36-'KM HbA1c effect'!D36</f>
         <v>0</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <f>'KM Comparator'!E36-'KM HbA1c effect'!E36</f>
         <v>0</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <f>'KM Comparator'!F36-'KM HbA1c effect'!F36</f>
         <v>0</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <f>'KM Comparator'!G36-'KM HbA1c effect'!G36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <f>'KM Comparator'!H36-'KM HbA1c effect'!H36</f>
         <v>0</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <f>'KM Comparator'!I36-'KM HbA1c effect'!I36</f>
         <v>0</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <f>'KM Comparator'!J36-'KM HbA1c effect'!J36</f>
         <v>0</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <f>'KM Comparator'!K36-'KM HbA1c effect'!K36</f>
         <v>0</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="7">
         <f>'KM Comparator'!B36-'KM HbA1c effect plus'!B36</f>
         <v>-4.43533919496919E-4</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <f>'KM Comparator'!C36-'KM HbA1c effect plus'!C36</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="7">
         <f>'KM Comparator'!D36-'KM HbA1c effect plus'!D36</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="7">
         <f>'KM Comparator'!E36-'KM HbA1c effect plus'!E36</f>
         <v>-1.1701825346110972E-3</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="7">
         <f>'KM Comparator'!F36-'KM HbA1c effect plus'!F36</f>
         <v>-1.0814242082689551E-3</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37" s="7">
         <f>'KM Comparator'!G36-'KM HbA1c effect plus'!G36</f>
         <v>-3.8652283776600127E-3</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="7">
         <f>'KM Comparator'!H36-'KM HbA1c effect plus'!H36</f>
         <v>-6.3378116461398903E-4</v>
       </c>
-      <c r="T37" s="8">
+      <c r="T37" s="7">
         <f>'KM Comparator'!I36-'KM HbA1c effect plus'!I36</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U37" s="8">
+      <c r="U37" s="7">
         <f>'KM Comparator'!J36-'KM HbA1c effect plus'!J36</f>
         <v>2.4921471509510296E-3</v>
       </c>
-      <c r="V37" s="17">
+      <c r="V37" s="13">
         <f>'KM Comparator'!K36-'KM HbA1c effect plus'!K36</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X37" s="8">
+      <c r="X37" s="7">
         <f>'KM Comparator'!B36-'KM HDL effect'!B36</f>
         <v>-8.6212191899859292E-6</v>
       </c>
-      <c r="Y37" s="8">
+      <c r="Y37" s="7">
         <f>'KM Comparator'!C36-'KM HDL effect'!C36</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z37" s="8">
+      <c r="Z37" s="7">
         <f>'KM Comparator'!D36-'KM HDL effect'!D36</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA37" s="8">
+      <c r="AA37" s="7">
         <f>'KM Comparator'!E36-'KM HDL effect'!E36</f>
         <v>-5.0530058900433161E-6</v>
       </c>
-      <c r="AB37" s="8">
+      <c r="AB37" s="7">
         <f>'KM Comparator'!F36-'KM HDL effect'!F36</f>
         <v>-3.1201267789437992E-6</v>
       </c>
-      <c r="AC37" s="8">
+      <c r="AC37" s="7">
         <f>'KM Comparator'!G36-'KM HDL effect'!G36</f>
         <v>-2.1580343764981968E-5</v>
       </c>
-      <c r="AD37" s="8">
+      <c r="AD37" s="7">
         <f>'KM Comparator'!H36-'KM HDL effect'!H36</f>
         <v>-8.3771459873704934E-4</v>
       </c>
-      <c r="AE37" s="8">
+      <c r="AE37" s="7">
         <f>'KM Comparator'!I36-'KM HDL effect'!I36</f>
         <v>0</v>
       </c>
-      <c r="AF37" s="8">
+      <c r="AF37" s="7">
         <f>'KM Comparator'!J36-'KM HDL effect'!J36</f>
         <v>-1.3452374173938964E-5</v>
       </c>
-      <c r="AG37" s="17">
+      <c r="AG37" s="13">
         <f>'KM Comparator'!K36-'KM HDL effect'!K36</f>
         <v>0</v>
       </c>
@@ -12043,123 +12043,123 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <f>'KM Comparator'!B37-'KM HbA1c effect'!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <f>'KM Comparator'!C37-'KM HbA1c effect'!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <f>'KM Comparator'!D37-'KM HbA1c effect'!D37</f>
         <v>0</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <f>'KM Comparator'!E37-'KM HbA1c effect'!E37</f>
         <v>0</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <f>'KM Comparator'!F37-'KM HbA1c effect'!F37</f>
         <v>0</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <f>'KM Comparator'!G37-'KM HbA1c effect'!G37</f>
         <v>0</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <f>'KM Comparator'!H37-'KM HbA1c effect'!H37</f>
         <v>0</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <f>'KM Comparator'!I37-'KM HbA1c effect'!I37</f>
         <v>0</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="8">
         <f>'KM Comparator'!J37-'KM HbA1c effect'!J37</f>
         <v>0</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <f>'KM Comparator'!K37-'KM HbA1c effect'!K37</f>
         <v>0</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="7">
         <f>'KM Comparator'!B37-'KM HbA1c effect plus'!B37</f>
         <v>-4.6391525789202248E-4</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <f>'KM Comparator'!C37-'KM HbA1c effect plus'!C37</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="7">
         <f>'KM Comparator'!D37-'KM HbA1c effect plus'!D37</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="7">
         <f>'KM Comparator'!E37-'KM HbA1c effect plus'!E37</f>
         <v>-1.1883126943140754E-3</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q38" s="7">
         <f>'KM Comparator'!F37-'KM HbA1c effect plus'!F37</f>
         <v>-1.1012393333610371E-3</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R38" s="7">
         <f>'KM Comparator'!G37-'KM HbA1c effect plus'!G37</f>
         <v>-3.8640855791889361E-3</v>
       </c>
-      <c r="S38" s="8">
+      <c r="S38" s="7">
         <f>'KM Comparator'!H37-'KM HbA1c effect plus'!H37</f>
         <v>-6.5127643499907073E-4</v>
       </c>
-      <c r="T38" s="8">
+      <c r="T38" s="7">
         <f>'KM Comparator'!I37-'KM HbA1c effect plus'!I37</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U38" s="7">
         <f>'KM Comparator'!J37-'KM HbA1c effect plus'!J37</f>
         <v>2.4212882836850413E-3</v>
       </c>
-      <c r="V38" s="17">
+      <c r="V38" s="13">
         <f>'KM Comparator'!K37-'KM HbA1c effect plus'!K37</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X38" s="8">
+      <c r="X38" s="7">
         <f>'KM Comparator'!B37-'KM HDL effect'!B37</f>
         <v>-8.577233376994009E-6</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Y38" s="7">
         <f>'KM Comparator'!C37-'KM HDL effect'!C37</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z38" s="8">
+      <c r="Z38" s="7">
         <f>'KM Comparator'!D37-'KM HDL effect'!D37</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA38" s="8">
+      <c r="AA38" s="7">
         <f>'KM Comparator'!E37-'KM HDL effect'!E37</f>
         <v>-5.0272252470895396E-6</v>
       </c>
-      <c r="AB38" s="8">
+      <c r="AB38" s="7">
         <f>'KM Comparator'!F37-'KM HDL effect'!F37</f>
         <v>-3.1042077649479083E-6</v>
       </c>
-      <c r="AC38" s="8">
+      <c r="AC38" s="7">
         <f>'KM Comparator'!G37-'KM HDL effect'!G37</f>
         <v>-2.1360136174930489E-5</v>
       </c>
-      <c r="AD38" s="8">
+      <c r="AD38" s="7">
         <f>'KM Comparator'!H37-'KM HDL effect'!H37</f>
         <v>-8.334405446630555E-4</v>
       </c>
-      <c r="AE38" s="8">
+      <c r="AE38" s="7">
         <f>'KM Comparator'!I37-'KM HDL effect'!I37</f>
         <v>0</v>
       </c>
-      <c r="AF38" s="8">
+      <c r="AF38" s="7">
         <f>'KM Comparator'!J37-'KM HDL effect'!J37</f>
         <v>-1.3315105049982456E-5</v>
       </c>
-      <c r="AG38" s="17">
+      <c r="AG38" s="13">
         <f>'KM Comparator'!K37-'KM HDL effect'!K37</f>
         <v>0</v>
       </c>
@@ -12168,123 +12168,123 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <f>'KM Comparator'!B38-'KM HbA1c effect'!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <f>'KM Comparator'!C38-'KM HbA1c effect'!C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <f>'KM Comparator'!D38-'KM HbA1c effect'!D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <f>'KM Comparator'!E38-'KM HbA1c effect'!E38</f>
         <v>0</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <f>'KM Comparator'!F38-'KM HbA1c effect'!F38</f>
         <v>0</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <f>'KM Comparator'!G38-'KM HbA1c effect'!G38</f>
         <v>0</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <f>'KM Comparator'!H38-'KM HbA1c effect'!H38</f>
         <v>0</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <f>'KM Comparator'!I38-'KM HbA1c effect'!I38</f>
         <v>0</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <f>'KM Comparator'!J38-'KM HbA1c effect'!J38</f>
         <v>0</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <f>'KM Comparator'!K38-'KM HbA1c effect'!K38</f>
         <v>0</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <f>'KM Comparator'!B38-'KM HbA1c effect plus'!B38</f>
         <v>-4.9286349488597558E-4</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <f>'KM Comparator'!C38-'KM HbA1c effect plus'!C38</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="7">
         <f>'KM Comparator'!D38-'KM HbA1c effect plus'!D38</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="7">
         <f>'KM Comparator'!E38-'KM HbA1c effect plus'!E38</f>
         <v>-1.2415134306950071E-3</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="7">
         <f>'KM Comparator'!F38-'KM HbA1c effect plus'!F38</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R39" s="7">
         <f>'KM Comparator'!G38-'KM HbA1c effect plus'!G38</f>
         <v>-3.8673876036050547E-3</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S39" s="7">
         <f>'KM Comparator'!H38-'KM HbA1c effect plus'!H38</f>
         <v>-7.5178136777509508E-4</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T39" s="7">
         <f>'KM Comparator'!I38-'KM HbA1c effect plus'!I38</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U39" s="8">
+      <c r="U39" s="7">
         <f>'KM Comparator'!J38-'KM HbA1c effect plus'!J38</f>
         <v>2.3749181444340239E-3</v>
       </c>
-      <c r="V39" s="17">
+      <c r="V39" s="13">
         <f>'KM Comparator'!K38-'KM HbA1c effect plus'!K38</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X39" s="8">
+      <c r="X39" s="7">
         <f>'KM Comparator'!B38-'KM HDL effect'!B38</f>
         <v>-8.5252501439425643E-6</v>
       </c>
-      <c r="Y39" s="8">
+      <c r="Y39" s="7">
         <f>'KM Comparator'!C38-'KM HDL effect'!C38</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z39" s="8">
+      <c r="Z39" s="7">
         <f>'KM Comparator'!D38-'KM HDL effect'!D38</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA39" s="8">
+      <c r="AA39" s="7">
         <f>'KM Comparator'!E38-'KM HDL effect'!E38</f>
         <v>-4.9662891840052126E-6</v>
       </c>
-      <c r="AB39" s="8">
+      <c r="AB39" s="7">
         <f>'KM Comparator'!F38-'KM HDL effect'!F38</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC39" s="8">
+      <c r="AC39" s="7">
         <f>'KM Comparator'!G38-'KM HDL effect'!G38</f>
         <v>-2.1230680804062985E-5</v>
       </c>
-      <c r="AD39" s="8">
+      <c r="AD39" s="7">
         <f>'KM Comparator'!H38-'KM HDL effect'!H38</f>
         <v>-8.1323592539805922E-4</v>
       </c>
-      <c r="AE39" s="8">
+      <c r="AE39" s="7">
         <f>'KM Comparator'!I38-'KM HDL effect'!I38</f>
         <v>0</v>
       </c>
-      <c r="AF39" s="8">
+      <c r="AF39" s="7">
         <f>'KM Comparator'!J38-'KM HDL effect'!J38</f>
         <v>-1.3234407442941354E-5</v>
       </c>
-      <c r="AG39" s="17">
+      <c r="AG39" s="13">
         <f>'KM Comparator'!K38-'KM HDL effect'!K38</f>
         <v>0</v>
       </c>
@@ -12293,123 +12293,123 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <f>'KM Comparator'!B39-'KM HbA1c effect'!B39</f>
         <v>0</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <f>'KM Comparator'!C39-'KM HbA1c effect'!C39</f>
         <v>0</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <f>'KM Comparator'!D39-'KM HbA1c effect'!D39</f>
         <v>0</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <f>'KM Comparator'!E39-'KM HbA1c effect'!E39</f>
         <v>0</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <f>'KM Comparator'!F39-'KM HbA1c effect'!F39</f>
         <v>0</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <f>'KM Comparator'!G39-'KM HbA1c effect'!G39</f>
         <v>0</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <f>'KM Comparator'!H39-'KM HbA1c effect'!H39</f>
         <v>0</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <f>'KM Comparator'!I39-'KM HbA1c effect'!I39</f>
         <v>0</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <f>'KM Comparator'!J39-'KM HbA1c effect'!J39</f>
         <v>0</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <f>'KM Comparator'!K39-'KM HbA1c effect'!K39</f>
         <v>0</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <f>'KM Comparator'!B39-'KM HbA1c effect plus'!B39</f>
         <v>-4.9286349488597558E-4</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="7">
         <f>'KM Comparator'!C39-'KM HbA1c effect plus'!C39</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="7">
         <f>'KM Comparator'!D39-'KM HbA1c effect plus'!D39</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="7">
         <f>'KM Comparator'!E39-'KM HbA1c effect plus'!E39</f>
         <v>-1.2415134306950071E-3</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="7">
         <f>'KM Comparator'!F39-'KM HbA1c effect plus'!F39</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="7">
         <f>'KM Comparator'!G39-'KM HbA1c effect plus'!G39</f>
         <v>-3.8673876036050547E-3</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="7">
         <f>'KM Comparator'!H39-'KM HbA1c effect plus'!H39</f>
         <v>-7.9297269525302472E-4</v>
       </c>
-      <c r="T40" s="8">
+      <c r="T40" s="7">
         <f>'KM Comparator'!I39-'KM HbA1c effect plus'!I39</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U40" s="8">
+      <c r="U40" s="7">
         <f>'KM Comparator'!J39-'KM HbA1c effect plus'!J39</f>
         <v>2.2332903688829786E-3</v>
       </c>
-      <c r="V40" s="17">
+      <c r="V40" s="13">
         <f>'KM Comparator'!K39-'KM HbA1c effect plus'!K39</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X40" s="8">
+      <c r="X40" s="7">
         <f>'KM Comparator'!B39-'KM HDL effect'!B39</f>
         <v>-8.5252501439425643E-6</v>
       </c>
-      <c r="Y40" s="8">
+      <c r="Y40" s="7">
         <f>'KM Comparator'!C39-'KM HDL effect'!C39</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z40" s="8">
+      <c r="Z40" s="7">
         <f>'KM Comparator'!D39-'KM HDL effect'!D39</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA40" s="8">
+      <c r="AA40" s="7">
         <f>'KM Comparator'!E39-'KM HDL effect'!E39</f>
         <v>-4.9662891840052126E-6</v>
       </c>
-      <c r="AB40" s="8">
+      <c r="AB40" s="7">
         <f>'KM Comparator'!F39-'KM HDL effect'!F39</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AC40" s="7">
         <f>'KM Comparator'!G39-'KM HDL effect'!G39</f>
         <v>-2.1230680804062985E-5</v>
       </c>
-      <c r="AD40" s="8">
+      <c r="AD40" s="7">
         <f>'KM Comparator'!H39-'KM HDL effect'!H39</f>
         <v>-8.0688251973104475E-4</v>
       </c>
-      <c r="AE40" s="8">
+      <c r="AE40" s="7">
         <f>'KM Comparator'!I39-'KM HDL effect'!I39</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="8">
+      <c r="AF40" s="7">
         <f>'KM Comparator'!J39-'KM HDL effect'!J39</f>
         <v>-1.302761982702183E-5</v>
       </c>
-      <c r="AG40" s="17">
+      <c r="AG40" s="13">
         <f>'KM Comparator'!K39-'KM HDL effect'!K39</f>
         <v>0</v>
       </c>
@@ -12418,123 +12418,123 @@
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <f>'KM Comparator'!B40-'KM HbA1c effect'!B40</f>
         <v>0</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f>'KM Comparator'!C40-'KM HbA1c effect'!C40</f>
         <v>0</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <f>'KM Comparator'!D40-'KM HbA1c effect'!D40</f>
         <v>0</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f>'KM Comparator'!E40-'KM HbA1c effect'!E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <f>'KM Comparator'!F40-'KM HbA1c effect'!F40</f>
         <v>0</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <f>'KM Comparator'!G40-'KM HbA1c effect'!G40</f>
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <f>'KM Comparator'!H40-'KM HbA1c effect'!H40</f>
         <v>0</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <f>'KM Comparator'!I40-'KM HbA1c effect'!I40</f>
         <v>0</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <f>'KM Comparator'!J40-'KM HbA1c effect'!J40</f>
         <v>0</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <f>'KM Comparator'!K40-'KM HbA1c effect'!K40</f>
         <v>0</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="7">
         <f>'KM Comparator'!B40-'KM HbA1c effect plus'!B40</f>
         <v>-5.6730590356290911E-4</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="7">
         <f>'KM Comparator'!C40-'KM HbA1c effect plus'!C40</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="7">
         <f>'KM Comparator'!D40-'KM HbA1c effect plus'!D40</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="7">
         <f>'KM Comparator'!E40-'KM HbA1c effect plus'!E40</f>
         <v>-1.2415134306950071E-3</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="7">
         <f>'KM Comparator'!F40-'KM HbA1c effect plus'!F40</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41" s="7">
         <f>'KM Comparator'!G40-'KM HbA1c effect plus'!G40</f>
         <v>-3.8673876036050547E-3</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41" s="7">
         <f>'KM Comparator'!H40-'KM HbA1c effect plus'!H40</f>
         <v>-8.5596212670502325E-4</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="7">
         <f>'KM Comparator'!I40-'KM HbA1c effect plus'!I40</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U41" s="7">
         <f>'KM Comparator'!J40-'KM HbA1c effect plus'!J40</f>
         <v>2.2332903688829786E-3</v>
       </c>
-      <c r="V41" s="17">
+      <c r="V41" s="13">
         <f>'KM Comparator'!K40-'KM HbA1c effect plus'!K40</f>
         <v>-9.9999999999998701E-4</v>
       </c>
-      <c r="X41" s="8">
+      <c r="X41" s="7">
         <f>'KM Comparator'!B40-'KM HDL effect'!B40</f>
         <v>-8.4432765860009695E-6</v>
       </c>
-      <c r="Y41" s="8">
+      <c r="Y41" s="7">
         <f>'KM Comparator'!C40-'KM HDL effect'!C40</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z41" s="8">
+      <c r="Z41" s="7">
         <f>'KM Comparator'!D40-'KM HDL effect'!D40</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA41" s="8">
+      <c r="AA41" s="7">
         <f>'KM Comparator'!E40-'KM HDL effect'!E40</f>
         <v>-4.9662891840052126E-6</v>
       </c>
-      <c r="AB41" s="8">
+      <c r="AB41" s="7">
         <f>'KM Comparator'!F40-'KM HDL effect'!F40</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AC41" s="7">
         <f>'KM Comparator'!G40-'KM HDL effect'!G40</f>
         <v>-2.1230680804062985E-5</v>
       </c>
-      <c r="AD41" s="8">
+      <c r="AD41" s="7">
         <f>'KM Comparator'!H40-'KM HDL effect'!H40</f>
         <v>-7.9912403396498188E-4</v>
       </c>
-      <c r="AE41" s="8">
+      <c r="AE41" s="7">
         <f>'KM Comparator'!I40-'KM HDL effect'!I40</f>
         <v>0</v>
       </c>
-      <c r="AF41" s="8">
+      <c r="AF41" s="7">
         <f>'KM Comparator'!J40-'KM HDL effect'!J40</f>
         <v>-1.302761982702183E-5</v>
       </c>
-      <c r="AG41" s="17">
+      <c r="AG41" s="13">
         <f>'KM Comparator'!K40-'KM HDL effect'!K40</f>
         <v>0</v>
       </c>
@@ -12543,123 +12543,123 @@
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <f>'KM Comparator'!B41-'KM HbA1c effect'!B41</f>
         <v>0</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <f>'KM Comparator'!C41-'KM HbA1c effect'!C41</f>
         <v>0</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <f>'KM Comparator'!D41-'KM HbA1c effect'!D41</f>
         <v>0</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f>'KM Comparator'!E41-'KM HbA1c effect'!E41</f>
         <v>0</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <f>'KM Comparator'!F41-'KM HbA1c effect'!F41</f>
         <v>0</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <f>'KM Comparator'!G41-'KM HbA1c effect'!G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <f>'KM Comparator'!H41-'KM HbA1c effect'!H41</f>
         <v>0</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <f>'KM Comparator'!I41-'KM HbA1c effect'!I41</f>
         <v>0</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <f>'KM Comparator'!J41-'KM HbA1c effect'!J41</f>
         <v>0</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <f>'KM Comparator'!K41-'KM HbA1c effect'!K41</f>
         <v>0</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <f>'KM Comparator'!B41-'KM HbA1c effect plus'!B41</f>
         <v>-5.6730590356290911E-4</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
         <f>'KM Comparator'!C41-'KM HbA1c effect plus'!C41</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="7">
         <f>'KM Comparator'!D41-'KM HbA1c effect plus'!D41</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="7">
         <f>'KM Comparator'!E41-'KM HbA1c effect plus'!E41</f>
         <v>-1.2415134306950071E-3</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="7">
         <f>'KM Comparator'!F41-'KM HbA1c effect plus'!F41</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R42" s="8">
+      <c r="R42" s="7">
         <f>'KM Comparator'!G41-'KM HbA1c effect plus'!G41</f>
         <v>-3.921406263162952E-3</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42" s="7">
         <f>'KM Comparator'!H41-'KM HbA1c effect plus'!H41</f>
         <v>-8.5596212670502325E-4</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="7">
         <f>'KM Comparator'!I41-'KM HbA1c effect plus'!I41</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="7">
         <f>'KM Comparator'!J41-'KM HbA1c effect plus'!J41</f>
         <v>2.0908007755781055E-3</v>
       </c>
-      <c r="V42" s="17">
+      <c r="V42" s="13">
         <f>'KM Comparator'!K41-'KM HbA1c effect plus'!K41</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="X42" s="8">
+      <c r="X42" s="7">
         <f>'KM Comparator'!B41-'KM HDL effect'!B41</f>
         <v>-8.4432765860009695E-6</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="Y42" s="7">
         <f>'KM Comparator'!C41-'KM HDL effect'!C41</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z42" s="8">
+      <c r="Z42" s="7">
         <f>'KM Comparator'!D41-'KM HDL effect'!D41</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA42" s="8">
+      <c r="AA42" s="7">
         <f>'KM Comparator'!E41-'KM HDL effect'!E41</f>
         <v>-4.9662891840052126E-6</v>
       </c>
-      <c r="AB42" s="8">
+      <c r="AB42" s="7">
         <f>'KM Comparator'!F41-'KM HDL effect'!F41</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AC42" s="7">
         <f>'KM Comparator'!G41-'KM HDL effect'!G41</f>
         <v>-2.0980908088996664E-5</v>
       </c>
-      <c r="AD42" s="8">
+      <c r="AD42" s="7">
         <f>'KM Comparator'!H41-'KM HDL effect'!H41</f>
         <v>-7.9912403396498188E-4</v>
       </c>
-      <c r="AE42" s="8">
+      <c r="AE42" s="7">
         <f>'KM Comparator'!I41-'KM HDL effect'!I41</f>
         <v>0</v>
       </c>
-      <c r="AF42" s="8">
+      <c r="AF42" s="7">
         <f>'KM Comparator'!J41-'KM HDL effect'!J41</f>
         <v>-1.2874353712000186E-5</v>
       </c>
-      <c r="AG42" s="17">
+      <c r="AG42" s="13">
         <f>'KM Comparator'!K41-'KM HDL effect'!K41</f>
         <v>0</v>
       </c>
@@ -12668,123 +12668,123 @@
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <f>'KM Comparator'!B42-'KM HbA1c effect'!B42</f>
         <v>0</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <f>'KM Comparator'!C42-'KM HbA1c effect'!C42</f>
         <v>0</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <f>'KM Comparator'!D42-'KM HbA1c effect'!D42</f>
         <v>0</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <f>'KM Comparator'!E42-'KM HbA1c effect'!E42</f>
         <v>0</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <f>'KM Comparator'!F42-'KM HbA1c effect'!F42</f>
         <v>0</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <f>'KM Comparator'!G42-'KM HbA1c effect'!G42</f>
         <v>0</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <f>'KM Comparator'!H42-'KM HbA1c effect'!H42</f>
         <v>0</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <f>'KM Comparator'!I42-'KM HbA1c effect'!I42</f>
         <v>0</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="8">
         <f>'KM Comparator'!J42-'KM HbA1c effect'!J42</f>
         <v>0</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <f>'KM Comparator'!K42-'KM HbA1c effect'!K42</f>
         <v>0</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="7">
         <f>'KM Comparator'!B42-'KM HbA1c effect plus'!B42</f>
         <v>-7.4149234609499626E-4</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="7">
         <f>'KM Comparator'!C42-'KM HbA1c effect plus'!C42</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="7">
         <f>'KM Comparator'!D42-'KM HbA1c effect plus'!D42</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="7">
         <f>'KM Comparator'!E42-'KM HbA1c effect plus'!E42</f>
         <v>-1.4182024371709456E-3</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="7">
         <f>'KM Comparator'!F42-'KM HbA1c effect plus'!F42</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43" s="7">
         <f>'KM Comparator'!G42-'KM HbA1c effect plus'!G42</f>
         <v>-3.921406263162952E-3</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="7">
         <f>'KM Comparator'!H42-'KM HbA1c effect plus'!H42</f>
         <v>-1.0061542546140334E-3</v>
       </c>
-      <c r="T43" s="8">
+      <c r="T43" s="7">
         <f>'KM Comparator'!I42-'KM HbA1c effect plus'!I42</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U43" s="8">
+      <c r="U43" s="7">
         <f>'KM Comparator'!J42-'KM HbA1c effect plus'!J42</f>
         <v>1.6713963067860327E-3</v>
       </c>
-      <c r="V43" s="17">
+      <c r="V43" s="13">
         <f>'KM Comparator'!K42-'KM HbA1c effect plus'!K42</f>
         <v>0</v>
       </c>
-      <c r="X43" s="8">
+      <c r="X43" s="7">
         <f>'KM Comparator'!B42-'KM HDL effect'!B42</f>
         <v>-8.3191107540514508E-6</v>
       </c>
-      <c r="Y43" s="8">
+      <c r="Y43" s="7">
         <f>'KM Comparator'!C42-'KM HDL effect'!C42</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z43" s="8">
+      <c r="Z43" s="7">
         <f>'KM Comparator'!D42-'KM HDL effect'!D42</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA43" s="8">
+      <c r="AA43" s="7">
         <f>'KM Comparator'!E42-'KM HDL effect'!E42</f>
         <v>-4.8932555199998617E-6</v>
       </c>
-      <c r="AB43" s="8">
+      <c r="AB43" s="7">
         <f>'KM Comparator'!F42-'KM HDL effect'!F42</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC43" s="8">
+      <c r="AC43" s="7">
         <f>'KM Comparator'!G42-'KM HDL effect'!G42</f>
         <v>-2.0980908088996664E-5</v>
       </c>
-      <c r="AD43" s="8">
+      <c r="AD43" s="7">
         <f>'KM Comparator'!H42-'KM HDL effect'!H42</f>
         <v>-7.8737220993507773E-4</v>
       </c>
-      <c r="AE43" s="8">
+      <c r="AE43" s="7">
         <f>'KM Comparator'!I42-'KM HDL effect'!I42</f>
         <v>0</v>
       </c>
-      <c r="AF43" s="8">
+      <c r="AF43" s="7">
         <f>'KM Comparator'!J42-'KM HDL effect'!J42</f>
         <v>-1.249569624894864E-5</v>
       </c>
-      <c r="AG43" s="17">
+      <c r="AG43" s="13">
         <f>'KM Comparator'!K42-'KM HDL effect'!K42</f>
         <v>0</v>
       </c>
@@ -12793,123 +12793,123 @@
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <f>'KM Comparator'!B43-'KM HbA1c effect'!B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <f>'KM Comparator'!C43-'KM HbA1c effect'!C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <f>'KM Comparator'!D43-'KM HbA1c effect'!D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <f>'KM Comparator'!E43-'KM HbA1c effect'!E43</f>
         <v>0</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <f>'KM Comparator'!F43-'KM HbA1c effect'!F43</f>
         <v>0</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <f>'KM Comparator'!G43-'KM HbA1c effect'!G43</f>
         <v>0</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <f>'KM Comparator'!H43-'KM HbA1c effect'!H43</f>
         <v>0</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <f>'KM Comparator'!I43-'KM HbA1c effect'!I43</f>
         <v>0</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="8">
         <f>'KM Comparator'!J43-'KM HbA1c effect'!J43</f>
         <v>0</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <f>'KM Comparator'!K43-'KM HbA1c effect'!K43</f>
         <v>0</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="7">
         <f>'KM Comparator'!B43-'KM HbA1c effect plus'!B43</f>
         <v>-7.4149234609499626E-4</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="7">
         <f>'KM Comparator'!C43-'KM HbA1c effect plus'!C43</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="7">
         <f>'KM Comparator'!D43-'KM HbA1c effect plus'!D43</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="7">
         <f>'KM Comparator'!E43-'KM HbA1c effect plus'!E43</f>
         <v>-1.4182024371709456E-3</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="7">
         <f>'KM Comparator'!F43-'KM HbA1c effect plus'!F43</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="7">
         <f>'KM Comparator'!G43-'KM HbA1c effect plus'!G43</f>
         <v>-3.921406263162952E-3</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="7">
         <f>'KM Comparator'!H43-'KM HbA1c effect plus'!H43</f>
         <v>-1.0061542546140334E-3</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="7">
         <f>'KM Comparator'!I43-'KM HbA1c effect plus'!I43</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U44" s="8">
+      <c r="U44" s="7">
         <f>'KM Comparator'!J43-'KM HbA1c effect plus'!J43</f>
         <v>1.6713963067860327E-3</v>
       </c>
-      <c r="V44" s="17">
+      <c r="V44" s="13">
         <f>'KM Comparator'!K43-'KM HbA1c effect plus'!K43</f>
         <v>0</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="7">
         <f>'KM Comparator'!B43-'KM HDL effect'!B43</f>
         <v>-8.3191107540514508E-6</v>
       </c>
-      <c r="Y44" s="8">
+      <c r="Y44" s="7">
         <f>'KM Comparator'!C43-'KM HDL effect'!C43</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z44" s="8">
+      <c r="Z44" s="7">
         <f>'KM Comparator'!D43-'KM HDL effect'!D43</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA44" s="8">
+      <c r="AA44" s="7">
         <f>'KM Comparator'!E43-'KM HDL effect'!E43</f>
         <v>-4.8932555199998617E-6</v>
       </c>
-      <c r="AB44" s="8">
+      <c r="AB44" s="7">
         <f>'KM Comparator'!F43-'KM HDL effect'!F43</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AC44" s="7">
         <f>'KM Comparator'!G43-'KM HDL effect'!G43</f>
         <v>-2.0980908088996664E-5</v>
       </c>
-      <c r="AD44" s="8">
+      <c r="AD44" s="7">
         <f>'KM Comparator'!H43-'KM HDL effect'!H43</f>
         <v>-7.8737220993507773E-4</v>
       </c>
-      <c r="AE44" s="8">
+      <c r="AE44" s="7">
         <f>'KM Comparator'!I43-'KM HDL effect'!I43</f>
         <v>0</v>
       </c>
-      <c r="AF44" s="8">
+      <c r="AF44" s="7">
         <f>'KM Comparator'!J43-'KM HDL effect'!J43</f>
         <v>-1.249569624894864E-5</v>
       </c>
-      <c r="AG44" s="17">
+      <c r="AG44" s="13">
         <f>'KM Comparator'!K43-'KM HDL effect'!K43</f>
         <v>0</v>
       </c>
@@ -12918,123 +12918,123 @@
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <f>'KM Comparator'!B44-'KM HbA1c effect'!B44</f>
         <v>0</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <f>'KM Comparator'!C44-'KM HbA1c effect'!C44</f>
         <v>0</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <f>'KM Comparator'!D44-'KM HbA1c effect'!D44</f>
         <v>0</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <f>'KM Comparator'!E44-'KM HbA1c effect'!E44</f>
         <v>0</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <f>'KM Comparator'!F44-'KM HbA1c effect'!F44</f>
         <v>0</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <f>'KM Comparator'!G44-'KM HbA1c effect'!G44</f>
         <v>0</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <f>'KM Comparator'!H44-'KM HbA1c effect'!H44</f>
         <v>0</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <f>'KM Comparator'!I44-'KM HbA1c effect'!I44</f>
         <v>0</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="8">
         <f>'KM Comparator'!J44-'KM HbA1c effect'!J44</f>
         <v>0</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="9">
         <f>'KM Comparator'!K44-'KM HbA1c effect'!K44</f>
         <v>0</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="7">
         <f>'KM Comparator'!B44-'KM HbA1c effect plus'!B44</f>
         <v>-7.4149234609499626E-4</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <f>'KM Comparator'!C44-'KM HbA1c effect plus'!C44</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="7">
         <f>'KM Comparator'!D44-'KM HbA1c effect plus'!D44</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="7">
         <f>'KM Comparator'!E44-'KM HbA1c effect plus'!E44</f>
         <v>-1.4182024371709456E-3</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="7">
         <f>'KM Comparator'!F44-'KM HbA1c effect plus'!F44</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R45" s="7">
         <f>'KM Comparator'!G44-'KM HbA1c effect plus'!G44</f>
         <v>-3.8208573846199023E-3</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45" s="7">
         <f>'KM Comparator'!H44-'KM HbA1c effect plus'!H44</f>
         <v>-1.0061542546140334E-3</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="7">
         <f>'KM Comparator'!I44-'KM HbA1c effect plus'!I44</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="7">
         <f>'KM Comparator'!J44-'KM HbA1c effect plus'!J44</f>
         <v>1.6285399912280285E-3</v>
       </c>
-      <c r="V45" s="17">
+      <c r="V45" s="13">
         <f>'KM Comparator'!K44-'KM HbA1c effect plus'!K44</f>
         <v>0</v>
       </c>
-      <c r="X45" s="8">
+      <c r="X45" s="7">
         <f>'KM Comparator'!B44-'KM HDL effect'!B44</f>
         <v>-8.3191107540514508E-6</v>
       </c>
-      <c r="Y45" s="8">
+      <c r="Y45" s="7">
         <f>'KM Comparator'!C44-'KM HDL effect'!C44</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z45" s="8">
+      <c r="Z45" s="7">
         <f>'KM Comparator'!D44-'KM HDL effect'!D44</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA45" s="8">
+      <c r="AA45" s="7">
         <f>'KM Comparator'!E44-'KM HDL effect'!E44</f>
         <v>-4.8932555199998617E-6</v>
       </c>
-      <c r="AB45" s="8">
+      <c r="AB45" s="7">
         <f>'KM Comparator'!F44-'KM HDL effect'!F44</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AC45" s="7">
         <f>'KM Comparator'!G44-'KM HDL effect'!G44</f>
         <v>-2.0442936086939589E-5</v>
       </c>
-      <c r="AD45" s="8">
+      <c r="AD45" s="7">
         <f>'KM Comparator'!H44-'KM HDL effect'!H44</f>
         <v>-7.8737220993507773E-4</v>
       </c>
-      <c r="AE45" s="8">
+      <c r="AE45" s="7">
         <f>'KM Comparator'!I44-'KM HDL effect'!I44</f>
         <v>0</v>
       </c>
-      <c r="AF45" s="8">
+      <c r="AF45" s="7">
         <f>'KM Comparator'!J44-'KM HDL effect'!J44</f>
         <v>-1.2175293780947172E-5</v>
       </c>
-      <c r="AG45" s="17">
+      <c r="AG45" s="13">
         <f>'KM Comparator'!K44-'KM HDL effect'!K44</f>
         <v>0</v>
       </c>
@@ -13043,123 +13043,123 @@
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <f>'KM Comparator'!B45-'KM HbA1c effect'!B45</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f>'KM Comparator'!C45-'KM HbA1c effect'!C45</f>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f>'KM Comparator'!D45-'KM HbA1c effect'!D45</f>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f>'KM Comparator'!E45-'KM HbA1c effect'!E45</f>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f>'KM Comparator'!F45-'KM HbA1c effect'!F45</f>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f>'KM Comparator'!G45-'KM HbA1c effect'!G45</f>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>'KM Comparator'!H45-'KM HbA1c effect'!H45</f>
         <v>0</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <f>'KM Comparator'!I45-'KM HbA1c effect'!I45</f>
         <v>0</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <f>'KM Comparator'!J45-'KM HbA1c effect'!J45</f>
         <v>0</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="12">
         <f>'KM Comparator'!K45-'KM HbA1c effect'!K45</f>
         <v>0</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="10">
         <f>'KM Comparator'!B45-'KM HbA1c effect plus'!B45</f>
         <v>-7.4149234609499626E-4</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="10">
         <f>'KM Comparator'!C45-'KM HbA1c effect plus'!C45</f>
         <v>-2.1934671007599604E-3</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="10">
         <f>'KM Comparator'!D45-'KM HbA1c effect plus'!D45</f>
         <v>-6.1186563408033301E-5</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="10">
         <f>'KM Comparator'!E45-'KM HbA1c effect plus'!E45</f>
         <v>-1.377682367536992E-3</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="10">
         <f>'KM Comparator'!F45-'KM HbA1c effect plus'!F45</f>
         <v>-1.1300955312789629E-3</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="10">
         <f>'KM Comparator'!G45-'KM HbA1c effect plus'!G45</f>
         <v>-3.7116900307749834E-3</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="10">
         <f>'KM Comparator'!H45-'KM HbA1c effect plus'!H45</f>
         <v>-1.0061542546140334E-3</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="10">
         <f>'KM Comparator'!I45-'KM HbA1c effect plus'!I45</f>
         <v>-3.0905623334076537E-5</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="10">
         <f>'KM Comparator'!J45-'KM HbA1c effect plus'!J45</f>
         <v>1.5820102771919586E-3</v>
       </c>
-      <c r="V46" s="18">
+      <c r="V46" s="14">
         <f>'KM Comparator'!K45-'KM HbA1c effect plus'!K45</f>
         <v>0</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X46" s="10">
         <f>'KM Comparator'!B45-'KM HDL effect'!B45</f>
         <v>-8.3191107540514508E-6</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y46" s="10">
         <f>'KM Comparator'!C45-'KM HDL effect'!C45</f>
         <v>-1.0853121606979599E-5</v>
       </c>
-      <c r="Z46" s="11">
+      <c r="Z46" s="10">
         <f>'KM Comparator'!D45-'KM HDL effect'!D45</f>
         <v>-3.1224543700636431E-6</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA46" s="10">
         <f>'KM Comparator'!E45-'KM HDL effect'!E45</f>
         <v>-4.7534482189304228E-6</v>
       </c>
-      <c r="AB46" s="11">
+      <c r="AB46" s="10">
         <f>'KM Comparator'!F45-'KM HDL effect'!F45</f>
         <v>-3.0853943839836973E-6</v>
       </c>
-      <c r="AC46" s="11">
+      <c r="AC46" s="10">
         <f>'KM Comparator'!G45-'KM HDL effect'!G45</f>
         <v>-1.9858852198906263E-5</v>
       </c>
-      <c r="AD46" s="11">
+      <c r="AD46" s="10">
         <f>'KM Comparator'!H45-'KM HDL effect'!H45</f>
         <v>-7.8737220993507773E-4</v>
       </c>
-      <c r="AE46" s="11">
+      <c r="AE46" s="10">
         <f>'KM Comparator'!I45-'KM HDL effect'!I45</f>
         <v>0</v>
       </c>
-      <c r="AF46" s="11">
+      <c r="AF46" s="10">
         <f>'KM Comparator'!J45-'KM HDL effect'!J45</f>
         <v>-1.1827428245014815E-5</v>
       </c>
-      <c r="AG46" s="18">
+      <c r="AG46" s="14">
         <f>'KM Comparator'!K45-'KM HDL effect'!K45</f>
         <v>0</v>
       </c>
@@ -13962,18 +13962,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -15534,18 +15534,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -17106,18 +17106,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -18678,18 +18678,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -20250,18 +20250,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -21822,18 +21822,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -23394,18 +23394,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">

--- a/output/TEST/Female scenarios comparison.xlsx
+++ b/output/TEST/Female scenarios comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\output\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06CF91-55AD-4E36-A2EB-C1132BCF2258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8940F8-685F-4091-A48D-B3575D96EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clinical results" sheetId="6" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="KM Comparator" sheetId="1" r:id="rId3"/>
     <sheet name="KM Comparator 5k patients" sheetId="15" r:id="rId4"/>
     <sheet name="KM HbA1c effect" sheetId="2" r:id="rId5"/>
-    <sheet name="KM HbA1c effect plus" sheetId="9" r:id="rId6"/>
-    <sheet name="KM HDL effect" sheetId="10" r:id="rId7"/>
-    <sheet name="KM LDL effect" sheetId="11" r:id="rId8"/>
-    <sheet name="KM All SMI vs. UC" sheetId="12" r:id="rId9"/>
-    <sheet name="KM BMI effect" sheetId="13" r:id="rId10"/>
-    <sheet name="KM SBP effect" sheetId="14" r:id="rId11"/>
-    <sheet name="KM difference" sheetId="8" r:id="rId12"/>
-    <sheet name="Stroke" sheetId="5" r:id="rId13"/>
-    <sheet name="Dead" sheetId="4" r:id="rId14"/>
+    <sheet name="KM HbA1c effect 5k patients" sheetId="16" r:id="rId6"/>
+    <sheet name="KM HbA1c effect plus" sheetId="9" r:id="rId7"/>
+    <sheet name="KM HDL effect" sheetId="10" r:id="rId8"/>
+    <sheet name="KM LDL effect" sheetId="11" r:id="rId9"/>
+    <sheet name="KM All SMI vs. UC" sheetId="12" r:id="rId10"/>
+    <sheet name="KM BMI effect" sheetId="13" r:id="rId11"/>
+    <sheet name="KM SBP effect" sheetId="14" r:id="rId12"/>
+    <sheet name="KM difference" sheetId="8" r:id="rId13"/>
+    <sheet name="Stroke" sheetId="5" r:id="rId14"/>
+    <sheet name="Dead" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
   <si>
     <t>CHF.EVENT</t>
   </si>
@@ -181,9 +182,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Return more decimals for clinical outcomes</t>
-  </si>
-  <si>
     <t>HbA1c effect plus assumes an effect of -2 hba1c points</t>
   </si>
   <si>
@@ -213,16 +211,61 @@
   <si>
     <t>Difference 5000 patients</t>
   </si>
+  <si>
+    <t>Comparator different seed</t>
+  </si>
+  <si>
+    <t>Difference vs. Other seed</t>
+  </si>
+  <si>
+    <t>Hba1c effect another seed</t>
+  </si>
+  <si>
+    <t>Difference new seed</t>
+  </si>
+  <si>
+    <t>HbA1c effect plus new seed</t>
+  </si>
+  <si>
+    <t>Difference with other seed</t>
+  </si>
+  <si>
+    <t>Return more decimals for clinical outcomes does not change anything because with 1000 patients we cannot have more than 3, with 5000 it'd be 4</t>
+  </si>
+  <si>
+    <t>Comparator no seed</t>
+  </si>
+  <si>
+    <t>HbA1c effect no seed</t>
+  </si>
+  <si>
+    <t>Difference vs. Seed</t>
+  </si>
+  <si>
+    <t>HbA1c effect no seed r2</t>
+  </si>
+  <si>
+    <t>Difference vs no seed r1</t>
+  </si>
+  <si>
+    <t>HbA1c effect no seed r1</t>
+  </si>
+  <si>
+    <t>Difference vs. Comparator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -371,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -390,6 +433,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,6 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3764,10 +3810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902D6D2-6D5A-4AD8-B851-F38734645035}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,7 +3830,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="127.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -3820,7 +3867,7 @@
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -3855,7 +3902,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -3966,7 +4013,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -4349,7 +4396,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -4395,7 +4442,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>23.561399999999999</v>
@@ -4427,7 +4474,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <f>C25-C3</f>
@@ -4468,17 +4515,636 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>23.561199999999999</v>
+      </c>
+      <c r="D28">
+        <v>8.72E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="F28">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G28">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I28">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="J28">
+        <v>2.8E-3</v>
+      </c>
+      <c r="K28">
+        <v>0.107</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <f>C28-C4</f>
+        <v>0.2132000000000005</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:K29" si="8">D28-D4</f>
+        <v>-2.7999999999999969E-3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>-2.4799999999999989E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>5.9999999999999984E-4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <f>C28-C25</f>
+        <v>-1.9999999999953388E-4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:K31" si="9">D28-D25</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>-2.0000000000000573E-4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="9"/>
+        <v>-6.0000000000000331E-4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>-1.9999999999999879E-4</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>-1.9999999999999879E-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>-1.9999999999999879E-4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>57</v>
+      </c>
+      <c r="C33">
+        <v>23.347999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.09</v>
+      </c>
+      <c r="E33">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F33">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I33">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J33">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K33">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <f>C33-C3</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:K34" si="10">D33-D3</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>23.347999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.09</v>
+      </c>
+      <c r="E36">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F36">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G36">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H36">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I36">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K36">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <f>C36-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:K37" si="11">D36-D4</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <f>C36-C33</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:K39" si="12">D36-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41">
+        <v>23.411999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.09</v>
+      </c>
+      <c r="E41">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F41">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G41">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I41">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J41">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K41">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <f>C41-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:K42" si="13">D41-D7</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>23.495999999999999</v>
+      </c>
+      <c r="D44">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.185</v>
+      </c>
+      <c r="F44">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G44">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H44">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I44">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J44">
+        <v>1E-3</v>
+      </c>
+      <c r="K44">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <f>C44-C3</f>
+        <v>0.14799999999999969</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:K45" si="14">D44-D3</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="14"/>
+        <v>-2.7999999999999997E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="14"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="14"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="14"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="14"/>
+        <v>-6.0000000000000019E-3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="14"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="14"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>23.837</v>
+      </c>
+      <c r="D47">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G47">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H47">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I47">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J47">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K47">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48">
+        <f>C47-C4</f>
+        <v>0.48900000000000077</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:K48" si="15">D47-D4</f>
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="15"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="15"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="15"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="15"/>
+        <v>1.9999999999999948E-3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="15"/>
+        <v>8.9999999999999976E-3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="15"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <f>C47-C44</f>
+        <v>0.34100000000000108</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:K50" si="16">D47-D44</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="16"/>
+        <v>2.0999999999999991E-2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="16"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="16"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="16"/>
+        <v>3.9999999999999966E-3</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="16"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="16"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="16"/>
+        <v>5.9999999999999915E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>23.661999999999999</v>
+      </c>
+      <c r="D52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.219</v>
+      </c>
+      <c r="F52">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G52">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.04</v>
+      </c>
+      <c r="I52">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J52">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K52">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <f>C52-C47</f>
+        <v>-0.17500000000000071</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:K53" si="17">D52-D47</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="17"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="17"/>
+        <v>9.9999999999998701E-4</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="17"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="17"/>
+        <v>-1.0999999999999996E-2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="17"/>
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="17"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4488,6 +5154,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F24A23-ABC1-4AED-9616-81313B6160C6}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.997</v>
+      </c>
+      <c r="C4">
+        <v>0.999</v>
+      </c>
+      <c r="D4">
+        <v>0.999</v>
+      </c>
+      <c r="E4">
+        <v>0.999</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.995</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.997</v>
+      </c>
+      <c r="K4">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.99498789101917295</v>
+      </c>
+      <c r="C5">
+        <v>0.999</v>
+      </c>
+      <c r="D5">
+        <v>0.999</v>
+      </c>
+      <c r="E5">
+        <v>0.99698385469223005</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.98201412714429903</v>
+      </c>
+      <c r="H5">
+        <v>0.99399596367305798</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.99498789101917295</v>
+      </c>
+      <c r="K5">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.99498789101917295</v>
+      </c>
+      <c r="C6">
+        <v>0.99389785495403504</v>
+      </c>
+      <c r="D6">
+        <v>0.999</v>
+      </c>
+      <c r="E6">
+        <v>0.99494711545894698</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.97699873323651398</v>
+      </c>
+      <c r="H6">
+        <v>0.99298064603907099</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.99193889850328099</v>
+      </c>
+      <c r="K6">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.99498789101917295</v>
+      </c>
+      <c r="C7">
+        <v>0.99389785495403504</v>
+      </c>
+      <c r="D7">
+        <v>0.99695286885245904</v>
+      </c>
+      <c r="E7">
+        <v>0.99494711545894698</v>
+      </c>
+      <c r="F7">
+        <v>0.99795081967213095</v>
+      </c>
+      <c r="G7">
+        <v>0.96698850031400796</v>
+      </c>
+      <c r="H7">
+        <v>0.988911053227435</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.99092256766465103</v>
+      </c>
+      <c r="K7">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.992927874681659</v>
+      </c>
+      <c r="C8">
+        <v>0.98978233588590203</v>
+      </c>
+      <c r="D8">
+        <v>0.99695286885245904</v>
+      </c>
+      <c r="E8">
+        <v>0.99391714950091503</v>
+      </c>
+      <c r="F8">
+        <v>0.99795081967213095</v>
+      </c>
+      <c r="G8">
+        <v>0.96298440714500599</v>
+      </c>
+      <c r="H8">
+        <v>0.98276874854900398</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.98681936862670205</v>
+      </c>
+      <c r="K8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.98879067520381803</v>
+      </c>
+      <c r="C9">
+        <v>0.98565824281971104</v>
+      </c>
+      <c r="D9">
+        <v>0.99591437628073798</v>
+      </c>
+      <c r="E9">
+        <v>0.98977582804466102</v>
+      </c>
+      <c r="F9">
+        <v>0.99691128756830605</v>
+      </c>
+      <c r="G9">
+        <v>0.95696575460035005</v>
+      </c>
+      <c r="H9">
+        <v>0.97253157408495206</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.981679684415105</v>
+      </c>
+      <c r="K9">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.98566159078861604</v>
+      </c>
+      <c r="C10">
+        <v>0.98253907116521799</v>
+      </c>
+      <c r="D10">
+        <v>0.99591437628073798</v>
+      </c>
+      <c r="E10">
+        <v>0.98977582804466102</v>
+      </c>
+      <c r="F10">
+        <v>0.99691128756830605</v>
+      </c>
+      <c r="G10">
+        <v>0.94989955177102303</v>
+      </c>
+      <c r="H10">
+        <v>0.97047981970924502</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.97753757604204505</v>
+      </c>
+      <c r="K10">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.98566159078861604</v>
+      </c>
+      <c r="C11">
+        <v>0.98042380944042795</v>
+      </c>
+      <c r="D11">
+        <v>0.99591437628073798</v>
+      </c>
+      <c r="E11">
+        <v>0.98657956595194396</v>
+      </c>
+      <c r="F11">
+        <v>0.99691128756830605</v>
+      </c>
+      <c r="G11">
+        <v>0.941719577159431</v>
+      </c>
+      <c r="H11">
+        <v>0.96734586980706305</v>
+      </c>
+      <c r="I11">
+        <v>0.99677072120559695</v>
+      </c>
+      <c r="J11">
+        <v>0.97648532892036399</v>
+      </c>
+      <c r="K11">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.98242283419237797</v>
+      </c>
+      <c r="C12">
+        <v>0.97720226351674599</v>
+      </c>
+      <c r="D12">
+        <v>0.99591437628073798</v>
+      </c>
+      <c r="E12">
+        <v>0.98225720202663402</v>
+      </c>
+      <c r="F12">
+        <v>0.99691128756830605</v>
+      </c>
+      <c r="G12">
+        <v>0.93346792697621594</v>
+      </c>
+      <c r="H12">
+        <v>0.96628634530563096</v>
+      </c>
+      <c r="I12">
+        <v>0.99677072120559695</v>
+      </c>
+      <c r="J12">
+        <v>0.97327672433464496</v>
+      </c>
+      <c r="K12">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.97694667569632199</v>
+      </c>
+      <c r="C13">
+        <v>0.97611285185173302</v>
+      </c>
+      <c r="D13">
+        <v>0.994804103843412</v>
+      </c>
+      <c r="E13">
+        <v>0.97897206088273203</v>
+      </c>
+      <c r="F13">
+        <v>0.99579990374715999</v>
+      </c>
+      <c r="G13">
+        <v>0.92306137260635901</v>
+      </c>
+      <c r="H13">
+        <v>0.95874564918841898</v>
+      </c>
+      <c r="I13">
+        <v>0.99677072120559695</v>
+      </c>
+      <c r="J13">
+        <v>0.97110665360034298</v>
+      </c>
+      <c r="K13">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.97025526010936103</v>
+      </c>
+      <c r="C14">
+        <v>0.97276999961936395</v>
+      </c>
+      <c r="D14">
+        <v>0.99366848272030395</v>
+      </c>
+      <c r="E14">
+        <v>0.97897206088273203</v>
+      </c>
+      <c r="F14">
+        <v>0.99579990374715999</v>
+      </c>
+      <c r="G14">
+        <v>0.91568531140973297</v>
+      </c>
+      <c r="H14">
+        <v>0.95436781517386005</v>
+      </c>
+      <c r="I14">
+        <v>0.99677072120559695</v>
+      </c>
+      <c r="J14">
+        <v>0.96556380740399395</v>
+      </c>
+      <c r="K14">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.96567318095890398</v>
+      </c>
+      <c r="C15">
+        <v>0.96932453326888202</v>
+      </c>
+      <c r="D15">
+        <v>0.992495320403042</v>
+      </c>
+      <c r="E15">
+        <v>0.97897206088273203</v>
+      </c>
+      <c r="F15">
+        <v>0.993448546241263</v>
+      </c>
+      <c r="G15">
+        <v>0.90595547929321796</v>
+      </c>
+      <c r="H15">
+        <v>0.94535371538473301</v>
+      </c>
+      <c r="I15">
+        <v>0.99677072120559695</v>
+      </c>
+      <c r="J15">
+        <v>0.96442382652157999</v>
+      </c>
+      <c r="K15">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.96450408509817798</v>
+      </c>
+      <c r="C16">
+        <v>0.968151016884779</v>
+      </c>
+      <c r="D16">
+        <v>0.991293752218535</v>
+      </c>
+      <c r="E16">
+        <v>0.97660166848350005</v>
+      </c>
+      <c r="F16">
+        <v>0.99224582403031703</v>
+      </c>
+      <c r="G16">
+        <v>0.89937468888673</v>
+      </c>
+      <c r="H16">
+        <v>0.94077573129086001</v>
+      </c>
+      <c r="I16">
+        <v>0.99677072120559695</v>
+      </c>
+      <c r="J16">
+        <v>0.95975349322123404</v>
+      </c>
+      <c r="K16">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.95855035617781903</v>
+      </c>
+      <c r="C17">
+        <v>0.96695576871578603</v>
+      </c>
+      <c r="D17">
+        <v>0.99006993277135202</v>
+      </c>
+      <c r="E17">
+        <v>0.97660166848350005</v>
+      </c>
+      <c r="F17">
+        <v>0.98979583434135399</v>
+      </c>
+      <c r="G17">
+        <v>0.88938163678798898</v>
+      </c>
+      <c r="H17">
+        <v>0.93729137673052298</v>
+      </c>
+      <c r="I17">
+        <v>0.99677072120559695</v>
+      </c>
+      <c r="J17">
+        <v>0.95501396979791897</v>
+      </c>
+      <c r="K17">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.95733853524712698</v>
+      </c>
+      <c r="C18">
+        <v>0.96328842698867101</v>
+      </c>
+      <c r="D18">
+        <v>0.98881826408263895</v>
+      </c>
+      <c r="E18">
+        <v>0.97413238487165899</v>
+      </c>
+      <c r="F18">
+        <v>0.98979583434135399</v>
+      </c>
+      <c r="G18">
+        <v>0.88263537911323797</v>
+      </c>
+      <c r="H18">
+        <v>0.927811817926675</v>
+      </c>
+      <c r="I18">
+        <v>0.99551058122935798</v>
+      </c>
+      <c r="J18">
+        <v>0.95259926949501605</v>
+      </c>
+      <c r="K18">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.95357935251709902</v>
+      </c>
+      <c r="C19">
+        <v>0.96076672953582198</v>
+      </c>
+      <c r="D19">
+        <v>0.98881826408263895</v>
+      </c>
+      <c r="E19">
+        <v>0.97413238487165899</v>
+      </c>
+      <c r="F19">
+        <v>0.98850029005556606</v>
+      </c>
+      <c r="G19">
+        <v>0.87570368765423301</v>
+      </c>
+      <c r="H19">
+        <v>0.92173975105542705</v>
+      </c>
+      <c r="I19">
+        <v>0.99551058122935798</v>
+      </c>
+      <c r="J19">
+        <v>0.94636498108209099</v>
+      </c>
+      <c r="K19">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.94969248015629504</v>
+      </c>
+      <c r="C20">
+        <v>0.95946133995764804</v>
+      </c>
+      <c r="D20">
+        <v>0.98478775485404202</v>
+      </c>
+      <c r="E20">
+        <v>0.97148528599972495</v>
+      </c>
+      <c r="F20">
+        <v>0.98715721900929498</v>
+      </c>
+      <c r="G20">
+        <v>0.86737498410317404</v>
+      </c>
+      <c r="H20">
+        <v>0.91547793209445305</v>
+      </c>
+      <c r="I20">
+        <v>0.99551058122935798</v>
+      </c>
+      <c r="J20">
+        <v>0.94379333711175895</v>
+      </c>
+      <c r="K20">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.94441641082209404</v>
+      </c>
+      <c r="C21">
+        <v>0.95413099918010502</v>
+      </c>
+      <c r="D21">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E21">
+        <v>0.97013600088028096</v>
+      </c>
+      <c r="F21">
+        <v>0.98715721900929498</v>
+      </c>
+      <c r="G21">
+        <v>0.86255623419148997</v>
+      </c>
+      <c r="H21">
+        <v>0.90912044645490797</v>
+      </c>
+      <c r="I21">
+        <v>0.99551058122935798</v>
+      </c>
+      <c r="J21">
+        <v>0.93986086487379406</v>
+      </c>
+      <c r="K21">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.94034565043061902</v>
+      </c>
+      <c r="C22">
+        <v>0.95276012130772003</v>
+      </c>
+      <c r="D22">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E22">
+        <v>0.96734825375131395</v>
+      </c>
+      <c r="F22">
+        <v>0.98715721900929498</v>
+      </c>
+      <c r="G22">
+        <v>0.85388109965220704</v>
+      </c>
+      <c r="H22">
+        <v>0.90520182384087799</v>
+      </c>
+      <c r="I22">
+        <v>0.99551058122935798</v>
+      </c>
+      <c r="J22">
+        <v>0.93716011526208698</v>
+      </c>
+      <c r="K22">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.93752178961851496</v>
+      </c>
+      <c r="C23">
+        <v>0.95132955055500601</v>
+      </c>
+      <c r="D23">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E23">
+        <v>0.96734825375131395</v>
+      </c>
+      <c r="F23">
+        <v>0.98715721900929498</v>
+      </c>
+      <c r="G23">
+        <v>0.84490637337958696</v>
+      </c>
+      <c r="H23">
+        <v>0.89568769055726505</v>
+      </c>
+      <c r="I23">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J23">
+        <v>0.93434582062166105</v>
+      </c>
+      <c r="K23">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.93303603942895297</v>
+      </c>
+      <c r="C24">
+        <v>0.94981227854455097</v>
+      </c>
+      <c r="D24">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E24">
+        <v>0.96734825375131395</v>
+      </c>
+      <c r="F24">
+        <v>0.98558280558184796</v>
+      </c>
+      <c r="G24">
+        <v>0.83277853069949703</v>
+      </c>
+      <c r="H24">
+        <v>0.88854504549699997</v>
+      </c>
+      <c r="I24">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J24">
+        <v>0.93136545117789105</v>
+      </c>
+      <c r="K24">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0.92519540044215498</v>
+      </c>
+      <c r="C25">
+        <v>0.94821595538733305</v>
+      </c>
+      <c r="D25">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E25">
+        <v>0.96734825375131395</v>
+      </c>
+      <c r="F25">
+        <v>0.98558280558184796</v>
+      </c>
+      <c r="G25">
+        <v>0.82438076400336702</v>
+      </c>
+      <c r="H25">
+        <v>0.88107828040878999</v>
+      </c>
+      <c r="I25">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J25">
+        <v>0.92823481100586502</v>
+      </c>
+      <c r="K25">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.918736793807306</v>
+      </c>
+      <c r="C26">
+        <v>0.946561128240061</v>
+      </c>
+      <c r="D26">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E26">
+        <v>0.96734825375131395</v>
+      </c>
+      <c r="F26">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G26">
+        <v>0.818625924464077</v>
+      </c>
+      <c r="H26">
+        <v>0.87646530511869203</v>
+      </c>
+      <c r="I26">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J26">
+        <v>0.923374942885415</v>
+      </c>
+      <c r="K26">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>0.91537145756625304</v>
+      </c>
+      <c r="C27">
+        <v>0.94309387136006095</v>
+      </c>
+      <c r="D27">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E27">
+        <v>0.96380485355442302</v>
+      </c>
+      <c r="F27">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G27">
+        <v>0.80963003518425203</v>
+      </c>
+      <c r="H27">
+        <v>0.87164956168397401</v>
+      </c>
+      <c r="I27">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J27">
+        <v>0.91999261708729996</v>
+      </c>
+      <c r="K27">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0.91182350618033803</v>
+      </c>
+      <c r="C28">
+        <v>0.93578306615571905</v>
+      </c>
+      <c r="D28">
+        <v>0.98205223331278002</v>
+      </c>
+      <c r="E28">
+        <v>0.96380485355442302</v>
+      </c>
+      <c r="F28">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G28">
+        <v>0.80178478290533495</v>
+      </c>
+      <c r="H28">
+        <v>0.86827107501078005</v>
+      </c>
+      <c r="I28">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J28">
+        <v>0.91464382280190903</v>
+      </c>
+      <c r="K28">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0.90425650612904895</v>
+      </c>
+      <c r="C29">
+        <v>0.93190014886876604</v>
+      </c>
+      <c r="D29">
+        <v>0.98001478054657098</v>
+      </c>
+      <c r="E29">
+        <v>0.95580647302700095</v>
+      </c>
+      <c r="F29">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G29">
+        <v>0.79180405946667898</v>
+      </c>
+      <c r="H29">
+        <v>0.85566132910813397</v>
+      </c>
+      <c r="I29">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J29">
+        <v>0.91274622150978901</v>
+      </c>
+      <c r="K29">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.89816039485177401</v>
+      </c>
+      <c r="C30">
+        <v>0.92980599123085805</v>
+      </c>
+      <c r="D30">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E30">
+        <v>0.95365859331233305</v>
+      </c>
+      <c r="F30">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G30">
+        <v>0.77756937974592999</v>
+      </c>
+      <c r="H30">
+        <v>0.85181566021326605</v>
+      </c>
+      <c r="I30">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J30">
+        <v>0.91274622150978901</v>
+      </c>
+      <c r="K30">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.89140730917619704</v>
+      </c>
+      <c r="C31">
+        <v>0.92980599123085805</v>
+      </c>
+      <c r="D31">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E31">
+        <v>0.95365859331233305</v>
+      </c>
+      <c r="F31">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G31">
+        <v>0.76977419799409097</v>
+      </c>
+      <c r="H31">
+        <v>0.84754590753049197</v>
+      </c>
+      <c r="I31">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J31">
+        <v>0.91045863699472696</v>
+      </c>
+      <c r="K31">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.88900459405712395</v>
+      </c>
+      <c r="C32">
+        <v>0.92729977562107202</v>
+      </c>
+      <c r="D32">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E32">
+        <v>0.94594706829902597</v>
+      </c>
+      <c r="F32">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G32">
+        <v>0.76562447185935201</v>
+      </c>
+      <c r="H32">
+        <v>0.84069243658011095</v>
+      </c>
+      <c r="I32">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J32">
+        <v>0.90309643777374504</v>
+      </c>
+      <c r="K32">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.88633491059148695</v>
+      </c>
+      <c r="C33">
+        <v>0.91337635556670105</v>
+      </c>
+      <c r="D33">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E33">
+        <v>0.94026570452545799</v>
+      </c>
+      <c r="F33">
+        <v>0.98386276578153098</v>
+      </c>
+      <c r="G33">
+        <v>0.75642778150668699</v>
+      </c>
+      <c r="H33">
+        <v>0.83311863084515503</v>
+      </c>
+      <c r="I33">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J33">
+        <v>0.90038443645910904</v>
+      </c>
+      <c r="K33">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.87764535264451105</v>
+      </c>
+      <c r="C34">
+        <v>0.91039146551582995</v>
+      </c>
+      <c r="D34">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E34">
+        <v>0.94026570452545799</v>
+      </c>
+      <c r="F34">
+        <v>0.98064752798485899</v>
+      </c>
+      <c r="G34">
+        <v>0.74653983665039003</v>
+      </c>
+      <c r="H34">
+        <v>0.822228191226264</v>
+      </c>
+      <c r="I34">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J34">
+        <v>0.89744200366022298</v>
+      </c>
+      <c r="K34">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.87764535264451105</v>
+      </c>
+      <c r="C35">
+        <v>0.91039146551582995</v>
+      </c>
+      <c r="D35">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E35">
+        <v>0.93342740849254602</v>
+      </c>
+      <c r="F35">
+        <v>0.97708153697400502</v>
+      </c>
+      <c r="G35">
+        <v>0.74382514633529795</v>
+      </c>
+      <c r="H35">
+        <v>0.813258429140159</v>
+      </c>
+      <c r="I35">
+        <v>0.99401582059688098</v>
+      </c>
+      <c r="J35">
+        <v>0.89091515272451305</v>
+      </c>
+      <c r="K35">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.87394220769664399</v>
+      </c>
+      <c r="C36">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D36">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E36">
+        <v>0.92948889622042496</v>
+      </c>
+      <c r="F36">
+        <v>0.97708153697400502</v>
+      </c>
+      <c r="G36">
+        <v>0.73754814088099196</v>
+      </c>
+      <c r="H36">
+        <v>0.80296401864471401</v>
+      </c>
+      <c r="I36">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J36">
+        <v>0.87963774572800002</v>
+      </c>
+      <c r="K36">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.86948331888186503</v>
+      </c>
+      <c r="C37">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D37">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E37">
+        <v>0.92474660593358604</v>
+      </c>
+      <c r="F37">
+        <v>0.97209642709148503</v>
+      </c>
+      <c r="G37">
+        <v>0.73002213944343097</v>
+      </c>
+      <c r="H37">
+        <v>0.79886726344754799</v>
+      </c>
+      <c r="I37">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J37">
+        <v>0.87066185036342802</v>
+      </c>
+      <c r="K37">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0.864213723009854</v>
+      </c>
+      <c r="C38">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D38">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E38">
+        <v>0.91353755616469501</v>
+      </c>
+      <c r="F38">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G38">
+        <v>0.72559776284074295</v>
+      </c>
+      <c r="H38">
+        <v>0.77950078433366798</v>
+      </c>
+      <c r="I38">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J38">
+        <v>0.86538511187637701</v>
+      </c>
+      <c r="K38">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0.864213723009854</v>
+      </c>
+      <c r="C39">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D39">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E39">
+        <v>0.91353755616469501</v>
+      </c>
+      <c r="F39">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G39">
+        <v>0.72559776284074295</v>
+      </c>
+      <c r="H39">
+        <v>0.77341093445606102</v>
+      </c>
+      <c r="I39">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J39">
+        <v>0.85186346950330905</v>
+      </c>
+      <c r="K39">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0.85590397567322096</v>
+      </c>
+      <c r="C40">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D40">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E40">
+        <v>0.91353755616469501</v>
+      </c>
+      <c r="F40">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G40">
+        <v>0.72559776284074295</v>
+      </c>
+      <c r="H40">
+        <v>0.76597429085552204</v>
+      </c>
+      <c r="I40">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J40">
+        <v>0.85186346950330905</v>
+      </c>
+      <c r="K40">
+        <v>8.4999999999999895E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0.85590397567322096</v>
+      </c>
+      <c r="C41">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D41">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E41">
+        <v>0.91353755616469501</v>
+      </c>
+      <c r="F41">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G41">
+        <v>0.71706131857202904</v>
+      </c>
+      <c r="H41">
+        <v>0.76597429085552204</v>
+      </c>
+      <c r="I41">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J41">
+        <v>0.84184154633268204</v>
+      </c>
+      <c r="K41">
+        <v>6.7999999999999894E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>0.84331715250155603</v>
+      </c>
+      <c r="C42">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D42">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E42">
+        <v>0.90010318033874304</v>
+      </c>
+      <c r="F42">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G42">
+        <v>0.71706131857202904</v>
+      </c>
+      <c r="H42">
+        <v>0.75470996304882298</v>
+      </c>
+      <c r="I42">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J42">
+        <v>0.81708150085230902</v>
+      </c>
+      <c r="K42">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>0.84331715250155603</v>
+      </c>
+      <c r="C43">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D43">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E43">
+        <v>0.90010318033874304</v>
+      </c>
+      <c r="F43">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G43">
+        <v>0.71706131857202904</v>
+      </c>
+      <c r="H43">
+        <v>0.75470996304882298</v>
+      </c>
+      <c r="I43">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J43">
+        <v>0.81708150085230902</v>
+      </c>
+      <c r="K43">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>0.84331715250155603</v>
+      </c>
+      <c r="C44">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D44">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E44">
+        <v>0.90010318033874304</v>
+      </c>
+      <c r="F44">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G44">
+        <v>0.69867513091633604</v>
+      </c>
+      <c r="H44">
+        <v>0.75470996304882298</v>
+      </c>
+      <c r="I44">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J44">
+        <v>0.79613069313814699</v>
+      </c>
+      <c r="K44">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>0.84331715250155603</v>
+      </c>
+      <c r="C45">
+        <v>0.90270883711485195</v>
+      </c>
+      <c r="D45">
+        <v>0.97781250014084897</v>
+      </c>
+      <c r="E45">
+        <v>0.87438594661477897</v>
+      </c>
+      <c r="F45">
+        <v>0.96620493359395998</v>
+      </c>
+      <c r="G45">
+        <v>0.67871298431872595</v>
+      </c>
+      <c r="H45">
+        <v>0.75470996304882298</v>
+      </c>
+      <c r="I45">
+        <v>0.98982166101630398</v>
+      </c>
+      <c r="J45">
+        <v>0.77338410190562801</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F01C5-09FF-4F79-BEB9-95AAD15B5D62}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -4501,18 +6739,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -6059,7 +8297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590854BF-36B1-4E09-82BC-4DE793A30B40}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6071,18 +8309,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -7629,7 +9867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72F9F6F-1D67-4B30-ABF5-BE252A579676}">
   <dimension ref="A1:AG46"/>
   <sheetViews>
@@ -7660,42 +9898,42 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="M2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23"/>
+      <c r="X2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="21"/>
-      <c r="X2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="23"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -13174,7 +15412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1F282E-83F8-40EF-AF45-1956F8EAE90C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13189,7 +15427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF908F2B-86AE-4B0C-AFD2-AEBD7D81DF24}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13206,15 +15444,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D4F76-810F-4946-9581-43363ADD77EF}">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B2:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -13872,7 +16110,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3">
         <v>15970.145794739599</v>
@@ -13938,9 +16176,727 @@
         <f t="shared" si="7"/>
         <v>4675.3738783890149</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="4">
         <f t="shared" si="7"/>
         <v>0.15133308455939698</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="3">
+        <v>15906.100268586501</v>
+      </c>
+      <c r="D35" s="3">
+        <v>61347.361440827197</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>39782.147314498201</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4077.0340619257399</v>
+      </c>
+      <c r="H35" s="3">
+        <v>51452.061581053698</v>
+      </c>
+      <c r="I35" s="3">
+        <v>246720.961992606</v>
+      </c>
+      <c r="J35" s="3">
+        <v>419285.66665949702</v>
+      </c>
+      <c r="K35">
+        <v>17.743982941975801</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3">
+        <f>C35-C4</f>
+        <v>1826.9474083075002</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:K36" si="8">D35-D4</f>
+        <v>468.28175456059398</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="8"/>
+        <v>141.95773720150464</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="8"/>
+        <v>94.489201498170132</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="8"/>
+        <v>427.09324202020071</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="8"/>
+        <v>1646.2524855489901</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="8"/>
+        <v>4605.021829136007</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="8"/>
+        <v>0.15134347180359953</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="3">
+        <f>C35-C32</f>
+        <v>-64.045526153098763</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ref="D38:K38" si="9">D35-D32</f>
+        <v>4.0920919341951958</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="9"/>
+        <v>-9.1058781113970326</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.68035455030985759</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.34728741439903388</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.2650949580129236</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="9"/>
+        <v>-70.352049253007863</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0387244202547663E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="3">
+        <f>J38/K38</f>
+        <v>-6772927.2443361571</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="3">
+        <v>14079.152860279</v>
+      </c>
+      <c r="D41" s="3">
+        <v>60879.079686266603</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>39640.189577296696</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4011.50174875536</v>
+      </c>
+      <c r="H41" s="3">
+        <v>51024.968339033498</v>
+      </c>
+      <c r="I41" s="3">
+        <v>245074.70950705701</v>
+      </c>
+      <c r="J41" s="3">
+        <v>414709.60171868902</v>
+      </c>
+      <c r="K41">
+        <v>17.592639470172202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="3">
+        <f>C41-C3</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ref="D42:K42" si="10">D41-D3</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="10"/>
+        <v>28.956888327790239</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="10"/>
+        <v>28.956888328015339</v>
+      </c>
+      <c r="K42" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="3">
+        <v>14079.152860279</v>
+      </c>
+      <c r="D44" s="3">
+        <v>60879.079686266603</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>39640.189577296696</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4011.50174875536</v>
+      </c>
+      <c r="H44" s="3">
+        <v>51024.968339033498</v>
+      </c>
+      <c r="I44" s="3">
+        <v>245074.70950705701</v>
+      </c>
+      <c r="J44" s="3">
+        <v>414709.60171868902</v>
+      </c>
+      <c r="K44">
+        <v>17.592639470172202</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="3">
+        <f>C44-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ref="D45:K45" si="11">D44-D4</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="11"/>
+        <v>28.956888327790239</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="11"/>
+        <v>28.956888328015339</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="3">
+        <f>C44-C41</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" ref="D47:K47" si="12">D44-D41</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" t="e">
+        <f>J47/K47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="3">
+        <v>13941.802620348801</v>
+      </c>
+      <c r="D50" s="3">
+        <v>61034.923261843098</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>39813.774555620897</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4009.7821385372499</v>
+      </c>
+      <c r="H50" s="3">
+        <v>51144.935209285999</v>
+      </c>
+      <c r="I50" s="3">
+        <v>245490.71963092301</v>
+      </c>
+      <c r="J50" s="3">
+        <v>415435.93741655903</v>
+      </c>
+      <c r="K50">
+        <v>17.638375022399298</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="3">
+        <f>C50-C8</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" ref="D51:K51" si="13">D50-D8</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="13"/>
+        <v>28.956888327789784</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="13"/>
+        <v>28.956888327025808</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="3">
+        <v>15149.0141210162</v>
+      </c>
+      <c r="D54" s="3">
+        <v>61339.527701658</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>39535.888996913804</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4168.0859810462198</v>
+      </c>
+      <c r="H54" s="3">
+        <v>51340.963506484397</v>
+      </c>
+      <c r="I54" s="3">
+        <v>246871.52160778601</v>
+      </c>
+      <c r="J54" s="3">
+        <v>418405.00191490498</v>
+      </c>
+      <c r="K54">
+        <v>17.704301500813902</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="3">
+        <f>C54-C3</f>
+        <v>1069.8612607371997</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" ref="D55:K55" si="14">D54-D3</f>
+        <v>460.44801539139735</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="14"/>
+        <v>-104.3005803828928</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="14"/>
+        <v>185.54112061864998</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="14"/>
+        <v>315.99516745089932</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="14"/>
+        <v>1796.8121007290029</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="14"/>
+        <v>3724.3570845439681</v>
+      </c>
+      <c r="K55" s="19">
+        <f t="shared" si="14"/>
+        <v>0.11166203064169977</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="3">
+        <v>15970.635981244701</v>
+      </c>
+      <c r="D57" s="3">
+        <v>61836.885870013801</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>41005.783892405903</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4037.75735234166</v>
+      </c>
+      <c r="H57" s="3">
+        <v>51908.9899554492</v>
+      </c>
+      <c r="I57" s="3">
+        <v>248117.99489851599</v>
+      </c>
+      <c r="J57" s="3">
+        <v>422878.04794997198</v>
+      </c>
+      <c r="K57">
+        <v>17.932784001020998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="3">
+        <f>C57-C4</f>
+        <v>1891.4831209657004</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" ref="D58:K58" si="15">D57-D4</f>
+        <v>957.80618374719779</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="15"/>
+        <v>1365.5943151092069</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="15"/>
+        <v>55.212491914090151</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="15"/>
+        <v>884.02161641570274</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="15"/>
+        <v>3043.2853914589796</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="15"/>
+        <v>8197.4031196109718</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="15"/>
+        <v>0.34014453084879648</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="3">
+        <f>C57-C54</f>
+        <v>821.62186022850074</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" ref="D60:K60" si="16">D57-D54</f>
+        <v>497.35816835580044</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="16"/>
+        <v>1469.8948954920997</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="16"/>
+        <v>-130.32862870455983</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="16"/>
+        <v>568.02644896480342</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="16"/>
+        <v>1246.4732907299767</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="16"/>
+        <v>4473.0460350670037</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="16"/>
+        <v>0.22848250020709671</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="3">
+        <f>J60/K60</f>
+        <v>19577.193137385275</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="3">
+        <v>14807.7507515698</v>
+      </c>
+      <c r="D63" s="3">
+        <v>61409.770956575303</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>40256.665528179197</v>
+      </c>
+      <c r="G63" s="3">
+        <v>3946.5386753991402</v>
+      </c>
+      <c r="H63" s="3">
+        <v>51577.339033188</v>
+      </c>
+      <c r="I63" s="3">
+        <v>246560.64680419301</v>
+      </c>
+      <c r="J63" s="3">
+        <v>418558.71174910403</v>
+      </c>
+      <c r="K63">
+        <v>17.808954868765099</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="3">
+        <f>C63-C57</f>
+        <v>-1162.885229674901</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" ref="D64:K64" si="17">D63-D57</f>
+        <v>-427.11491343849775</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="17"/>
+        <v>-749.11836422670603</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="17"/>
+        <v>-91.218676942519778</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="17"/>
+        <v>-331.65092226120032</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="17"/>
+        <v>-1557.3480943229806</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="17"/>
+        <v>-4319.3362008679542</v>
+      </c>
+      <c r="K64" s="19">
+        <f t="shared" si="17"/>
+        <v>-0.12382913225589931</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="3">
+        <f>C63-C54</f>
+        <v>-341.26336944640025</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" ref="D65:K65" si="18">D63-D54</f>
+        <v>70.243254917302693</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="18"/>
+        <v>720.77653126539371</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="18"/>
+        <v>-221.54730564707961</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="18"/>
+        <v>236.3755267036031</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="18"/>
+        <v>-310.87480359300389</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="18"/>
+        <v>153.70983419904951</v>
+      </c>
+      <c r="K65" s="24">
+        <f t="shared" si="18"/>
+        <v>0.1046533679511974</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="3">
+        <f>J65/K65</f>
+        <v>1468.7519112689085</v>
       </c>
     </row>
   </sheetData>
@@ -13962,18 +16918,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -15534,18 +18490,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -17106,18 +20062,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -18665,6 +21621,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603696C6-4EDC-4CB4-81A1-880D234CB6F3}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="K4">
+        <v>0.99339999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.99558429635594903</v>
+      </c>
+      <c r="C5">
+        <v>0.99599202738071302</v>
+      </c>
+      <c r="D5">
+        <v>0.99919879202738104</v>
+      </c>
+      <c r="E5">
+        <v>0.998796376082142</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.99039782564928502</v>
+      </c>
+      <c r="H5">
+        <v>0.98640265753976197</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.99478953090396605</v>
+      </c>
+      <c r="K5">
+        <v>0.98460000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.99396644659546796</v>
+      </c>
+      <c r="C6">
+        <v>0.99315963079665204</v>
+      </c>
+      <c r="D6">
+        <v>0.998386930323519</v>
+      </c>
+      <c r="E6">
+        <v>0.99798484134634502</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.98375896149197695</v>
+      </c>
+      <c r="H6">
+        <v>0.98179423561747603</v>
+      </c>
+      <c r="I6">
+        <v>0.99979687182612198</v>
+      </c>
+      <c r="J6">
+        <v>0.991556414411083</v>
+      </c>
+      <c r="K6">
+        <v>0.97619999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.991522767562658</v>
+      </c>
+      <c r="C7">
+        <v>0.990717935330649</v>
+      </c>
+      <c r="D7">
+        <v>0.99634147461705902</v>
+      </c>
+      <c r="E7">
+        <v>0.99737145176961095</v>
+      </c>
+      <c r="F7">
+        <v>0.99959024790002005</v>
+      </c>
+      <c r="G7">
+        <v>0.97690630738611195</v>
+      </c>
+      <c r="H7">
+        <v>0.97817360536934805</v>
+      </c>
+      <c r="I7">
+        <v>0.99979687182612198</v>
+      </c>
+      <c r="J7">
+        <v>0.98810292966513202</v>
+      </c>
+      <c r="K7">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.98885407274313197</v>
+      </c>
+      <c r="C8">
+        <v>0.98805140672624003</v>
+      </c>
+      <c r="D8">
+        <v>0.99489750146543998</v>
+      </c>
+      <c r="E8">
+        <v>0.99675196639584096</v>
+      </c>
+      <c r="F8">
+        <v>0.99959024790002005</v>
+      </c>
+      <c r="G8">
+        <v>0.97265888865834704</v>
+      </c>
+      <c r="H8">
+        <v>0.97230051332882805</v>
+      </c>
+      <c r="I8">
+        <v>0.99979687182612198</v>
+      </c>
+      <c r="J8">
+        <v>0.98442055849867804</v>
+      </c>
+      <c r="K8">
+        <v>0.95840000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.98637781045746398</v>
+      </c>
+      <c r="C9">
+        <v>0.985370966766423</v>
+      </c>
+      <c r="D9">
+        <v>0.99385941976524605</v>
+      </c>
+      <c r="E9">
+        <v>0.99425592641321403</v>
+      </c>
+      <c r="F9">
+        <v>0.99917305664463696</v>
+      </c>
+      <c r="G9">
+        <v>0.96494581733759999</v>
+      </c>
+      <c r="H9">
+        <v>0.96682219240648304</v>
+      </c>
+      <c r="I9">
+        <v>0.99979687182612198</v>
+      </c>
+      <c r="J9">
+        <v>0.98010652850525704</v>
+      </c>
+      <c r="K9">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.98387219366544698</v>
+      </c>
+      <c r="C10">
+        <v>0.98370226064150101</v>
+      </c>
+      <c r="D10">
+        <v>0.99322826433355804</v>
+      </c>
+      <c r="E10">
+        <v>0.99341405009956996</v>
+      </c>
+      <c r="F10">
+        <v>0.99896154668345005</v>
+      </c>
+      <c r="G10">
+        <v>0.95902214487723003</v>
+      </c>
+      <c r="H10">
+        <v>0.95986369229178803</v>
+      </c>
+      <c r="I10">
+        <v>0.99979687182612198</v>
+      </c>
+      <c r="J10">
+        <v>0.97657947283536095</v>
+      </c>
+      <c r="K10">
+        <v>0.93259999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.98155124274751404</v>
+      </c>
+      <c r="C11">
+        <v>0.98138171059495205</v>
+      </c>
+      <c r="D11">
+        <v>0.99258925837323198</v>
+      </c>
+      <c r="E11">
+        <v>0.992135799123675</v>
+      </c>
+      <c r="F11">
+        <v>0.99831885214344396</v>
+      </c>
+      <c r="G11">
+        <v>0.95326348734847899</v>
+      </c>
+      <c r="H11">
+        <v>0.95471752194924098</v>
+      </c>
+      <c r="I11">
+        <v>0.99915363986912498</v>
+      </c>
+      <c r="J11">
+        <v>0.97364743066943904</v>
+      </c>
+      <c r="K11">
+        <v>0.91759999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.978128221848656</v>
+      </c>
+      <c r="C12">
+        <v>0.97838708462539503</v>
+      </c>
+      <c r="D12">
+        <v>0.99150753511868395</v>
+      </c>
+      <c r="E12">
+        <v>0.98997334097388501</v>
+      </c>
+      <c r="F12">
+        <v>0.99810125867087596</v>
+      </c>
+      <c r="G12">
+        <v>0.94661474462939699</v>
+      </c>
+      <c r="H12">
+        <v>0.951179989718827</v>
+      </c>
+      <c r="I12">
+        <v>0.99915363986912498</v>
+      </c>
+      <c r="J12">
+        <v>0.96961532491906399</v>
+      </c>
+      <c r="K12">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.97552335308208205</v>
+      </c>
+      <c r="C13">
+        <v>0.97708430555132697</v>
+      </c>
+      <c r="D13">
+        <v>0.99018728540481105</v>
+      </c>
+      <c r="E13">
+        <v>0.98821573184654599</v>
+      </c>
+      <c r="F13">
+        <v>0.99743674385152103</v>
+      </c>
+      <c r="G13">
+        <v>0.93968214663277705</v>
+      </c>
+      <c r="H13">
+        <v>0.94526941721280699</v>
+      </c>
+      <c r="I13">
+        <v>0.99893190137825305</v>
+      </c>
+      <c r="J13">
+        <v>0.96595721117658195</v>
+      </c>
+      <c r="K13">
+        <v>0.88519999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.97155601906593303</v>
+      </c>
+      <c r="C14">
+        <v>0.97288986320937598</v>
+      </c>
+      <c r="D14">
+        <v>0.98839752076783804</v>
+      </c>
+      <c r="E14">
+        <v>0.98732263132070197</v>
+      </c>
+      <c r="F14">
+        <v>0.99653530983086902</v>
+      </c>
+      <c r="G14">
+        <v>0.93373747873722401</v>
+      </c>
+      <c r="H14">
+        <v>0.93758082728518399</v>
+      </c>
+      <c r="I14">
+        <v>0.99870620506072505</v>
+      </c>
+      <c r="J14">
+        <v>0.961592289300502</v>
+      </c>
+      <c r="K14">
+        <v>0.86280000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.96660139866272199</v>
+      </c>
+      <c r="C15">
+        <v>0.96995811350568495</v>
+      </c>
+      <c r="D15">
+        <v>0.98793929289543803</v>
+      </c>
+      <c r="E15">
+        <v>0.98663603700128499</v>
+      </c>
+      <c r="F15">
+        <v>0.99584230891999903</v>
+      </c>
+      <c r="G15">
+        <v>0.92572906735259697</v>
+      </c>
+      <c r="H15">
+        <v>0.93236480042963399</v>
+      </c>
+      <c r="I15">
+        <v>0.99847470153614004</v>
+      </c>
+      <c r="J15">
+        <v>0.95691138107720297</v>
+      </c>
+      <c r="K15">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.96314925081035496</v>
+      </c>
+      <c r="C16">
+        <v>0.96741774701793204</v>
+      </c>
+      <c r="D16">
+        <v>0.98676317468960995</v>
+      </c>
+      <c r="E16">
+        <v>0.98452181692199703</v>
+      </c>
+      <c r="F16">
+        <v>0.99513099298505603</v>
+      </c>
+      <c r="G16">
+        <v>0.91911671687150698</v>
+      </c>
+      <c r="H16">
+        <v>0.92526106861683599</v>
+      </c>
+      <c r="I16">
+        <v>0.99823696946434604</v>
+      </c>
+      <c r="J16">
+        <v>0.95189898812870299</v>
+      </c>
+      <c r="K16">
+        <v>0.81740000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.958907340726042</v>
+      </c>
+      <c r="C17">
+        <v>0.96457727406363403</v>
+      </c>
+      <c r="D17">
+        <v>0.98579741675010502</v>
+      </c>
+      <c r="E17">
+        <v>0.983076470481691</v>
+      </c>
+      <c r="F17">
+        <v>0.99415704535306704</v>
+      </c>
+      <c r="G17">
+        <v>0.91034609001611499</v>
+      </c>
+      <c r="H17">
+        <v>0.91892211341221897</v>
+      </c>
+      <c r="I17">
+        <v>0.99823696946434604</v>
+      </c>
+      <c r="J17">
+        <v>0.94747371756974896</v>
+      </c>
+      <c r="K17">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.95626373652855201</v>
+      </c>
+      <c r="C18">
+        <v>0.96119279240025302</v>
+      </c>
+      <c r="D18">
+        <v>0.98480914866313696</v>
+      </c>
+      <c r="E18">
+        <v>0.979873464437515</v>
+      </c>
+      <c r="F18">
+        <v>0.99365872101955599</v>
+      </c>
+      <c r="G18">
+        <v>0.90007902885052005</v>
+      </c>
+      <c r="H18">
+        <v>0.91293414976592402</v>
+      </c>
+      <c r="I18">
+        <v>0.99798678476021896</v>
+      </c>
+      <c r="J18">
+        <v>0.94296193796227401</v>
+      </c>
+      <c r="K18">
+        <v>0.77639999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.95355407627563704</v>
+      </c>
+      <c r="C19">
+        <v>0.95673594792235395</v>
+      </c>
+      <c r="D19">
+        <v>0.98404809058843601</v>
+      </c>
+      <c r="E19">
+        <v>0.97760173306710296</v>
+      </c>
+      <c r="F19">
+        <v>0.99289082401722295</v>
+      </c>
+      <c r="G19">
+        <v>0.89335509998996698</v>
+      </c>
+      <c r="H19">
+        <v>0.90611418831738899</v>
+      </c>
+      <c r="I19">
+        <v>0.99798678476021896</v>
+      </c>
+      <c r="J19">
+        <v>0.93956125091140597</v>
+      </c>
+      <c r="K19">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.94848198012523499</v>
+      </c>
+      <c r="C20">
+        <v>0.95495479057249799</v>
+      </c>
+      <c r="D20">
+        <v>0.98221608616446898</v>
+      </c>
+      <c r="E20">
+        <v>0.97526172891880403</v>
+      </c>
+      <c r="F20">
+        <v>0.99209862389167702</v>
+      </c>
+      <c r="G20">
+        <v>0.88432651121347305</v>
+      </c>
+      <c r="H20">
+        <v>0.90033048073238497</v>
+      </c>
+      <c r="I20">
+        <v>0.99798678476021896</v>
+      </c>
+      <c r="J20">
+        <v>0.93556311792880398</v>
+      </c>
+      <c r="K20">
+        <v>0.72919999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.94510011897832702</v>
+      </c>
+      <c r="C21">
+        <v>0.95181176877138196</v>
+      </c>
+      <c r="D21">
+        <v>0.981138504062258</v>
+      </c>
+      <c r="E21">
+        <v>0.97285433573167601</v>
+      </c>
+      <c r="F21">
+        <v>0.99019388160773802</v>
+      </c>
+      <c r="G21">
+        <v>0.87777774110849105</v>
+      </c>
+      <c r="H21">
+        <v>0.89465094122145605</v>
+      </c>
+      <c r="I21">
+        <v>0.99798678476021896</v>
+      </c>
+      <c r="J21">
+        <v>0.93171411991209196</v>
+      </c>
+      <c r="K21">
+        <v>0.70340000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.94133799169208898</v>
+      </c>
+      <c r="C22">
+        <v>0.95018797843512104</v>
+      </c>
+      <c r="D22">
+        <v>0.981138504062258</v>
+      </c>
+      <c r="E22">
+        <v>0.97008818749246195</v>
+      </c>
+      <c r="F22">
+        <v>0.989912336574583</v>
+      </c>
+      <c r="G22">
+        <v>0.86929197392120405</v>
+      </c>
+      <c r="H22">
+        <v>0.88905460323258101</v>
+      </c>
+      <c r="I22">
+        <v>0.99798678476021896</v>
+      </c>
+      <c r="J22">
+        <v>0.928800029687744</v>
+      </c>
+      <c r="K22">
+        <v>0.67559999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.936879315591712</v>
+      </c>
+      <c r="C23">
+        <v>0.94850025556045903</v>
+      </c>
+      <c r="D23">
+        <v>0.98084805453470902</v>
+      </c>
+      <c r="E23">
+        <v>0.96750358308528805</v>
+      </c>
+      <c r="F23">
+        <v>0.98903319595595496</v>
+      </c>
+      <c r="G23">
+        <v>0.86131445728664002</v>
+      </c>
+      <c r="H23">
+        <v>0.88194848295807604</v>
+      </c>
+      <c r="I23">
+        <v>0.99769134758296596</v>
+      </c>
+      <c r="J23">
+        <v>0.92440074002670003</v>
+      </c>
+      <c r="K23">
+        <v>0.64139999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.93425009393897596</v>
+      </c>
+      <c r="C24">
+        <v>0.94524690264148004</v>
+      </c>
+      <c r="D24">
+        <v>0.97962467061885605</v>
+      </c>
+      <c r="E24">
+        <v>0.96539178854784002</v>
+      </c>
+      <c r="F24">
+        <v>0.98841639945083704</v>
+      </c>
+      <c r="G24">
+        <v>0.85433155242556902</v>
+      </c>
+      <c r="H24">
+        <v>0.87754836579956996</v>
+      </c>
+      <c r="I24">
+        <v>0.99769134758296596</v>
+      </c>
+      <c r="J24">
+        <v>0.91777111201902495</v>
+      </c>
+      <c r="K24">
+        <v>0.61280000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0.92784694381733102</v>
+      </c>
+      <c r="C25">
+        <v>0.94277889506278101</v>
+      </c>
+      <c r="D25">
+        <v>0.97802606639134504</v>
+      </c>
+      <c r="E25">
+        <v>0.96381641030282095</v>
+      </c>
+      <c r="F25">
+        <v>0.98777121903344101</v>
+      </c>
+      <c r="G25">
+        <v>0.84680317386307302</v>
+      </c>
+      <c r="H25">
+        <v>0.87239305555662205</v>
+      </c>
+      <c r="I25">
+        <v>0.99769134758296596</v>
+      </c>
+      <c r="J25">
+        <v>0.910881838005828</v>
+      </c>
+      <c r="K25">
+        <v>0.58320000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.92307406859193397</v>
+      </c>
+      <c r="C26">
+        <v>0.94051570841482501</v>
+      </c>
+      <c r="D26">
+        <v>0.97668446684897003</v>
+      </c>
+      <c r="E26">
+        <v>0.96183324896474898</v>
+      </c>
+      <c r="F26">
+        <v>0.98675499349945595</v>
+      </c>
+      <c r="G26">
+        <v>0.84157599377749803</v>
+      </c>
+      <c r="H26">
+        <v>0.86611038951866304</v>
+      </c>
+      <c r="I26">
+        <v>0.99769134758296596</v>
+      </c>
+      <c r="J26">
+        <v>0.90682097933159</v>
+      </c>
+      <c r="K26">
+        <v>0.55059999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>0.919721093406347</v>
+      </c>
+      <c r="C27">
+        <v>0.93744101122058898</v>
+      </c>
+      <c r="D27">
+        <v>0.97632969588389595</v>
+      </c>
+      <c r="E27">
+        <v>0.959038237707314</v>
+      </c>
+      <c r="F27">
+        <v>0.98639656451525803</v>
+      </c>
+      <c r="G27">
+        <v>0.83485072248686798</v>
+      </c>
+      <c r="H27">
+        <v>0.85855984489518</v>
+      </c>
+      <c r="I27">
+        <v>0.99732894607639799</v>
+      </c>
+      <c r="J27">
+        <v>0.89924492320204896</v>
+      </c>
+      <c r="K27">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0.91582246834759196</v>
+      </c>
+      <c r="C28">
+        <v>0.93491226860843302</v>
+      </c>
+      <c r="D28">
+        <v>0.97557722598340801</v>
+      </c>
+      <c r="E28">
+        <v>0.95645123668074306</v>
+      </c>
+      <c r="F28">
+        <v>0.98487610738305698</v>
+      </c>
+      <c r="G28">
+        <v>0.82519926904771301</v>
+      </c>
+      <c r="H28">
+        <v>0.85359707122526596</v>
+      </c>
+      <c r="I28">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J28">
+        <v>0.89404697566908997</v>
+      </c>
+      <c r="K28">
+        <v>0.48220000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0.90936498930905696</v>
+      </c>
+      <c r="C29">
+        <v>0.93064680408968903</v>
+      </c>
+      <c r="D29">
+        <v>0.97274477447702701</v>
+      </c>
+      <c r="E29">
+        <v>0.95208750229522399</v>
+      </c>
+      <c r="F29">
+        <v>0.98405912181077704</v>
+      </c>
+      <c r="G29">
+        <v>0.81424681089361695</v>
+      </c>
+      <c r="H29">
+        <v>0.84651621621717599</v>
+      </c>
+      <c r="I29">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J29">
+        <v>0.88996795587134603</v>
+      </c>
+      <c r="K29">
+        <v>0.45019999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.902901266595176</v>
+      </c>
+      <c r="C30">
+        <v>0.92857961882960505</v>
+      </c>
+      <c r="D30">
+        <v>0.97231263552790403</v>
+      </c>
+      <c r="E30">
+        <v>0.94828084413411395</v>
+      </c>
+      <c r="F30">
+        <v>0.98231046055478299</v>
+      </c>
+      <c r="G30">
+        <v>0.80628882340376395</v>
+      </c>
+      <c r="H30">
+        <v>0.84087528185766502</v>
+      </c>
+      <c r="I30">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J30">
+        <v>0.883642106340497</v>
+      </c>
+      <c r="K30">
+        <v>0.41139999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.89851185839587999</v>
+      </c>
+      <c r="C31">
+        <v>0.92541964929542497</v>
+      </c>
+      <c r="D31">
+        <v>0.97136726592602896</v>
+      </c>
+      <c r="E31">
+        <v>0.94551483292127803</v>
+      </c>
+      <c r="F31">
+        <v>0.98183291536248596</v>
+      </c>
+      <c r="G31">
+        <v>0.79766541352778697</v>
+      </c>
+      <c r="H31">
+        <v>0.83515226097968398</v>
+      </c>
+      <c r="I31">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J31">
+        <v>0.88020548171690705</v>
+      </c>
+      <c r="K31">
+        <v>0.37480000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.89611454820805803</v>
+      </c>
+      <c r="C32">
+        <v>0.92443200826095895</v>
+      </c>
+      <c r="D32">
+        <v>0.97084892693674096</v>
+      </c>
+      <c r="E32">
+        <v>0.94198302724867999</v>
+      </c>
+      <c r="F32">
+        <v>0.97868937347765395</v>
+      </c>
+      <c r="G32">
+        <v>0.789578090765233</v>
+      </c>
+      <c r="H32">
+        <v>0.82802182545370995</v>
+      </c>
+      <c r="I32">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J32">
+        <v>0.87503885402273096</v>
+      </c>
+      <c r="K32">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.89082773671420501</v>
+      </c>
+      <c r="C33">
+        <v>0.92115968256799896</v>
+      </c>
+      <c r="D33">
+        <v>0.96970338248017895</v>
+      </c>
+      <c r="E33">
+        <v>0.93809283185591197</v>
+      </c>
+      <c r="F33">
+        <v>0.97695717989627795</v>
+      </c>
+      <c r="G33">
+        <v>0.78259067403279703</v>
+      </c>
+      <c r="H33">
+        <v>0.82118270713137897</v>
+      </c>
+      <c r="I33">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J33">
+        <v>0.87245761846514203</v>
+      </c>
+      <c r="K33">
+        <v>0.30640000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.88559441450113197</v>
+      </c>
+      <c r="C34">
+        <v>0.91935584506949797</v>
+      </c>
+      <c r="D34">
+        <v>0.96907041682581796</v>
+      </c>
+      <c r="E34">
+        <v>0.93625583544888402</v>
+      </c>
+      <c r="F34">
+        <v>0.97504407836906604</v>
+      </c>
+      <c r="G34">
+        <v>0.77237408559894805</v>
+      </c>
+      <c r="H34">
+        <v>0.81260638643026795</v>
+      </c>
+      <c r="I34">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J34">
+        <v>0.87131863985095703</v>
+      </c>
+      <c r="K34">
+        <v>0.27339999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.88300306288591301</v>
+      </c>
+      <c r="C35">
+        <v>0.916665703606237</v>
+      </c>
+      <c r="D35">
+        <v>0.96907041682581796</v>
+      </c>
+      <c r="E35">
+        <v>0.93077664987200703</v>
+      </c>
+      <c r="F35">
+        <v>0.97219098669863702</v>
+      </c>
+      <c r="G35">
+        <v>0.76615893202061003</v>
+      </c>
+      <c r="H35">
+        <v>0.80368971064646799</v>
+      </c>
+      <c r="I35">
+        <v>0.996944618929548</v>
+      </c>
+      <c r="J35">
+        <v>0.86494469222951698</v>
+      </c>
+      <c r="K35">
+        <v>0.2344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.87923598497257704</v>
+      </c>
+      <c r="C36">
+        <v>0.91119073779971504</v>
+      </c>
+      <c r="D36">
+        <v>0.96658986115134904</v>
+      </c>
+      <c r="E36">
+        <v>0.92839411578530395</v>
+      </c>
+      <c r="F36">
+        <v>0.97053195771109602</v>
+      </c>
+      <c r="G36">
+        <v>0.75962173976787395</v>
+      </c>
+      <c r="H36">
+        <v>0.79683228990716404</v>
+      </c>
+      <c r="I36">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J36">
+        <v>0.85904063289689203</v>
+      </c>
+      <c r="K36">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.87565457566515303</v>
+      </c>
+      <c r="C37">
+        <v>0.90655127375796496</v>
+      </c>
+      <c r="D37">
+        <v>0.965605553757102</v>
+      </c>
+      <c r="E37">
+        <v>0.92177623512288298</v>
+      </c>
+      <c r="F37">
+        <v>0.96855531421270302</v>
+      </c>
+      <c r="G37">
+        <v>0.75033919304973296</v>
+      </c>
+      <c r="H37">
+        <v>0.79196366084459502</v>
+      </c>
+      <c r="I37">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J37">
+        <v>0.85466669892083802</v>
+      </c>
+      <c r="K37">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0.87140897772253401</v>
+      </c>
+      <c r="C38">
+        <v>0.90545242372916701</v>
+      </c>
+      <c r="D38">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E38">
+        <v>0.913955103430931</v>
+      </c>
+      <c r="F38">
+        <v>0.96738130777123299</v>
+      </c>
+      <c r="G38">
+        <v>0.74579168278882602</v>
+      </c>
+      <c r="H38">
+        <v>0.78428401322428298</v>
+      </c>
+      <c r="I38">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J38">
+        <v>0.84948690074556099</v>
+      </c>
+      <c r="K38">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0.87011800145924101</v>
+      </c>
+      <c r="C39">
+        <v>0.90276960173293297</v>
+      </c>
+      <c r="D39">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E39">
+        <v>0.913955103430931</v>
+      </c>
+      <c r="F39">
+        <v>0.964514992785244</v>
+      </c>
+      <c r="G39">
+        <v>0.74358192965463699</v>
+      </c>
+      <c r="H39">
+        <v>0.77266499080614603</v>
+      </c>
+      <c r="I39">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J39">
+        <v>0.84193590607226698</v>
+      </c>
+      <c r="K39">
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0.86687733851153503</v>
+      </c>
+      <c r="C40">
+        <v>0.89772619613665905</v>
+      </c>
+      <c r="D40">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E40">
+        <v>0.91225313862007296</v>
+      </c>
+      <c r="F40">
+        <v>0.964514992785244</v>
+      </c>
+      <c r="G40">
+        <v>0.740812536992981</v>
+      </c>
+      <c r="H40">
+        <v>0.76547071714873305</v>
+      </c>
+      <c r="I40">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J40">
+        <v>0.83880020437367397</v>
+      </c>
+      <c r="K40">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0.86485192416921797</v>
+      </c>
+      <c r="C41">
+        <v>0.89562870502419001</v>
+      </c>
+      <c r="D41">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E41">
+        <v>0.90799027348633399</v>
+      </c>
+      <c r="F41">
+        <v>0.96226145308247502</v>
+      </c>
+      <c r="G41">
+        <v>0.73042731451177101</v>
+      </c>
+      <c r="H41">
+        <v>0.75831678521276302</v>
+      </c>
+      <c r="I41">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J41">
+        <v>0.83684039081205297</v>
+      </c>
+      <c r="K41">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>0.85964197281880095</v>
+      </c>
+      <c r="C42">
+        <v>0.89293102820182801</v>
+      </c>
+      <c r="D42">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E42">
+        <v>0.89431572117479297</v>
+      </c>
+      <c r="F42">
+        <v>0.96226145308247502</v>
+      </c>
+      <c r="G42">
+        <v>0.72822723223914498</v>
+      </c>
+      <c r="H42">
+        <v>0.75146452510541895</v>
+      </c>
+      <c r="I42">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J42">
+        <v>0.82675797646492</v>
+      </c>
+      <c r="K42">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>0.856133230072602</v>
+      </c>
+      <c r="C43">
+        <v>0.88928641176018797</v>
+      </c>
+      <c r="D43">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E43">
+        <v>0.88336491642571402</v>
+      </c>
+      <c r="F43">
+        <v>0.96226145308247502</v>
+      </c>
+      <c r="G43">
+        <v>0.722282520139234</v>
+      </c>
+      <c r="H43">
+        <v>0.74533012081884398</v>
+      </c>
+      <c r="I43">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J43">
+        <v>0.82000893175908396</v>
+      </c>
+      <c r="K43">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>0.84656749565838296</v>
+      </c>
+      <c r="C44">
+        <v>0.88928641176018797</v>
+      </c>
+      <c r="D44">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E44">
+        <v>0.88336491642571402</v>
+      </c>
+      <c r="F44">
+        <v>0.96226145308247502</v>
+      </c>
+      <c r="G44">
+        <v>0.71824742226136096</v>
+      </c>
+      <c r="H44">
+        <v>0.73700240997170596</v>
+      </c>
+      <c r="I44">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J44">
+        <v>0.80626576530502103</v>
+      </c>
+      <c r="K44">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>0.84029662532017202</v>
+      </c>
+      <c r="C45">
+        <v>0.88928641176018797</v>
+      </c>
+      <c r="D45">
+        <v>0.96443512278285004</v>
+      </c>
+      <c r="E45">
+        <v>0.87682147260033805</v>
+      </c>
+      <c r="F45">
+        <v>0.96226145308247502</v>
+      </c>
+      <c r="G45">
+        <v>0.70760671970934097</v>
+      </c>
+      <c r="H45">
+        <v>0.73154313286080497</v>
+      </c>
+      <c r="I45">
+        <v>0.99524334824878102</v>
+      </c>
+      <c r="J45">
+        <v>0.80029342630276101</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F7CB8-F468-4593-90D6-DCDEC1F98548}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -18678,18 +23206,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -20236,7 +24764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6DEC7B-82BE-4E3D-870F-551E1353F10A}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -20250,18 +24778,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -21808,7 +26336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27477675-C661-426E-B288-EC59BA1F0FE3}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -21822,18 +26350,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -23367,1578 +27895,6 @@
       </c>
       <c r="J45">
         <v>0.77333772274247503</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F24A23-ABC1-4AED-9616-81313B6160C6}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.997</v>
-      </c>
-      <c r="C4">
-        <v>0.999</v>
-      </c>
-      <c r="D4">
-        <v>0.999</v>
-      </c>
-      <c r="E4">
-        <v>0.999</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.995</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.997</v>
-      </c>
-      <c r="K4">
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.99498789101917295</v>
-      </c>
-      <c r="C5">
-        <v>0.999</v>
-      </c>
-      <c r="D5">
-        <v>0.999</v>
-      </c>
-      <c r="E5">
-        <v>0.99698385469223005</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.98201412714429903</v>
-      </c>
-      <c r="H5">
-        <v>0.99399596367305798</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.99498789101917295</v>
-      </c>
-      <c r="K5">
-        <v>0.97899999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.99498789101917295</v>
-      </c>
-      <c r="C6">
-        <v>0.99389785495403504</v>
-      </c>
-      <c r="D6">
-        <v>0.999</v>
-      </c>
-      <c r="E6">
-        <v>0.99494711545894698</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.97699873323651398</v>
-      </c>
-      <c r="H6">
-        <v>0.99298064603907099</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.99193889850328099</v>
-      </c>
-      <c r="K6">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0.99498789101917295</v>
-      </c>
-      <c r="C7">
-        <v>0.99389785495403504</v>
-      </c>
-      <c r="D7">
-        <v>0.99695286885245904</v>
-      </c>
-      <c r="E7">
-        <v>0.99494711545894698</v>
-      </c>
-      <c r="F7">
-        <v>0.99795081967213095</v>
-      </c>
-      <c r="G7">
-        <v>0.96698850031400796</v>
-      </c>
-      <c r="H7">
-        <v>0.988911053227435</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.99092256766465103</v>
-      </c>
-      <c r="K7">
-        <v>0.96599999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0.992927874681659</v>
-      </c>
-      <c r="C8">
-        <v>0.98978233588590203</v>
-      </c>
-      <c r="D8">
-        <v>0.99695286885245904</v>
-      </c>
-      <c r="E8">
-        <v>0.99391714950091503</v>
-      </c>
-      <c r="F8">
-        <v>0.99795081967213095</v>
-      </c>
-      <c r="G8">
-        <v>0.96298440714500599</v>
-      </c>
-      <c r="H8">
-        <v>0.98276874854900398</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.98681936862670205</v>
-      </c>
-      <c r="K8">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0.98879067520381803</v>
-      </c>
-      <c r="C9">
-        <v>0.98565824281971104</v>
-      </c>
-      <c r="D9">
-        <v>0.99591437628073798</v>
-      </c>
-      <c r="E9">
-        <v>0.98977582804466102</v>
-      </c>
-      <c r="F9">
-        <v>0.99691128756830605</v>
-      </c>
-      <c r="G9">
-        <v>0.95696575460035005</v>
-      </c>
-      <c r="H9">
-        <v>0.97253157408495206</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.981679684415105</v>
-      </c>
-      <c r="K9">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0.98566159078861604</v>
-      </c>
-      <c r="C10">
-        <v>0.98253907116521799</v>
-      </c>
-      <c r="D10">
-        <v>0.99591437628073798</v>
-      </c>
-      <c r="E10">
-        <v>0.98977582804466102</v>
-      </c>
-      <c r="F10">
-        <v>0.99691128756830605</v>
-      </c>
-      <c r="G10">
-        <v>0.94989955177102303</v>
-      </c>
-      <c r="H10">
-        <v>0.97047981970924502</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.97753757604204505</v>
-      </c>
-      <c r="K10">
-        <v>0.92900000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0.98566159078861604</v>
-      </c>
-      <c r="C11">
-        <v>0.98042380944042795</v>
-      </c>
-      <c r="D11">
-        <v>0.99591437628073798</v>
-      </c>
-      <c r="E11">
-        <v>0.98657956595194396</v>
-      </c>
-      <c r="F11">
-        <v>0.99691128756830605</v>
-      </c>
-      <c r="G11">
-        <v>0.941719577159431</v>
-      </c>
-      <c r="H11">
-        <v>0.96734586980706305</v>
-      </c>
-      <c r="I11">
-        <v>0.99677072120559695</v>
-      </c>
-      <c r="J11">
-        <v>0.97648532892036399</v>
-      </c>
-      <c r="K11">
-        <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0.98242283419237797</v>
-      </c>
-      <c r="C12">
-        <v>0.97720226351674599</v>
-      </c>
-      <c r="D12">
-        <v>0.99591437628073798</v>
-      </c>
-      <c r="E12">
-        <v>0.98225720202663402</v>
-      </c>
-      <c r="F12">
-        <v>0.99691128756830605</v>
-      </c>
-      <c r="G12">
-        <v>0.93346792697621594</v>
-      </c>
-      <c r="H12">
-        <v>0.96628634530563096</v>
-      </c>
-      <c r="I12">
-        <v>0.99677072120559695</v>
-      </c>
-      <c r="J12">
-        <v>0.97327672433464496</v>
-      </c>
-      <c r="K12">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>0.97694667569632199</v>
-      </c>
-      <c r="C13">
-        <v>0.97611285185173302</v>
-      </c>
-      <c r="D13">
-        <v>0.994804103843412</v>
-      </c>
-      <c r="E13">
-        <v>0.97897206088273203</v>
-      </c>
-      <c r="F13">
-        <v>0.99579990374715999</v>
-      </c>
-      <c r="G13">
-        <v>0.92306137260635901</v>
-      </c>
-      <c r="H13">
-        <v>0.95874564918841898</v>
-      </c>
-      <c r="I13">
-        <v>0.99677072120559695</v>
-      </c>
-      <c r="J13">
-        <v>0.97110665360034298</v>
-      </c>
-      <c r="K13">
-        <v>0.876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>0.97025526010936103</v>
-      </c>
-      <c r="C14">
-        <v>0.97276999961936395</v>
-      </c>
-      <c r="D14">
-        <v>0.99366848272030395</v>
-      </c>
-      <c r="E14">
-        <v>0.97897206088273203</v>
-      </c>
-      <c r="F14">
-        <v>0.99579990374715999</v>
-      </c>
-      <c r="G14">
-        <v>0.91568531140973297</v>
-      </c>
-      <c r="H14">
-        <v>0.95436781517386005</v>
-      </c>
-      <c r="I14">
-        <v>0.99677072120559695</v>
-      </c>
-      <c r="J14">
-        <v>0.96556380740399395</v>
-      </c>
-      <c r="K14">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.96567318095890398</v>
-      </c>
-      <c r="C15">
-        <v>0.96932453326888202</v>
-      </c>
-      <c r="D15">
-        <v>0.992495320403042</v>
-      </c>
-      <c r="E15">
-        <v>0.97897206088273203</v>
-      </c>
-      <c r="F15">
-        <v>0.993448546241263</v>
-      </c>
-      <c r="G15">
-        <v>0.90595547929321796</v>
-      </c>
-      <c r="H15">
-        <v>0.94535371538473301</v>
-      </c>
-      <c r="I15">
-        <v>0.99677072120559695</v>
-      </c>
-      <c r="J15">
-        <v>0.96442382652157999</v>
-      </c>
-      <c r="K15">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>0.96450408509817798</v>
-      </c>
-      <c r="C16">
-        <v>0.968151016884779</v>
-      </c>
-      <c r="D16">
-        <v>0.991293752218535</v>
-      </c>
-      <c r="E16">
-        <v>0.97660166848350005</v>
-      </c>
-      <c r="F16">
-        <v>0.99224582403031703</v>
-      </c>
-      <c r="G16">
-        <v>0.89937468888673</v>
-      </c>
-      <c r="H16">
-        <v>0.94077573129086001</v>
-      </c>
-      <c r="I16">
-        <v>0.99677072120559695</v>
-      </c>
-      <c r="J16">
-        <v>0.95975349322123404</v>
-      </c>
-      <c r="K16">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>0.95855035617781903</v>
-      </c>
-      <c r="C17">
-        <v>0.96695576871578603</v>
-      </c>
-      <c r="D17">
-        <v>0.99006993277135202</v>
-      </c>
-      <c r="E17">
-        <v>0.97660166848350005</v>
-      </c>
-      <c r="F17">
-        <v>0.98979583434135399</v>
-      </c>
-      <c r="G17">
-        <v>0.88938163678798898</v>
-      </c>
-      <c r="H17">
-        <v>0.93729137673052298</v>
-      </c>
-      <c r="I17">
-        <v>0.99677072120559695</v>
-      </c>
-      <c r="J17">
-        <v>0.95501396979791897</v>
-      </c>
-      <c r="K17">
-        <v>0.79100000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>0.95733853524712698</v>
-      </c>
-      <c r="C18">
-        <v>0.96328842698867101</v>
-      </c>
-      <c r="D18">
-        <v>0.98881826408263895</v>
-      </c>
-      <c r="E18">
-        <v>0.97413238487165899</v>
-      </c>
-      <c r="F18">
-        <v>0.98979583434135399</v>
-      </c>
-      <c r="G18">
-        <v>0.88263537911323797</v>
-      </c>
-      <c r="H18">
-        <v>0.927811817926675</v>
-      </c>
-      <c r="I18">
-        <v>0.99551058122935798</v>
-      </c>
-      <c r="J18">
-        <v>0.95259926949501605</v>
-      </c>
-      <c r="K18">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>0.95357935251709902</v>
-      </c>
-      <c r="C19">
-        <v>0.96076672953582198</v>
-      </c>
-      <c r="D19">
-        <v>0.98881826408263895</v>
-      </c>
-      <c r="E19">
-        <v>0.97413238487165899</v>
-      </c>
-      <c r="F19">
-        <v>0.98850029005556606</v>
-      </c>
-      <c r="G19">
-        <v>0.87570368765423301</v>
-      </c>
-      <c r="H19">
-        <v>0.92173975105542705</v>
-      </c>
-      <c r="I19">
-        <v>0.99551058122935798</v>
-      </c>
-      <c r="J19">
-        <v>0.94636498108209099</v>
-      </c>
-      <c r="K19">
-        <v>0.73599999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>0.94969248015629504</v>
-      </c>
-      <c r="C20">
-        <v>0.95946133995764804</v>
-      </c>
-      <c r="D20">
-        <v>0.98478775485404202</v>
-      </c>
-      <c r="E20">
-        <v>0.97148528599972495</v>
-      </c>
-      <c r="F20">
-        <v>0.98715721900929498</v>
-      </c>
-      <c r="G20">
-        <v>0.86737498410317404</v>
-      </c>
-      <c r="H20">
-        <v>0.91547793209445305</v>
-      </c>
-      <c r="I20">
-        <v>0.99551058122935798</v>
-      </c>
-      <c r="J20">
-        <v>0.94379333711175895</v>
-      </c>
-      <c r="K20">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>0.94441641082209404</v>
-      </c>
-      <c r="C21">
-        <v>0.95413099918010502</v>
-      </c>
-      <c r="D21">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E21">
-        <v>0.97013600088028096</v>
-      </c>
-      <c r="F21">
-        <v>0.98715721900929498</v>
-      </c>
-      <c r="G21">
-        <v>0.86255623419148997</v>
-      </c>
-      <c r="H21">
-        <v>0.90912044645490797</v>
-      </c>
-      <c r="I21">
-        <v>0.99551058122935798</v>
-      </c>
-      <c r="J21">
-        <v>0.93986086487379406</v>
-      </c>
-      <c r="K21">
-        <v>0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>0.94034565043061902</v>
-      </c>
-      <c r="C22">
-        <v>0.95276012130772003</v>
-      </c>
-      <c r="D22">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E22">
-        <v>0.96734825375131395</v>
-      </c>
-      <c r="F22">
-        <v>0.98715721900929498</v>
-      </c>
-      <c r="G22">
-        <v>0.85388109965220704</v>
-      </c>
-      <c r="H22">
-        <v>0.90520182384087799</v>
-      </c>
-      <c r="I22">
-        <v>0.99551058122935798</v>
-      </c>
-      <c r="J22">
-        <v>0.93716011526208698</v>
-      </c>
-      <c r="K22">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>0.93752178961851496</v>
-      </c>
-      <c r="C23">
-        <v>0.95132955055500601</v>
-      </c>
-      <c r="D23">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E23">
-        <v>0.96734825375131395</v>
-      </c>
-      <c r="F23">
-        <v>0.98715721900929498</v>
-      </c>
-      <c r="G23">
-        <v>0.84490637337958696</v>
-      </c>
-      <c r="H23">
-        <v>0.89568769055726505</v>
-      </c>
-      <c r="I23">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J23">
-        <v>0.93434582062166105</v>
-      </c>
-      <c r="K23">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>0.93303603942895297</v>
-      </c>
-      <c r="C24">
-        <v>0.94981227854455097</v>
-      </c>
-      <c r="D24">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E24">
-        <v>0.96734825375131395</v>
-      </c>
-      <c r="F24">
-        <v>0.98558280558184796</v>
-      </c>
-      <c r="G24">
-        <v>0.83277853069949703</v>
-      </c>
-      <c r="H24">
-        <v>0.88854504549699997</v>
-      </c>
-      <c r="I24">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J24">
-        <v>0.93136545117789105</v>
-      </c>
-      <c r="K24">
-        <v>0.59499999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>0.92519540044215498</v>
-      </c>
-      <c r="C25">
-        <v>0.94821595538733305</v>
-      </c>
-      <c r="D25">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E25">
-        <v>0.96734825375131395</v>
-      </c>
-      <c r="F25">
-        <v>0.98558280558184796</v>
-      </c>
-      <c r="G25">
-        <v>0.82438076400336702</v>
-      </c>
-      <c r="H25">
-        <v>0.88107828040878999</v>
-      </c>
-      <c r="I25">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J25">
-        <v>0.92823481100586502</v>
-      </c>
-      <c r="K25">
-        <v>0.57299999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>0.918736793807306</v>
-      </c>
-      <c r="C26">
-        <v>0.946561128240061</v>
-      </c>
-      <c r="D26">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E26">
-        <v>0.96734825375131395</v>
-      </c>
-      <c r="F26">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G26">
-        <v>0.818625924464077</v>
-      </c>
-      <c r="H26">
-        <v>0.87646530511869203</v>
-      </c>
-      <c r="I26">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J26">
-        <v>0.923374942885415</v>
-      </c>
-      <c r="K26">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>0.91537145756625304</v>
-      </c>
-      <c r="C27">
-        <v>0.94309387136006095</v>
-      </c>
-      <c r="D27">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E27">
-        <v>0.96380485355442302</v>
-      </c>
-      <c r="F27">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G27">
-        <v>0.80963003518425203</v>
-      </c>
-      <c r="H27">
-        <v>0.87164956168397401</v>
-      </c>
-      <c r="I27">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J27">
-        <v>0.91999261708729996</v>
-      </c>
-      <c r="K27">
-        <v>0.51600000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>0.91182350618033803</v>
-      </c>
-      <c r="C28">
-        <v>0.93578306615571905</v>
-      </c>
-      <c r="D28">
-        <v>0.98205223331278002</v>
-      </c>
-      <c r="E28">
-        <v>0.96380485355442302</v>
-      </c>
-      <c r="F28">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G28">
-        <v>0.80178478290533495</v>
-      </c>
-      <c r="H28">
-        <v>0.86827107501078005</v>
-      </c>
-      <c r="I28">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J28">
-        <v>0.91464382280190903</v>
-      </c>
-      <c r="K28">
-        <v>0.48199999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>0.90425650612904895</v>
-      </c>
-      <c r="C29">
-        <v>0.93190014886876604</v>
-      </c>
-      <c r="D29">
-        <v>0.98001478054657098</v>
-      </c>
-      <c r="E29">
-        <v>0.95580647302700095</v>
-      </c>
-      <c r="F29">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G29">
-        <v>0.79180405946667898</v>
-      </c>
-      <c r="H29">
-        <v>0.85566132910813397</v>
-      </c>
-      <c r="I29">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J29">
-        <v>0.91274622150978901</v>
-      </c>
-      <c r="K29">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>0.89816039485177401</v>
-      </c>
-      <c r="C30">
-        <v>0.92980599123085805</v>
-      </c>
-      <c r="D30">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E30">
-        <v>0.95365859331233305</v>
-      </c>
-      <c r="F30">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G30">
-        <v>0.77756937974592999</v>
-      </c>
-      <c r="H30">
-        <v>0.85181566021326605</v>
-      </c>
-      <c r="I30">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J30">
-        <v>0.91274622150978901</v>
-      </c>
-      <c r="K30">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>0.89140730917619704</v>
-      </c>
-      <c r="C31">
-        <v>0.92980599123085805</v>
-      </c>
-      <c r="D31">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E31">
-        <v>0.95365859331233305</v>
-      </c>
-      <c r="F31">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G31">
-        <v>0.76977419799409097</v>
-      </c>
-      <c r="H31">
-        <v>0.84754590753049197</v>
-      </c>
-      <c r="I31">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J31">
-        <v>0.91045863699472696</v>
-      </c>
-      <c r="K31">
-        <v>0.371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>0.88900459405712395</v>
-      </c>
-      <c r="C32">
-        <v>0.92729977562107202</v>
-      </c>
-      <c r="D32">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E32">
-        <v>0.94594706829902597</v>
-      </c>
-      <c r="F32">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G32">
-        <v>0.76562447185935201</v>
-      </c>
-      <c r="H32">
-        <v>0.84069243658011095</v>
-      </c>
-      <c r="I32">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J32">
-        <v>0.90309643777374504</v>
-      </c>
-      <c r="K32">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>0.88633491059148695</v>
-      </c>
-      <c r="C33">
-        <v>0.91337635556670105</v>
-      </c>
-      <c r="D33">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E33">
-        <v>0.94026570452545799</v>
-      </c>
-      <c r="F33">
-        <v>0.98386276578153098</v>
-      </c>
-      <c r="G33">
-        <v>0.75642778150668699</v>
-      </c>
-      <c r="H33">
-        <v>0.83311863084515503</v>
-      </c>
-      <c r="I33">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J33">
-        <v>0.90038443645910904</v>
-      </c>
-      <c r="K33">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>0.87764535264451105</v>
-      </c>
-      <c r="C34">
-        <v>0.91039146551582995</v>
-      </c>
-      <c r="D34">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E34">
-        <v>0.94026570452545799</v>
-      </c>
-      <c r="F34">
-        <v>0.98064752798485899</v>
-      </c>
-      <c r="G34">
-        <v>0.74653983665039003</v>
-      </c>
-      <c r="H34">
-        <v>0.822228191226264</v>
-      </c>
-      <c r="I34">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J34">
-        <v>0.89744200366022298</v>
-      </c>
-      <c r="K34">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>0.87764535264451105</v>
-      </c>
-      <c r="C35">
-        <v>0.91039146551582995</v>
-      </c>
-      <c r="D35">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E35">
-        <v>0.93342740849254602</v>
-      </c>
-      <c r="F35">
-        <v>0.97708153697400502</v>
-      </c>
-      <c r="G35">
-        <v>0.74382514633529795</v>
-      </c>
-      <c r="H35">
-        <v>0.813258429140159</v>
-      </c>
-      <c r="I35">
-        <v>0.99401582059688098</v>
-      </c>
-      <c r="J35">
-        <v>0.89091515272451305</v>
-      </c>
-      <c r="K35">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>0.87394220769664399</v>
-      </c>
-      <c r="C36">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D36">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E36">
-        <v>0.92948889622042496</v>
-      </c>
-      <c r="F36">
-        <v>0.97708153697400502</v>
-      </c>
-      <c r="G36">
-        <v>0.73754814088099196</v>
-      </c>
-      <c r="H36">
-        <v>0.80296401864471401</v>
-      </c>
-      <c r="I36">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J36">
-        <v>0.87963774572800002</v>
-      </c>
-      <c r="K36">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>0.86948331888186503</v>
-      </c>
-      <c r="C37">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D37">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E37">
-        <v>0.92474660593358604</v>
-      </c>
-      <c r="F37">
-        <v>0.97209642709148503</v>
-      </c>
-      <c r="G37">
-        <v>0.73002213944343097</v>
-      </c>
-      <c r="H37">
-        <v>0.79886726344754799</v>
-      </c>
-      <c r="I37">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J37">
-        <v>0.87066185036342802</v>
-      </c>
-      <c r="K37">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>0.864213723009854</v>
-      </c>
-      <c r="C38">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D38">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E38">
-        <v>0.91353755616469501</v>
-      </c>
-      <c r="F38">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G38">
-        <v>0.72559776284074295</v>
-      </c>
-      <c r="H38">
-        <v>0.77950078433366798</v>
-      </c>
-      <c r="I38">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J38">
-        <v>0.86538511187637701</v>
-      </c>
-      <c r="K38">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>0.864213723009854</v>
-      </c>
-      <c r="C39">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D39">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E39">
-        <v>0.91353755616469501</v>
-      </c>
-      <c r="F39">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G39">
-        <v>0.72559776284074295</v>
-      </c>
-      <c r="H39">
-        <v>0.77341093445606102</v>
-      </c>
-      <c r="I39">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J39">
-        <v>0.85186346950330905</v>
-      </c>
-      <c r="K39">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>0.85590397567322096</v>
-      </c>
-      <c r="C40">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D40">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E40">
-        <v>0.91353755616469501</v>
-      </c>
-      <c r="F40">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G40">
-        <v>0.72559776284074295</v>
-      </c>
-      <c r="H40">
-        <v>0.76597429085552204</v>
-      </c>
-      <c r="I40">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J40">
-        <v>0.85186346950330905</v>
-      </c>
-      <c r="K40">
-        <v>8.4999999999999895E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>0.85590397567322096</v>
-      </c>
-      <c r="C41">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D41">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E41">
-        <v>0.91353755616469501</v>
-      </c>
-      <c r="F41">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G41">
-        <v>0.71706131857202904</v>
-      </c>
-      <c r="H41">
-        <v>0.76597429085552204</v>
-      </c>
-      <c r="I41">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J41">
-        <v>0.84184154633268204</v>
-      </c>
-      <c r="K41">
-        <v>6.7999999999999894E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>0.84331715250155603</v>
-      </c>
-      <c r="C42">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D42">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E42">
-        <v>0.90010318033874304</v>
-      </c>
-      <c r="F42">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G42">
-        <v>0.71706131857202904</v>
-      </c>
-      <c r="H42">
-        <v>0.75470996304882298</v>
-      </c>
-      <c r="I42">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J42">
-        <v>0.81708150085230902</v>
-      </c>
-      <c r="K42">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>0.84331715250155603</v>
-      </c>
-      <c r="C43">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D43">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E43">
-        <v>0.90010318033874304</v>
-      </c>
-      <c r="F43">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G43">
-        <v>0.71706131857202904</v>
-      </c>
-      <c r="H43">
-        <v>0.75470996304882298</v>
-      </c>
-      <c r="I43">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J43">
-        <v>0.81708150085230902</v>
-      </c>
-      <c r="K43">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>0.84331715250155603</v>
-      </c>
-      <c r="C44">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D44">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E44">
-        <v>0.90010318033874304</v>
-      </c>
-      <c r="F44">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G44">
-        <v>0.69867513091633604</v>
-      </c>
-      <c r="H44">
-        <v>0.75470996304882298</v>
-      </c>
-      <c r="I44">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J44">
-        <v>0.79613069313814699</v>
-      </c>
-      <c r="K44">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>0.84331715250155603</v>
-      </c>
-      <c r="C45">
-        <v>0.90270883711485195</v>
-      </c>
-      <c r="D45">
-        <v>0.97781250014084897</v>
-      </c>
-      <c r="E45">
-        <v>0.87438594661477897</v>
-      </c>
-      <c r="F45">
-        <v>0.96620493359395998</v>
-      </c>
-      <c r="G45">
-        <v>0.67871298431872595</v>
-      </c>
-      <c r="H45">
-        <v>0.75470996304882298</v>
-      </c>
-      <c r="I45">
-        <v>0.98982166101630398</v>
-      </c>
-      <c r="J45">
-        <v>0.77338410190562801</v>
       </c>
       <c r="K45">
         <v>0</v>
